--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -14501,13 +14501,13 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.01</v>
+        <v>0.08</v>
       </c>
       <c r="C90" t="n">
         <v>-1.12</v>
       </c>
       <c r="D90" t="n">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="E90" t="n">
         <v>0.01</v>
@@ -14519,7 +14519,7 @@
         <v>1.39</v>
       </c>
       <c r="H90" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="I90" t="n">
         <v>-3.76</v>
@@ -14531,10 +14531,10 @@
         <v>-0.35</v>
       </c>
       <c r="L90" t="n">
-        <v>-1.13</v>
+        <v>-1.16</v>
       </c>
       <c r="M90" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="N90" t="n">
         <v>0.01</v>
@@ -14543,10 +14543,10 @@
         <v>0.09</v>
       </c>
       <c r="P90" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="R90" t="n">
         <v>0.17</v>
@@ -14561,7 +14561,7 @@
         <v>0.02</v>
       </c>
       <c r="V90" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W90" t="n">
         <v>-1.69</v>
@@ -14570,7 +14570,7 @@
         <v>0.02</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Z90" t="n">
         <v>0.01</v>
@@ -14588,16 +14588,16 @@
         <v>0.37</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="AF90" t="n">
         <v>-0.23</v>
       </c>
       <c r="AG90" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AH90" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AI90" t="n">
         <v>0.1</v>
@@ -14609,7 +14609,7 @@
         <v>0.1</v>
       </c>
       <c r="AL90" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AM90" t="n">
         <v>0.14</v>
@@ -14636,19 +14636,19 @@
         <v>1.48</v>
       </c>
       <c r="AU90" t="n">
-        <v>-0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="AV90" t="n">
         <v>0</v>
       </c>
       <c r="AW90" t="n">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="AX90" t="n">
         <v>-1.07</v>
       </c>
       <c r="AY90" t="n">
-        <v>-7.05</v>
+        <v>-7.21</v>
       </c>
     </row>
     <row r="91">
@@ -14656,13 +14656,13 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="C91" t="n">
         <v>-0.28</v>
       </c>
       <c r="D91" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="E91" t="n">
         <v>-0.02</v>
@@ -14686,10 +14686,10 @@
         <v>-0.04</v>
       </c>
       <c r="L91" t="n">
-        <v>-1.8</v>
+        <v>-1.78</v>
       </c>
       <c r="M91" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -14701,7 +14701,7 @@
         <v>-0.04</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="R91" t="n">
         <v>0.06</v>
@@ -14710,7 +14710,7 @@
         <v>-0.01</v>
       </c>
       <c r="T91" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -14728,28 +14728,28 @@
         <v>0.02</v>
       </c>
       <c r="Z91" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AB91" t="n">
         <v>-0.11</v>
       </c>
       <c r="AC91" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AD91" t="n">
         <v>0.49</v>
       </c>
       <c r="AE91" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="AF91" t="n">
         <v>-0.01</v>
       </c>
       <c r="AG91" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AH91" t="n">
         <v>0.05</v>
@@ -14791,19 +14791,19 @@
         <v>2.12</v>
       </c>
       <c r="AU91" t="n">
-        <v>-0.26</v>
+        <v>-0.2</v>
       </c>
       <c r="AV91" t="n">
         <v>-0.09</v>
       </c>
       <c r="AW91" t="n">
-        <v>-0.1</v>
+        <v>-0.04</v>
       </c>
       <c r="AX91" t="n">
         <v>-0.1</v>
       </c>
       <c r="AY91" t="n">
-        <v>3.54</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="92">
@@ -14811,28 +14811,28 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.39</v>
+        <v>-0.4</v>
       </c>
       <c r="D92" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F92" t="n">
         <v>-0.37</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="H92" t="n">
-        <v>0.11</v>
+        <v>-0.03</v>
       </c>
       <c r="I92" t="n">
-        <v>-3.92</v>
+        <v>-3.83</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -14841,22 +14841,22 @@
         <v>-0.19</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="M92" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="P92" t="n">
         <v>-0.1</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="R92" t="n">
         <v>0.18</v>
@@ -14868,16 +14868,16 @@
         <v>0.13</v>
       </c>
       <c r="U92" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="V92" t="n">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="W92" t="n">
-        <v>-0.28</v>
+        <v>-0.31</v>
       </c>
       <c r="X92" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="Y92" t="n">
         <v>0.02</v>
@@ -14892,19 +14892,19 @@
         <v>0</v>
       </c>
       <c r="AC92" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="AE92" t="n">
-        <v>-0.25</v>
+        <v>-0.23</v>
       </c>
       <c r="AF92" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="AG92" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="AH92" t="n">
         <v>-0.09</v>
@@ -14916,10 +14916,10 @@
         <v>-0.02</v>
       </c>
       <c r="AK92" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AL92" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AM92" t="n">
         <v>0.08</v>
@@ -14931,34 +14931,34 @@
         <v>0.03</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AR92" t="n">
         <v>0.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="AT92" t="n">
-        <v>4.86</v>
+        <v>4.36</v>
       </c>
       <c r="AU92" t="n">
-        <v>-0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="AV92" t="n">
         <v>0.01</v>
       </c>
       <c r="AW92" t="n">
-        <v>-0.08</v>
+        <v>-0.21</v>
       </c>
       <c r="AX92" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="AY92" t="n">
-        <v>6.02</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="93">
@@ -14972,22 +14972,22 @@
         <v>-0.84</v>
       </c>
       <c r="D93" t="n">
-        <v>-2.19</v>
+        <v>-2.24</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G93" t="n">
         <v>0.46</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="I93" t="n">
-        <v>-2.32</v>
+        <v>-2.35</v>
       </c>
       <c r="J93" t="n">
         <v>0.02</v>
@@ -14996,10 +14996,10 @@
         <v>-0.52</v>
       </c>
       <c r="L93" t="n">
-        <v>-10.17</v>
+        <v>-10.15</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -15011,16 +15011,16 @@
         <v>-0.05</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="R93" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S93" t="n">
         <v>-0.02</v>
       </c>
       <c r="T93" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="U93" t="n">
         <v>-0.02</v>
@@ -15029,7 +15029,7 @@
         <v>-0.12</v>
       </c>
       <c r="W93" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="X93" t="n">
         <v>0.03</v>
@@ -15044,25 +15044,25 @@
         <v>0</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC93" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AD93" t="n">
         <v>0.22</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="AF93" t="n">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="AG93" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AH93" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AI93" t="n">
         <v>-0.05</v>
@@ -15071,13 +15071,13 @@
         <v>-0.01</v>
       </c>
       <c r="AK93" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AL93" t="n">
         <v>-0.01</v>
       </c>
       <c r="AM93" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AN93" t="n">
         <v>-0.1</v>
@@ -15086,7 +15086,7 @@
         <v>0.02</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.21</v>
@@ -15095,25 +15095,25 @@
         <v>0.12</v>
       </c>
       <c r="AS93" t="n">
-        <v>-0.92</v>
+        <v>-1.22</v>
       </c>
       <c r="AT93" t="n">
-        <v>-1.2</v>
+        <v>-1.34</v>
       </c>
       <c r="AU93" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AV93" t="n">
         <v>-0.11</v>
       </c>
       <c r="AW93" t="n">
-        <v>-0.1</v>
+        <v>-0.18</v>
       </c>
       <c r="AX93" t="n">
-        <v>-0.66</v>
+        <v>-0.82</v>
       </c>
       <c r="AY93" t="n">
-        <v>-16.56</v>
+        <v>-17.43</v>
       </c>
     </row>
     <row r="94">
@@ -15121,13 +15121,13 @@
         <v>45170</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>-0.48</v>
       </c>
       <c r="D94" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="E94" t="n">
         <v>-0.01</v>
@@ -15136,13 +15136,13 @@
         <v>-0.09</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.58</v>
+        <v>-0.59</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.08</v>
+        <v>-0.28</v>
       </c>
       <c r="I94" t="n">
-        <v>-2.41</v>
+        <v>-2.45</v>
       </c>
       <c r="J94" t="n">
         <v>0.01</v>
@@ -15151,7 +15151,7 @@
         <v>-0.2</v>
       </c>
       <c r="L94" t="n">
-        <v>-2.86</v>
+        <v>-2.87</v>
       </c>
       <c r="M94" t="n">
         <v>-0.06</v>
@@ -15160,7 +15160,7 @@
         <v>0.01</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="P94" t="n">
         <v>-0.04</v>
@@ -15181,10 +15181,10 @@
         <v>-0.02</v>
       </c>
       <c r="V94" t="n">
-        <v>-0.74</v>
+        <v>-0.72</v>
       </c>
       <c r="W94" t="n">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="X94" t="n">
         <v>-0.13</v>
@@ -15199,25 +15199,25 @@
         <v>-0.01</v>
       </c>
       <c r="AB94" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AC94" t="n">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="AD94" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AE94" t="n">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="AF94" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AG94" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AH94" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="AI94" t="n">
         <v>-0.03</v>
@@ -15250,10 +15250,10 @@
         <v>-0.12</v>
       </c>
       <c r="AS94" t="n">
-        <v>-8.08</v>
+        <v>-8.59</v>
       </c>
       <c r="AT94" t="n">
-        <v>-1.13</v>
+        <v>-1.33</v>
       </c>
       <c r="AU94" t="n">
         <v>-0.13</v>
@@ -15262,13 +15262,13 @@
         <v>-0.07</v>
       </c>
       <c r="AW94" t="n">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="AX94" t="n">
-        <v>-1.2</v>
+        <v>-1.29</v>
       </c>
       <c r="AY94" t="n">
-        <v>-17.58</v>
+        <v>-18.42</v>
       </c>
     </row>
     <row r="95">
@@ -15282,7 +15282,7 @@
         <v>-0.15</v>
       </c>
       <c r="D95" t="n">
-        <v>-2.4</v>
+        <v>-2.38</v>
       </c>
       <c r="E95" t="n">
         <v>0.06</v>
@@ -15303,25 +15303,25 @@
         <v>0.01</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.33</v>
+        <v>-0.5</v>
       </c>
       <c r="L95" t="n">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="P95" t="n">
         <v>-0.07</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="R95" t="n">
         <v>-0.04</v>
@@ -15330,13 +15330,13 @@
         <v>0.01</v>
       </c>
       <c r="T95" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="U95" t="n">
         <v>-0.08</v>
       </c>
       <c r="V95" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="W95" t="n">
         <v>0.94</v>
@@ -15363,7 +15363,7 @@
         <v>-0.15</v>
       </c>
       <c r="AE95" t="n">
-        <v>3.51</v>
+        <v>3.46</v>
       </c>
       <c r="AF95" t="n">
         <v>-0.04</v>
@@ -15372,7 +15372,7 @@
         <v>0.06</v>
       </c>
       <c r="AH95" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AI95" t="n">
         <v>-0.01</v>
@@ -15384,7 +15384,7 @@
         <v>-0.03</v>
       </c>
       <c r="AL95" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AM95" t="n">
         <v>0.05</v>
@@ -15411,19 +15411,794 @@
         <v>-2.75</v>
       </c>
       <c r="AU95" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AV95" t="n">
         <v>-0.06</v>
       </c>
       <c r="AW95" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F96" t="n">
         <v>-0.08</v>
       </c>
-      <c r="AX95" t="n">
+      <c r="G96" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W96" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>-3.05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="P97" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U97" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W97" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>-10.26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.81</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P98" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="R98" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="U98" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="H99" t="n">
         <v>-0.76</v>
       </c>
-      <c r="AY95" t="n">
-        <v>0.41</v>
+      <c r="I99" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="P99" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="R99" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="S99" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="U99" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>-4.67</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P100" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>-0.56</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="U100" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="V100" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="W100" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="X100" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>-1.29</v>
       </c>
     </row>
   </sheetData>
@@ -33245,37 +34020,37 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>0.013</v>
+        <v>0.029</v>
       </c>
       <c r="C90" t="n">
         <v>-0.088</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.065</v>
+        <v>-0.06</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.054</v>
+        <v>-0.053</v>
       </c>
       <c r="F90" t="n">
         <v>0.029</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="H90" t="n">
         <v>0.008</v>
       </c>
       <c r="I90" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.035</v>
+        <v>-0.027</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -33290,7 +34065,7 @@
         <v>-0.05</v>
       </c>
       <c r="Q90" t="n">
-        <v>-0.032</v>
+        <v>-0.031</v>
       </c>
       <c r="R90" t="n">
         <v>-0.01</v>
@@ -33299,19 +34074,19 @@
         <v>-0.007</v>
       </c>
       <c r="T90" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="U90" t="n">
-        <v>-0.048</v>
+        <v>-0.049</v>
       </c>
       <c r="V90" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="W90" t="n">
         <v>-0.01</v>
       </c>
       <c r="X90" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="Y90" t="n">
         <v>-0.003</v>
@@ -33320,7 +34095,7 @@
         <v>-0.012</v>
       </c>
       <c r="AA90" t="n">
-        <v>-0.002</v>
+        <v>-0.004</v>
       </c>
       <c r="AB90" t="n">
         <v>-0.003</v>
@@ -33329,7 +34104,7 @@
         <v>0.001</v>
       </c>
       <c r="AD90" t="n">
-        <v>-1.558</v>
+        <v>-1.496</v>
       </c>
       <c r="AE90" t="n">
         <v>0.796</v>
@@ -33338,79 +34113,79 @@
         <v>0.01</v>
       </c>
       <c r="AG90" t="n">
-        <v>-1.616</v>
+        <v>-1.809</v>
       </c>
       <c r="AH90" t="n">
-        <v>0.169</v>
+        <v>0.17</v>
       </c>
       <c r="AI90" t="n">
         <v>0.001</v>
       </c>
       <c r="AJ90" t="n">
-        <v>-0.019</v>
+        <v>-0.018</v>
       </c>
       <c r="AK90" t="n">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="AL90" t="n">
-        <v>0.52</v>
+        <v>0.522</v>
       </c>
       <c r="AM90" t="n">
         <v>-0.003</v>
       </c>
       <c r="AN90" t="n">
-        <v>-0.022</v>
+        <v>-0.02</v>
       </c>
       <c r="AO90" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AT90" t="n">
         <v>-0.012</v>
       </c>
-      <c r="AP90" t="n">
+      <c r="AU90" t="n">
         <v>0.004</v>
       </c>
-      <c r="AQ90" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>-0.011</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>-0.002</v>
-      </c>
       <c r="AV90" t="n">
-        <v>-0.045</v>
+        <v>-0.054</v>
       </c>
       <c r="AW90" t="n">
-        <v>0.025</v>
+        <v>0.037</v>
       </c>
       <c r="AX90" t="n">
         <v>0.004</v>
       </c>
       <c r="AY90" t="n">
-        <v>-0.063</v>
+        <v>-0.061</v>
       </c>
       <c r="AZ90" t="n">
-        <v>-0.151</v>
+        <v>-0.152</v>
       </c>
       <c r="BA90" t="n">
-        <v>-0.021</v>
+        <v>-0.025</v>
       </c>
       <c r="BB90" t="n">
-        <v>-1.278</v>
+        <v>-1.27</v>
       </c>
       <c r="BC90" t="n">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="BD90" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="BE90" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="BF90" t="n">
         <v>0.007</v>
@@ -33419,19 +34194,19 @@
         <v>0.001</v>
       </c>
       <c r="BH90" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="BI90" t="n">
         <v>0.004</v>
       </c>
       <c r="BJ90" t="n">
-        <v>0.394</v>
+        <v>0.387</v>
       </c>
       <c r="BK90" t="n">
-        <v>-0.066</v>
+        <v>-0.065</v>
       </c>
       <c r="BL90" t="n">
-        <v>-0.229</v>
+        <v>-0.227</v>
       </c>
       <c r="BM90" t="n">
         <v>-0.16</v>
@@ -33445,37 +34220,37 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>0.073</v>
+        <v>0.134</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.023</v>
+        <v>-0.011</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.25</v>
+        <v>-0.242</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.014</v>
+        <v>-0.017</v>
       </c>
       <c r="F91" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="G91" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="H91" t="n">
         <v>0.009</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.012</v>
+        <v>-0.015</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.001</v>
+        <v>-0.008</v>
       </c>
       <c r="K91" t="n">
         <v>0.024</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.083</v>
+        <v>-0.079</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -33490,22 +34265,22 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.022</v>
+        <v>-0.023</v>
       </c>
       <c r="R91" t="n">
         <v>-0.009</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.113</v>
+        <v>-0.116</v>
       </c>
       <c r="V91" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="W91" t="n">
         <v>-0.006</v>
@@ -33520,28 +34295,28 @@
         <v>-0.038</v>
       </c>
       <c r="AA91" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="AB91" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AC91" t="n">
         <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.929</v>
+        <v>0.991</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.548</v>
+        <v>0.547</v>
       </c>
       <c r="AF91" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AG91" t="n">
-        <v>1.572</v>
+        <v>1.584</v>
       </c>
       <c r="AH91" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="AI91" t="n">
         <v>0</v>
@@ -33550,64 +34325,64 @@
         <v>0.005</v>
       </c>
       <c r="AK91" t="n">
-        <v>-0.01</v>
+        <v>-0.008</v>
       </c>
       <c r="AL91" t="n">
-        <v>0.408</v>
+        <v>0.405</v>
       </c>
       <c r="AM91" t="n">
         <v>-0.005</v>
       </c>
       <c r="AN91" t="n">
-        <v>-0.029</v>
+        <v>-0.023</v>
       </c>
       <c r="AO91" t="n">
-        <v>-0.016</v>
+        <v>-0.013</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="AQ91" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="AT91" t="n">
         <v>-0.007</v>
       </c>
-      <c r="AR91" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>-0.009</v>
-      </c>
       <c r="AU91" t="n">
-        <v>-0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="AV91" t="n">
-        <v>0.22</v>
+        <v>0.251</v>
       </c>
       <c r="AW91" t="n">
-        <v>0.005</v>
+        <v>0.009</v>
       </c>
       <c r="AX91" t="n">
         <v>0.004</v>
       </c>
       <c r="AY91" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="AZ91" t="n">
-        <v>-0.02</v>
+        <v>-0.024</v>
       </c>
       <c r="BA91" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="BB91" t="n">
-        <v>-1.687</v>
+        <v>-1.681</v>
       </c>
       <c r="BC91" t="n">
-        <v>-0.018</v>
+        <v>-0.01</v>
       </c>
       <c r="BD91" t="n">
-        <v>0.341</v>
+        <v>0.362</v>
       </c>
       <c r="BE91" t="n">
         <v>-0.002</v>
@@ -33616,7 +34391,7 @@
         <v>-0.002</v>
       </c>
       <c r="BG91" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="BH91" t="n">
         <v>-0.013</v>
@@ -33625,19 +34400,19 @@
         <v>-0.001</v>
       </c>
       <c r="BJ91" t="n">
-        <v>-0.126</v>
+        <v>-0.121</v>
       </c>
       <c r="BK91" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="BL91" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="BM91" t="n">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="BN91" t="n">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="92">
@@ -33645,19 +34420,19 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>0.011</v>
+        <v>0.08</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.098</v>
+        <v>-0.119</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.336</v>
+        <v>-0.374</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.016</v>
+        <v>-0.03</v>
       </c>
       <c r="F92" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="G92" t="n">
         <v>-0.007</v>
@@ -33666,22 +34441,22 @@
         <v>0.004</v>
       </c>
       <c r="I92" t="n">
-        <v>0.016</v>
+        <v>0.007</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.006</v>
+        <v>-0.017</v>
       </c>
       <c r="K92" t="n">
-        <v>0.026</v>
+        <v>-0.003</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.064</v>
+        <v>-0.067</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="O92" t="n">
         <v>-0.001</v>
@@ -33690,7 +34465,7 @@
         <v>-0.016</v>
       </c>
       <c r="Q92" t="n">
-        <v>-0.02</v>
+        <v>-0.021</v>
       </c>
       <c r="R92" t="n">
         <v>-0.005</v>
@@ -33699,19 +34474,19 @@
         <v>-0.01</v>
       </c>
       <c r="T92" t="n">
-        <v>-0.015</v>
+        <v>-0.016</v>
       </c>
       <c r="U92" t="n">
-        <v>-0.026</v>
+        <v>-0.051</v>
       </c>
       <c r="V92" t="n">
         <v>0.006</v>
       </c>
       <c r="W92" t="n">
-        <v>-0.008</v>
+        <v>-0.009</v>
       </c>
       <c r="X92" t="n">
-        <v>-0.03</v>
+        <v>-0.031</v>
       </c>
       <c r="Y92" t="n">
         <v>0.001</v>
@@ -33720,124 +34495,124 @@
         <v>-0.097</v>
       </c>
       <c r="AA92" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AB92" t="n">
         <v>-0.006</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>-0.005</v>
       </c>
       <c r="AC92" t="n">
         <v>-0.001</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.976</v>
+        <v>1.072</v>
       </c>
       <c r="AE92" t="n">
-        <v>0.034</v>
+        <v>0.027</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="AG92" t="n">
-        <v>4.123</v>
+        <v>3.902</v>
       </c>
       <c r="AH92" t="n">
-        <v>-0.027</v>
+        <v>-0.133</v>
       </c>
       <c r="AI92" t="n">
         <v>-0.001</v>
       </c>
       <c r="AJ92" t="n">
-        <v>-0.017</v>
+        <v>-0.018</v>
       </c>
       <c r="AK92" t="n">
-        <v>-0.042</v>
+        <v>-0.05</v>
       </c>
       <c r="AL92" t="n">
-        <v>0.477</v>
+        <v>0.43</v>
       </c>
       <c r="AM92" t="n">
         <v>-0.005</v>
       </c>
       <c r="AN92" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AO92" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AT92" t="n">
         <v>-0.012</v>
       </c>
-      <c r="AP92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ92" t="n">
+      <c r="AU92" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>-0.068</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>-0.431</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>-2.384</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="BE92" t="n">
         <v>-0.006</v>
       </c>
-      <c r="AR92" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>-0.009</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="AW92" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AY92" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="AZ92" t="n">
-        <v>-0.414</v>
-      </c>
-      <c r="BA92" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="BB92" t="n">
-        <v>-2.33</v>
-      </c>
-      <c r="BC92" t="n">
-        <v>-0.018</v>
-      </c>
-      <c r="BD92" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="BE92" t="n">
-        <v>-0.002</v>
-      </c>
       <c r="BF92" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="BG92" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="BH92" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="BI92" t="n">
         <v>0.002</v>
       </c>
       <c r="BJ92" t="n">
-        <v>0.411</v>
+        <v>0.356</v>
       </c>
       <c r="BK92" t="n">
-        <v>0.014</v>
+        <v>0.003</v>
       </c>
       <c r="BL92" t="n">
-        <v>0.057</v>
+        <v>-0.107</v>
       </c>
       <c r="BM92" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="BN92" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="93">
@@ -33845,37 +34620,37 @@
         <v>45139</v>
       </c>
       <c r="B93" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.066</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G93" t="n">
         <v>-0.006</v>
       </c>
-      <c r="C93" t="n">
-        <v>-0.053</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-0.015</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-0.007</v>
-      </c>
       <c r="H93" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="K93" t="n">
-        <v>0.009</v>
+        <v>-0.013</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.105</v>
+        <v>-0.108</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -33890,7 +34665,7 @@
         <v>-0.054</v>
       </c>
       <c r="Q93" t="n">
-        <v>-0.016</v>
+        <v>-0.017</v>
       </c>
       <c r="R93" t="n">
         <v>-0.007</v>
@@ -33899,22 +34674,22 @@
         <v>-0.008</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="U93" t="n">
-        <v>-0.097</v>
+        <v>-0.105</v>
       </c>
       <c r="V93" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="W93" t="n">
         <v>-0.002</v>
       </c>
       <c r="X93" t="n">
-        <v>-0.189</v>
+        <v>-0.19</v>
       </c>
       <c r="Y93" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="Z93" t="n">
         <v>-0.128</v>
@@ -33929,115 +34704,115 @@
         <v>0.004</v>
       </c>
       <c r="AD93" t="n">
-        <v>-8.566</v>
+        <v>-8.589</v>
       </c>
       <c r="AE93" t="n">
         <v>0.186</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AG93" t="n">
-        <v>1.057</v>
+        <v>0.968</v>
       </c>
       <c r="AH93" t="n">
-        <v>-0.281</v>
+        <v>-0.355</v>
       </c>
       <c r="AI93" t="n">
         <v>0.001</v>
       </c>
       <c r="AJ93" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="AK93" t="n">
-        <v>0.016</v>
+        <v>-0.005</v>
       </c>
       <c r="AL93" t="n">
-        <v>0.279</v>
+        <v>0.253</v>
       </c>
       <c r="AM93" t="n">
         <v>-0.004</v>
       </c>
       <c r="AN93" t="n">
-        <v>-0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="AO93" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="AP93" t="n">
-        <v>-0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="AQ93" t="n">
         <v>-0.002</v>
       </c>
       <c r="AR93" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="AS93" t="n">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="AT93" t="n">
         <v>0.002</v>
       </c>
       <c r="AU93" t="n">
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="AV93" t="n">
-        <v>0.068</v>
+        <v>0.056</v>
       </c>
       <c r="AW93" t="n">
-        <v>-0.031</v>
+        <v>-0.041</v>
       </c>
       <c r="AX93" t="n">
         <v>0.004</v>
       </c>
       <c r="AY93" t="n">
-        <v>-0.112</v>
+        <v>-0.123</v>
       </c>
       <c r="AZ93" t="n">
-        <v>0.027</v>
+        <v>0.006</v>
       </c>
       <c r="BA93" t="n">
-        <v>-0.051</v>
+        <v>-0.052</v>
       </c>
       <c r="BB93" t="n">
-        <v>-1.703</v>
+        <v>-1.715</v>
       </c>
       <c r="BC93" t="n">
-        <v>-0.011</v>
+        <v>-0.01</v>
       </c>
       <c r="BD93" t="n">
-        <v>1.562</v>
+        <v>1.56</v>
       </c>
       <c r="BE93" t="n">
         <v>-0.004</v>
       </c>
       <c r="BF93" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="BG93" t="n">
         <v>0.001</v>
       </c>
       <c r="BH93" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="BI93" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="BJ93" t="n">
-        <v>0.004</v>
+        <v>-0.031</v>
       </c>
       <c r="BK93" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="BL93" t="n">
-        <v>-0.065</v>
+        <v>-0.072</v>
       </c>
       <c r="BM93" t="n">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="BN93" t="n">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="94">
@@ -34045,19 +34820,19 @@
         <v>45170</v>
       </c>
       <c r="B94" t="n">
-        <v>0.073</v>
+        <v>0.07</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.107</v>
+        <v>-0.133</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.293</v>
+        <v>-0.316</v>
       </c>
       <c r="E94" t="n">
         <v>-0.016</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="G94" t="n">
         <v>-0.021</v>
@@ -34066,16 +34841,16 @@
         <v>0.001</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.008</v>
+        <v>-0.009</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.023</v>
+        <v>-0.03</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.012</v>
+        <v>-0.019</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.008</v>
+        <v>-0.01</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -34102,7 +34877,7 @@
         <v>-0.008</v>
       </c>
       <c r="U94" t="n">
-        <v>-0.073</v>
+        <v>-0.075</v>
       </c>
       <c r="V94" t="n">
         <v>-0.001</v>
@@ -34111,7 +34886,7 @@
         <v>-0.007</v>
       </c>
       <c r="X94" t="n">
-        <v>-0.043</v>
+        <v>-0.042</v>
       </c>
       <c r="Y94" t="n">
         <v>0.001</v>
@@ -34120,40 +34895,40 @@
         <v>-0.062</v>
       </c>
       <c r="AA94" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="AB94" t="n">
         <v>-0.002</v>
       </c>
       <c r="AC94" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AD94" t="n">
-        <v>-4.058</v>
+        <v>-4.105</v>
       </c>
       <c r="AE94" t="n">
-        <v>-0.862</v>
+        <v>-0.861</v>
       </c>
       <c r="AF94" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="AG94" t="n">
-        <v>-1.387</v>
+        <v>-1.347</v>
       </c>
       <c r="AH94" t="n">
-        <v>-0.01</v>
+        <v>-0.109</v>
       </c>
       <c r="AI94" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AJ94" t="n">
-        <v>-0.021</v>
+        <v>-0.02</v>
       </c>
       <c r="AK94" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AL94" t="n">
-        <v>0.35</v>
+        <v>0.326</v>
       </c>
       <c r="AM94" t="n">
         <v>0</v>
@@ -34165,52 +34940,52 @@
         <v>-0.039</v>
       </c>
       <c r="AP94" t="n">
-        <v>-0.026</v>
+        <v>-0.028</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AR94" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="AS94" t="n">
-        <v>-0.014</v>
+        <v>-0.019</v>
       </c>
       <c r="AT94" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="AU94" t="n">
-        <v>-0.032</v>
+        <v>-0.04</v>
       </c>
       <c r="AV94" t="n">
-        <v>0.233</v>
+        <v>0.21</v>
       </c>
       <c r="AW94" t="n">
-        <v>-0.026</v>
+        <v>-0.04</v>
       </c>
       <c r="AX94" t="n">
         <v>0.004</v>
       </c>
       <c r="AY94" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>-0.253</v>
+      </c>
+      <c r="BA94" t="n">
         <v>0.009</v>
       </c>
-      <c r="AZ94" t="n">
-        <v>-0.196</v>
-      </c>
-      <c r="BA94" t="n">
-        <v>0.003</v>
-      </c>
       <c r="BB94" t="n">
-        <v>-1.554</v>
+        <v>-1.573</v>
       </c>
       <c r="BC94" t="n">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
       <c r="BD94" t="n">
         <v>0.237</v>
       </c>
       <c r="BE94" t="n">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="BF94" t="n">
         <v>-0.006</v>
@@ -34219,25 +34994,25 @@
         <v>-0.002</v>
       </c>
       <c r="BH94" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="BI94" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ94" t="n">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="BK94" t="n">
-        <v>-0.061</v>
+        <v>-0.063</v>
       </c>
       <c r="BL94" t="n">
-        <v>-0.254</v>
+        <v>-0.287</v>
       </c>
       <c r="BM94" t="n">
-        <v>-0.229</v>
+        <v>-0.231</v>
       </c>
       <c r="BN94" t="n">
-        <v>-0.229</v>
+        <v>-0.231</v>
       </c>
     </row>
     <row r="95">
@@ -34245,43 +35020,43 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>0.046</v>
+        <v>0.052</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.035</v>
+        <v>-0.042</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.282</v>
+        <v>-0.284</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="F95" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="H95" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I95" t="n">
-        <v>0.017</v>
+        <v>0.008</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.005</v>
+        <v>-0.01</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="O95" t="n">
         <v>-0.014</v>
@@ -34290,7 +35065,7 @@
         <v>-0.013</v>
       </c>
       <c r="Q95" t="n">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="R95" t="n">
         <v>-0.001</v>
@@ -34299,7 +35074,7 @@
         <v>-0.007</v>
       </c>
       <c r="T95" t="n">
-        <v>-0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="U95" t="n">
         <v>-0.019</v>
@@ -34308,13 +35083,13 @@
         <v>0.005</v>
       </c>
       <c r="W95" t="n">
-        <v>-0.007</v>
+        <v>-0.008</v>
       </c>
       <c r="X95" t="n">
         <v>-0.069</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.021</v>
+        <v>0.002</v>
       </c>
       <c r="Z95" t="n">
         <v>-0.046</v>
@@ -34323,37 +35098,37 @@
         <v>-0.005</v>
       </c>
       <c r="AB95" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AC95" t="n">
         <v>-0.005</v>
       </c>
       <c r="AD95" t="n">
-        <v>-2.161</v>
+        <v>-2.156</v>
       </c>
       <c r="AE95" t="n">
-        <v>-0.032</v>
+        <v>-0.114</v>
       </c>
       <c r="AF95" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG95" t="n">
-        <v>2.926</v>
+        <v>2.798</v>
       </c>
       <c r="AH95" t="n">
-        <v>-0.262</v>
+        <v>-0.263</v>
       </c>
       <c r="AI95" t="n">
         <v>-0.001</v>
       </c>
       <c r="AJ95" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AK95" t="n">
         <v>-0.059</v>
       </c>
       <c r="AL95" t="n">
-        <v>0.421</v>
+        <v>0.416</v>
       </c>
       <c r="AM95" t="n">
         <v>0</v>
@@ -34362,49 +35137,49 @@
         <v>0.004</v>
       </c>
       <c r="AO95" t="n">
-        <v>-0.027</v>
+        <v>-0.026</v>
       </c>
       <c r="AP95" t="n">
         <v>0</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AR95" t="n">
         <v>0.023</v>
       </c>
       <c r="AS95" t="n">
-        <v>-0.017</v>
+        <v>-0.018</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="AU95" t="n">
-        <v>-0.065</v>
+        <v>-0.072</v>
       </c>
       <c r="AV95" t="n">
         <v>0.034</v>
       </c>
       <c r="AW95" t="n">
-        <v>-0.012</v>
+        <v>0.019</v>
       </c>
       <c r="AX95" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AY95" t="n">
-        <v>-0.114</v>
+        <v>-0.117</v>
       </c>
       <c r="AZ95" t="n">
-        <v>0.042</v>
+        <v>0.039</v>
       </c>
       <c r="BA95" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="BB95" t="n">
-        <v>-1.724</v>
+        <v>-1.726</v>
       </c>
       <c r="BC95" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="BD95" t="n">
         <v>1.23</v>
@@ -34413,13 +35188,13 @@
         <v>-0.014</v>
       </c>
       <c r="BF95" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="BG95" t="n">
         <v>0.001</v>
       </c>
       <c r="BH95" t="n">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="BI95" t="n">
         <v>-0.002</v>
@@ -34428,16 +35203,1016 @@
         <v>0.359</v>
       </c>
       <c r="BK95" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>-0.037</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>-0.008</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.229</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="R96" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="U96" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="W96" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.159</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>-1.486</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>-0.037</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>-0.165</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>-0.882</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.225</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="R97" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="S97" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="U97" t="n">
+        <v>-0.101</v>
+      </c>
+      <c r="V97" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="W97" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.398</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>-0.096</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>-4.364</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>-0.169</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>-0.495</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>-0.147</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>-0.313</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>-0.286</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0.942</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>-0.846</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>-0.486</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.123</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P98" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="S98" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="T98" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="U98" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="W98" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>8.896</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>-0.152</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>-0.237</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>-0.115</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>-0.226</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>-0.034</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="P99" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="U99" t="n">
+        <v>-0.089</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W99" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.141</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>-4.194</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>-1.118</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>-0.169</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>-0.184</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>-0.217</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BK99" t="n">
         <v>0.028</v>
       </c>
-      <c r="BL95" t="n">
-        <v>-0.031</v>
-      </c>
-      <c r="BM95" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="BN95" t="n">
-        <v>-0.007</v>
+      <c r="BL99" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>-0.075</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>-0.075</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.211</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="T100" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="U100" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="V100" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="W100" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>-0.716</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>-0.053</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>-0.316</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>-0.193</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>-0.083</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>-0.087</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -47054,52 +48829,52 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C90" t="n">
         <v>-0.01</v>
       </c>
       <c r="D90" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="G90" t="n">
         <v>0.16</v>
       </c>
       <c r="H90" t="n">
-        <v>3.93</v>
+        <v>3.92</v>
       </c>
       <c r="I90" t="n">
-        <v>-6.38</v>
+        <v>-6.36</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.18</v>
+        <v>-0.1</v>
       </c>
       <c r="L90" t="n">
-        <v>-2.47</v>
+        <v>-2.32</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0.59</v>
+        <v>1.39</v>
       </c>
       <c r="P90" t="n">
         <v>0.01</v>
       </c>
       <c r="Q90" t="n">
-        <v>5.55</v>
+        <v>5.03</v>
       </c>
       <c r="R90" t="n">
         <v>0.04</v>
@@ -47111,16 +48886,16 @@
         <v>0.72</v>
       </c>
       <c r="U90" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="W90" t="n">
         <v>-0.33</v>
       </c>
       <c r="X90" t="n">
-        <v>-0.03</v>
+        <v>-0.11</v>
       </c>
       <c r="Y90" t="n">
         <v>0.32</v>
@@ -47135,13 +48910,13 @@
         <v>-0.01</v>
       </c>
       <c r="AC90" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AD90" t="n">
         <v>0.04</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="AF90" t="n">
         <v>0.27</v>
@@ -47162,7 +48937,7 @@
         <v>-0.07</v>
       </c>
       <c r="AL90" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AM90" t="n">
         <v>-0.16</v>
@@ -47171,7 +48946,7 @@
         <v>0.04</v>
       </c>
       <c r="AO90" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="AP90" t="n">
         <v>-0.11</v>
@@ -47183,25 +48958,25 @@
         <v>-0.17</v>
       </c>
       <c r="AS90" t="n">
-        <v>-2.61</v>
+        <v>-2.62</v>
       </c>
       <c r="AT90" t="n">
-        <v>-3.89</v>
+        <v>-3.86</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="AV90" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AW90" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="AX90" t="n">
-        <v>-2.94</v>
+        <v>-2.85</v>
       </c>
       <c r="AY90" t="n">
-        <v>-6.6</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="91">
@@ -47209,13 +48984,13 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="C91" t="n">
         <v>-0.02</v>
       </c>
       <c r="D91" t="n">
-        <v>0.14</v>
+        <v>0.37</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -47224,22 +48999,22 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="H91" t="n">
         <v>2.75</v>
       </c>
       <c r="I91" t="n">
-        <v>-10.24</v>
+        <v>-10.26</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="L91" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="M91" t="n">
         <v>0.07</v>
@@ -47248,16 +49023,16 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.08</v>
+        <v>0.62</v>
       </c>
       <c r="P91" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q91" t="n">
-        <v>7</v>
+        <v>7.09</v>
       </c>
       <c r="R91" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="S91" t="n">
         <v>0.01</v>
@@ -47269,10 +49044,10 @@
         <v>-0.16</v>
       </c>
       <c r="V91" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="W91" t="n">
-        <v>-0.73</v>
+        <v>-0.72</v>
       </c>
       <c r="X91" t="n">
         <v>-0.4</v>
@@ -47296,13 +49071,13 @@
         <v>-0.08</v>
       </c>
       <c r="AE91" t="n">
-        <v>-0.3</v>
+        <v>-0.16</v>
       </c>
       <c r="AF91" t="n">
         <v>-0.02</v>
       </c>
       <c r="AG91" t="n">
-        <v>-0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="AH91" t="n">
         <v>0.02</v>
@@ -47317,7 +49092,7 @@
         <v>0.01</v>
       </c>
       <c r="AL91" t="n">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="AM91" t="n">
         <v>-0.24</v>
@@ -47326,7 +49101,7 @@
         <v>0</v>
       </c>
       <c r="AO91" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AP91" t="n">
         <v>0.02</v>
@@ -47341,22 +49116,22 @@
         <v>1.58</v>
       </c>
       <c r="AT91" t="n">
-        <v>-3.29</v>
+        <v>-3.26</v>
       </c>
       <c r="AU91" t="n">
-        <v>-0.24</v>
+        <v>-0.17</v>
       </c>
       <c r="AV91" t="n">
         <v>-0.08</v>
       </c>
       <c r="AW91" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AX91" t="n">
-        <v>-0.53</v>
+        <v>-0.4</v>
       </c>
       <c r="AY91" t="n">
-        <v>-3.11</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="92">
@@ -47364,19 +49139,19 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.26</v>
+        <v>-0.07</v>
       </c>
       <c r="E92" t="n">
         <v>0.01</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="G92" t="n">
         <v>0.55</v>
@@ -47385,55 +49160,55 @@
         <v>4.97</v>
       </c>
       <c r="I92" t="n">
-        <v>-8.05</v>
+        <v>-8.03</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="L92" t="n">
-        <v>-1.16</v>
+        <v>-1.09</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="N92" t="n">
         <v>0.01</v>
       </c>
       <c r="O92" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="P92" t="n">
         <v>0.04</v>
       </c>
       <c r="Q92" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="T92" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="U92" t="n">
         <v>0.11</v>
       </c>
       <c r="V92" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="W92" t="n">
         <v>-0.96</v>
       </c>
       <c r="X92" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y92" t="n">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="Z92" t="n">
         <v>-0.02</v>
@@ -47451,16 +49226,16 @@
         <v>-0.13</v>
       </c>
       <c r="AE92" t="n">
-        <v>-0.33</v>
+        <v>-0.39</v>
       </c>
       <c r="AF92" t="n">
         <v>0.03</v>
       </c>
       <c r="AG92" t="n">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="AH92" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="AI92" t="n">
         <v>-0.01</v>
@@ -47472,13 +49247,13 @@
         <v>-0.01</v>
       </c>
       <c r="AL92" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AM92" t="n">
         <v>0.5</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO92" t="n">
         <v>0.03</v>
@@ -47487,31 +49262,31 @@
         <v>0.02</v>
       </c>
       <c r="AQ92" t="n">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="AR92" t="n">
         <v>0.28</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.42</v>
+        <v>2.3</v>
       </c>
       <c r="AT92" t="n">
-        <v>-1.59</v>
+        <v>-1.56</v>
       </c>
       <c r="AU92" t="n">
-        <v>-0.33</v>
+        <v>-0.46</v>
       </c>
       <c r="AV92" t="n">
         <v>-0.27</v>
       </c>
       <c r="AW92" t="n">
-        <v>0.17</v>
+        <v>-0.04</v>
       </c>
       <c r="AX92" t="n">
-        <v>-1.44</v>
+        <v>-1.28</v>
       </c>
       <c r="AY92" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="93">
@@ -47525,7 +49300,7 @@
         <v>-0.02</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.51</v>
+        <v>-0.04</v>
       </c>
       <c r="E93" t="n">
         <v>0.01</v>
@@ -47537,10 +49312,10 @@
         <v>0.15</v>
       </c>
       <c r="H93" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="I93" t="n">
-        <v>-5.85</v>
+        <v>-5.77</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -47549,22 +49324,22 @@
         <v>-0.49</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.23</v>
+        <v>-0.89</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.09</v>
+        <v>0.63</v>
       </c>
       <c r="R93" t="n">
         <v>-0.03</v>
@@ -47573,13 +49348,13 @@
         <v>-0.01</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="U93" t="n">
         <v>0.14</v>
       </c>
       <c r="V93" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="W93" t="n">
         <v>-0.7</v>
@@ -47588,7 +49363,7 @@
         <v>0.09</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Z93" t="n">
         <v>0.01</v>
@@ -47603,19 +49378,19 @@
         <v>0.34</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="AF93" t="n">
         <v>-0.07</v>
       </c>
       <c r="AG93" t="n">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="AH93" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="AI93" t="n">
         <v>-0.01</v>
@@ -47627,13 +49402,13 @@
         <v>-0.01</v>
       </c>
       <c r="AL93" t="n">
-        <v>-0.14</v>
+        <v>-0.17</v>
       </c>
       <c r="AM93" t="n">
         <v>-0.17</v>
       </c>
       <c r="AN93" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AO93" t="n">
         <v>0.07</v>
@@ -47642,31 +49417,31 @@
         <v>0.08</v>
       </c>
       <c r="AQ93" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="AR93" t="n">
         <v>-0.28</v>
       </c>
       <c r="AS93" t="n">
-        <v>-5.88</v>
+        <v>-3.24</v>
       </c>
       <c r="AT93" t="n">
-        <v>-2.35</v>
+        <v>-2.33</v>
       </c>
       <c r="AU93" t="n">
-        <v>-1.17</v>
+        <v>-1.28</v>
       </c>
       <c r="AV93" t="n">
         <v>0.08</v>
       </c>
       <c r="AW93" t="n">
-        <v>-0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="AX93" t="n">
         <v>-4.91</v>
       </c>
       <c r="AY93" t="n">
-        <v>-20.92</v>
+        <v>-17.17</v>
       </c>
     </row>
     <row r="94">
@@ -47680,10 +49455,10 @@
         <v>0.01</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E94" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F94" t="n">
         <v>-0.11</v>
@@ -47692,10 +49467,10 @@
         <v>0.14</v>
       </c>
       <c r="H94" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.29</v>
+        <v>-0.42</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -47704,7 +49479,7 @@
         <v>-0.25</v>
       </c>
       <c r="L94" t="n">
-        <v>-6.31</v>
+        <v>-6.29</v>
       </c>
       <c r="M94" t="n">
         <v>-0.14</v>
@@ -47713,34 +49488,34 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.47</v>
+        <v>-0.44</v>
       </c>
       <c r="P94" t="n">
         <v>-0.05</v>
       </c>
       <c r="Q94" t="n">
-        <v>-0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="R94" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S94" t="n">
         <v>0.01</v>
       </c>
       <c r="T94" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="U94" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="V94" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="W94" t="n">
         <v>-0.4</v>
       </c>
       <c r="X94" t="n">
-        <v>-0.79</v>
+        <v>-0.78</v>
       </c>
       <c r="Y94" t="n">
         <v>0</v>
@@ -47761,19 +49536,19 @@
         <v>-0.36</v>
       </c>
       <c r="AE94" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AF94" t="n">
         <v>-0.61</v>
       </c>
       <c r="AG94" t="n">
-        <v>-0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AH94" t="n">
         <v>-0.09</v>
       </c>
       <c r="AI94" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="AJ94" t="n">
         <v>0.01</v>
@@ -47794,34 +49569,34 @@
         <v>0.08</v>
       </c>
       <c r="AP94" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="AQ94" t="n">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="AR94" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AS94" t="n">
         <v>-2.09</v>
       </c>
       <c r="AT94" t="n">
-        <v>-1.35</v>
+        <v>-1.33</v>
       </c>
       <c r="AU94" t="n">
-        <v>-1.05</v>
+        <v>-1.06</v>
       </c>
       <c r="AV94" t="n">
         <v>-0.1</v>
       </c>
       <c r="AW94" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AX94" t="n">
-        <v>-1.8</v>
+        <v>-1.76</v>
       </c>
       <c r="AY94" t="n">
-        <v>-12.5</v>
+        <v>-12.04</v>
       </c>
     </row>
     <row r="95">
@@ -47829,13 +49604,13 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="C95" t="n">
         <v>0.05</v>
       </c>
       <c r="D95" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="E95" t="n">
         <v>-0.01</v>
@@ -47850,7 +49625,7 @@
         <v>4.13</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.94</v>
+        <v>-1.18</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -47859,49 +49634,49 @@
         <v>-0.15</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.93</v>
+        <v>-0.91</v>
       </c>
       <c r="M95" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="N95" t="n">
         <v>0.01</v>
       </c>
       <c r="O95" t="n">
-        <v>-1.48</v>
+        <v>-1.46</v>
       </c>
       <c r="P95" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q95" t="n">
-        <v>-4.58</v>
+        <v>-3.07</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.13</v>
+        <v>-0.08</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="U95" t="n">
         <v>0.3</v>
       </c>
       <c r="V95" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="W95" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="X95" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Z95" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AA95" t="n">
         <v>-0.02</v>
@@ -47910,13 +49685,13 @@
         <v>-0.01</v>
       </c>
       <c r="AC95" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AD95" t="n">
         <v>-0.04</v>
       </c>
       <c r="AE95" t="n">
-        <v>1.47</v>
+        <v>0.19</v>
       </c>
       <c r="AF95" t="n">
         <v>0.47</v>
@@ -47925,7 +49700,7 @@
         <v>0.01</v>
       </c>
       <c r="AH95" t="n">
-        <v>-0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="AI95" t="n">
         <v>0.03</v>
@@ -47946,10 +49721,10 @@
         <v>0.01</v>
       </c>
       <c r="AO95" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP95" t="n">
         <v>0.09</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>0.08</v>
       </c>
       <c r="AQ95" t="n">
         <v>-0.2</v>
@@ -47958,25 +49733,800 @@
         <v>-0.2</v>
       </c>
       <c r="AS95" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>-10.29</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>-12.6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U96" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="W96" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="X96" t="n">
         <v>-0.49</v>
       </c>
-      <c r="AT95" t="n">
-        <v>-10.43</v>
-      </c>
-      <c r="AU95" t="n">
+      <c r="Y96" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-5.34</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P97" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S97" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U97" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="V97" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="W97" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.94</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>-6.71</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="I98" t="n">
         <v>0.65</v>
       </c>
-      <c r="AV95" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P98" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="R98" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="U98" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AH98" t="n">
         <v>0.03</v>
       </c>
-      <c r="AW95" t="n">
+      <c r="AI98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>-10.98</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>-17.98</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="P99" t="n">
         <v>0.04</v>
       </c>
-      <c r="AX95" t="n">
-        <v>-2.89</v>
-      </c>
-      <c r="AY95" t="n">
-        <v>-13.31</v>
+      <c r="Q99" t="n">
+        <v>-0.56</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W99" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>-9.2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-3.45</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>-4.64</v>
+      </c>
+      <c r="P100" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W100" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>-2.07</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -14501,7 +14501,7 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="C90" t="n">
         <v>-1.12</v>
@@ -14540,13 +14540,13 @@
         <v>0.01</v>
       </c>
       <c r="O90" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="P90" t="n">
         <v>0.05</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="R90" t="n">
         <v>0.17</v>
@@ -14588,7 +14588,7 @@
         <v>0.37</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AF90" t="n">
         <v>-0.23</v>
@@ -14642,13 +14642,13 @@
         <v>0</v>
       </c>
       <c r="AW90" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="AX90" t="n">
         <v>-1.07</v>
       </c>
       <c r="AY90" t="n">
-        <v>-7.21</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="91">
@@ -14656,7 +14656,7 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19</v>
+        <v>0.07</v>
       </c>
       <c r="C91" t="n">
         <v>-0.28</v>
@@ -14701,7 +14701,7 @@
         <v>-0.04</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="R91" t="n">
         <v>0.06</v>
@@ -14716,7 +14716,7 @@
         <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W91" t="n">
         <v>-1.58</v>
@@ -14728,7 +14728,7 @@
         <v>0.02</v>
       </c>
       <c r="Z91" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA91" t="n">
         <v>0.04</v>
@@ -14752,7 +14752,7 @@
         <v>0.31</v>
       </c>
       <c r="AH91" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AI91" t="n">
         <v>0.08</v>
@@ -14791,19 +14791,19 @@
         <v>2.12</v>
       </c>
       <c r="AU91" t="n">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="AV91" t="n">
         <v>-0.09</v>
       </c>
       <c r="AW91" t="n">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="AX91" t="n">
         <v>-0.1</v>
       </c>
       <c r="AY91" t="n">
-        <v>4.01</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="92">
@@ -14811,13 +14811,13 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="C92" t="n">
         <v>-0.4</v>
       </c>
       <c r="D92" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E92" t="n">
         <v>-0.01</v>
@@ -14841,22 +14841,22 @@
         <v>-0.19</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.46</v>
+        <v>-0.44</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="P92" t="n">
         <v>-0.1</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="R92" t="n">
         <v>0.18</v>
@@ -14871,7 +14871,7 @@
         <v>0.15</v>
       </c>
       <c r="V92" t="n">
-        <v>-0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="W92" t="n">
         <v>-0.31</v>
@@ -14898,13 +14898,13 @@
         <v>0.52</v>
       </c>
       <c r="AE92" t="n">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="AF92" t="n">
         <v>-0.05</v>
       </c>
       <c r="AG92" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="AH92" t="n">
         <v>-0.09</v>
@@ -14946,19 +14946,19 @@
         <v>4.36</v>
       </c>
       <c r="AU92" t="n">
-        <v>-0.24</v>
+        <v>-0.21</v>
       </c>
       <c r="AV92" t="n">
         <v>0.01</v>
       </c>
       <c r="AW92" t="n">
-        <v>-0.21</v>
+        <v>-0.02</v>
       </c>
       <c r="AX92" t="n">
         <v>0.03</v>
       </c>
       <c r="AY92" t="n">
-        <v>4.83</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="93">
@@ -14972,7 +14972,7 @@
         <v>-0.84</v>
       </c>
       <c r="D93" t="n">
-        <v>-2.24</v>
+        <v>-2.23</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -14999,7 +14999,7 @@
         <v>-10.15</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -15011,7 +15011,7 @@
         <v>-0.05</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="R93" t="n">
         <v>0.01</v>
@@ -15026,7 +15026,7 @@
         <v>-0.02</v>
       </c>
       <c r="V93" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="W93" t="n">
         <v>0.3</v>
@@ -15053,7 +15053,7 @@
         <v>0.22</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AF93" t="n">
         <v>-0.08</v>
@@ -15062,7 +15062,7 @@
         <v>0.23</v>
       </c>
       <c r="AH93" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AI93" t="n">
         <v>-0.05</v>
@@ -15074,7 +15074,7 @@
         <v>0.06</v>
       </c>
       <c r="AL93" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AM93" t="n">
         <v>-0.02</v>
@@ -15095,7 +15095,7 @@
         <v>0.12</v>
       </c>
       <c r="AS93" t="n">
-        <v>-1.22</v>
+        <v>-0.86</v>
       </c>
       <c r="AT93" t="n">
         <v>-1.34</v>
@@ -15107,13 +15107,13 @@
         <v>-0.11</v>
       </c>
       <c r="AW93" t="n">
-        <v>-0.18</v>
+        <v>-0.03</v>
       </c>
       <c r="AX93" t="n">
         <v>-0.82</v>
       </c>
       <c r="AY93" t="n">
-        <v>-17.43</v>
+        <v>-16.93</v>
       </c>
     </row>
     <row r="94">
@@ -15121,7 +15121,7 @@
         <v>45170</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="C94" t="n">
         <v>-0.48</v>
@@ -15148,7 +15148,7 @@
         <v>0.01</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="L94" t="n">
         <v>-2.87</v>
@@ -15166,7 +15166,7 @@
         <v>-0.04</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="R94" t="n">
         <v>0.01</v>
@@ -15208,7 +15208,7 @@
         <v>0.3</v>
       </c>
       <c r="AE94" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="AF94" t="n">
         <v>-0.02</v>
@@ -15268,7 +15268,7 @@
         <v>-1.29</v>
       </c>
       <c r="AY94" t="n">
-        <v>-18.42</v>
+        <v>-18.45</v>
       </c>
     </row>
     <row r="95">
@@ -15276,7 +15276,7 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C95" t="n">
         <v>-0.15</v>
@@ -15288,16 +15288,16 @@
         <v>0.06</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="G95" t="n">
         <v>0.05</v>
       </c>
       <c r="H95" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.26</v>
+        <v>-1.22</v>
       </c>
       <c r="J95" t="n">
         <v>0.01</v>
@@ -15306,16 +15306,16 @@
         <v>-0.5</v>
       </c>
       <c r="L95" t="n">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O95" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="P95" t="n">
         <v>-0.07</v>
@@ -15324,13 +15324,13 @@
         <v>0.04</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="S95" t="n">
         <v>0.01</v>
       </c>
       <c r="T95" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="U95" t="n">
         <v>-0.08</v>
@@ -15339,7 +15339,7 @@
         <v>0.48</v>
       </c>
       <c r="W95" t="n">
-        <v>0.94</v>
+        <v>1.07</v>
       </c>
       <c r="X95" t="n">
         <v>0.1</v>
@@ -15357,16 +15357,16 @@
         <v>0</v>
       </c>
       <c r="AC95" t="n">
-        <v>-0.19</v>
+        <v>-0.23</v>
       </c>
       <c r="AD95" t="n">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="AE95" t="n">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="AF95" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="AG95" t="n">
         <v>0.06</v>
@@ -15387,7 +15387,7 @@
         <v>0.03</v>
       </c>
       <c r="AM95" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AN95" t="n">
         <v>0.03</v>
@@ -15399,31 +15399,31 @@
         <v>0</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR95" t="n">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="AS95" t="n">
-        <v>-2.44</v>
+        <v>-2.72</v>
       </c>
       <c r="AT95" t="n">
-        <v>-2.75</v>
+        <v>-2.71</v>
       </c>
       <c r="AU95" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="AV95" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="AW95" t="n">
-        <v>-0.11</v>
+        <v>-0.03</v>
       </c>
       <c r="AX95" t="n">
-        <v>-0.77</v>
+        <v>-0.87</v>
       </c>
       <c r="AY95" t="n">
-        <v>-0.12</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="96">
@@ -15431,28 +15431,28 @@
         <v>45231</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.49</v>
+        <v>-2.02</v>
       </c>
       <c r="E96" t="n">
         <v>-0.01</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="G96" t="n">
         <v>0.79</v>
       </c>
       <c r="H96" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="I96" t="n">
-        <v>-1.11</v>
+        <v>-1.2</v>
       </c>
       <c r="J96" t="n">
         <v>0.03</v>
@@ -15461,22 +15461,22 @@
         <v>-0.83</v>
       </c>
       <c r="L96" t="n">
-        <v>5.04</v>
+        <v>5.03</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.07</v>
+        <v>-0.05</v>
       </c>
       <c r="N96" t="n">
         <v>0.01</v>
       </c>
       <c r="O96" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="P96" t="n">
         <v>-0.1</v>
       </c>
       <c r="Q96" t="n">
-        <v>-1.13</v>
+        <v>-1.12</v>
       </c>
       <c r="R96" t="n">
         <v>0.06</v>
@@ -15485,19 +15485,19 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="U96" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="V96" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="W96" t="n">
         <v>-0.22</v>
       </c>
       <c r="X96" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y96" t="n">
         <v>0.02</v>
@@ -15512,10 +15512,10 @@
         <v>0.01</v>
       </c>
       <c r="AC96" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AD96" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AE96" t="n">
         <v>-3.06</v>
@@ -15524,28 +15524,28 @@
         <v>-0.01</v>
       </c>
       <c r="AG96" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AH96" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="AI96" t="n">
         <v>0.07</v>
       </c>
       <c r="AJ96" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AK96" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AL96" t="n">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="AM96" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AN96" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AO96" t="n">
         <v>0.01</v>
@@ -15554,31 +15554,31 @@
         <v>0.01</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AR96" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AS96" t="n">
-        <v>-4.9</v>
+        <v>-6.16</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="AU96" t="n">
-        <v>-0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AV96" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="AW96" t="n">
-        <v>-0.22</v>
+        <v>-0.07</v>
       </c>
       <c r="AX96" t="n">
-        <v>0.37</v>
+        <v>-0.51</v>
       </c>
       <c r="AY96" t="n">
-        <v>-3.05</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="97">
@@ -15592,10 +15592,10 @@
         <v>0.02</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>-0.1</v>
@@ -15610,28 +15610,28 @@
         <v>-0.88</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="K97" t="n">
         <v>-0.39</v>
       </c>
       <c r="L97" t="n">
-        <v>-7.92</v>
+        <v>-7.89</v>
       </c>
       <c r="M97" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
         <v>-0.13</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>-0.15</v>
       </c>
       <c r="P97" t="n">
         <v>-0.05</v>
       </c>
       <c r="Q97" t="n">
-        <v>-1.28</v>
+        <v>-1.26</v>
       </c>
       <c r="R97" t="n">
         <v>0.05</v>
@@ -15646,7 +15646,7 @@
         <v>-0.39</v>
       </c>
       <c r="V97" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="W97" t="n">
         <v>-0.11</v>
@@ -15655,7 +15655,7 @@
         <v>0.12</v>
       </c>
       <c r="Y97" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="Z97" t="n">
         <v>-0.01</v>
@@ -15673,7 +15673,7 @@
         <v>0.24</v>
       </c>
       <c r="AE97" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="AF97" t="n">
         <v>-0.1</v>
@@ -15721,19 +15721,19 @@
         <v>-2.08</v>
       </c>
       <c r="AU97" t="n">
-        <v>-0.18</v>
+        <v>-0.08</v>
       </c>
       <c r="AV97" t="n">
         <v>0.25</v>
       </c>
       <c r="AW97" t="n">
-        <v>-0.35</v>
+        <v>-0.13</v>
       </c>
       <c r="AX97" t="n">
         <v>0.6</v>
       </c>
       <c r="AY97" t="n">
-        <v>-10.26</v>
+        <v>-9.77</v>
       </c>
     </row>
     <row r="98">
@@ -15771,7 +15771,7 @@
         <v>-0.15</v>
       </c>
       <c r="L98" t="n">
-        <v>-1.85</v>
+        <v>-1.88</v>
       </c>
       <c r="M98" t="n">
         <v>-0.08</v>
@@ -15783,10 +15783,10 @@
         <v>0.38</v>
       </c>
       <c r="P98" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="R98" t="n">
         <v>-0.08</v>
@@ -15801,7 +15801,7 @@
         <v>-0.08</v>
       </c>
       <c r="V98" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="W98" t="n">
         <v>0.06</v>
@@ -15828,13 +15828,13 @@
         <v>0.9</v>
       </c>
       <c r="AE98" t="n">
-        <v>4.13</v>
+        <v>4.14</v>
       </c>
       <c r="AF98" t="n">
         <v>-0.1</v>
       </c>
       <c r="AG98" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AH98" t="n">
         <v>0.01</v>
@@ -15849,7 +15849,7 @@
         <v>-0.02</v>
       </c>
       <c r="AL98" t="n">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="AM98" t="n">
         <v>0.51</v>
@@ -15873,22 +15873,22 @@
         <v>16.88</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AV98" t="n">
         <v>-0.08</v>
       </c>
       <c r="AW98" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AX98" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="AY98" t="n">
-        <v>21.43</v>
+        <v>21.39</v>
       </c>
     </row>
     <row r="99">
@@ -15902,10 +15902,10 @@
         <v>-0.03</v>
       </c>
       <c r="D99" t="n">
-        <v>-3.68</v>
+        <v>-3.7</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F99" t="n">
         <v>0.03</v>
@@ -15941,7 +15941,7 @@
         <v>-0.07</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="R99" t="n">
         <v>-0.17</v>
@@ -15989,10 +15989,10 @@
         <v>0.1</v>
       </c>
       <c r="AG99" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AH99" t="n">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="AI99" t="n">
         <v>0.03</v>
@@ -16037,13 +16037,13 @@
         <v>-0.05</v>
       </c>
       <c r="AW99" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AX99" t="n">
         <v>-0.09</v>
       </c>
       <c r="AY99" t="n">
-        <v>-4.67</v>
+        <v>-4.74</v>
       </c>
     </row>
     <row r="100">
@@ -16057,28 +16057,28 @@
         <v>0.13</v>
       </c>
       <c r="D100" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="E100" t="n">
         <v>-0.03</v>
       </c>
       <c r="F100" t="n">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="G100" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="H100" t="n">
         <v>-0.67</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.41</v>
+        <v>-0.4</v>
       </c>
       <c r="L100" t="n">
         <v>-0.63</v>
@@ -16096,7 +16096,7 @@
         <v>-0.07</v>
       </c>
       <c r="Q100" t="n">
-        <v>-0.56</v>
+        <v>-0.57</v>
       </c>
       <c r="R100" t="n">
         <v>0.23</v>
@@ -16114,7 +16114,7 @@
         <v>-0.88</v>
       </c>
       <c r="W100" t="n">
-        <v>-0.11</v>
+        <v>0.13</v>
       </c>
       <c r="X100" t="n">
         <v>-0.26</v>
@@ -16135,7 +16135,7 @@
         <v>0.32</v>
       </c>
       <c r="AD100" t="n">
-        <v>0.54</v>
+        <v>0.79</v>
       </c>
       <c r="AE100" t="n">
         <v>-0.71</v>
@@ -16147,7 +16147,7 @@
         <v>-0.16</v>
       </c>
       <c r="AH100" t="n">
-        <v>-1.29</v>
+        <v>-1.28</v>
       </c>
       <c r="AI100" t="n">
         <v>-0.1</v>
@@ -16180,13 +16180,13 @@
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>-2.1</v>
+        <v>-2.67</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.22</v>
+        <v>0.46</v>
       </c>
       <c r="AU100" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AV100" t="n">
         <v>-0.11</v>
@@ -16195,10 +16195,320 @@
         <v>0.1</v>
       </c>
       <c r="AX100" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P101" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R101" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T101" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="U101" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="W101" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>29.11</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-0.69</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="P102" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="R102" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W102" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AI102" t="n">
         <v>-0.12</v>
       </c>
-      <c r="AY100" t="n">
-        <v>-1.29</v>
+      <c r="AJ102" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>7.88</v>
       </c>
     </row>
   </sheetData>
@@ -34020,7 +34330,7 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>0.029</v>
+        <v>0.018</v>
       </c>
       <c r="C90" t="n">
         <v>-0.088</v>
@@ -34035,7 +34345,7 @@
         <v>0.029</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="H90" t="n">
         <v>0.008</v>
@@ -34044,13 +34354,13 @@
         <v>0.007</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="K90" t="n">
         <v>-0.006</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.027</v>
+        <v>-0.029</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -34071,7 +34381,7 @@
         <v>-0.01</v>
       </c>
       <c r="S90" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="T90" t="n">
         <v>-0.007</v>
@@ -34104,7 +34414,7 @@
         <v>0.001</v>
       </c>
       <c r="AD90" t="n">
-        <v>-1.496</v>
+        <v>-1.527</v>
       </c>
       <c r="AE90" t="n">
         <v>0.796</v>
@@ -34113,7 +34423,7 @@
         <v>0.01</v>
       </c>
       <c r="AG90" t="n">
-        <v>-1.809</v>
+        <v>-1.805</v>
       </c>
       <c r="AH90" t="n">
         <v>0.17</v>
@@ -34125,7 +34435,7 @@
         <v>-0.018</v>
       </c>
       <c r="AK90" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="AL90" t="n">
         <v>0.522</v>
@@ -34155,13 +34465,13 @@
         <v>-0.012</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AV90" t="n">
         <v>-0.054</v>
       </c>
       <c r="AW90" t="n">
-        <v>0.037</v>
+        <v>0.033</v>
       </c>
       <c r="AX90" t="n">
         <v>0.004</v>
@@ -34170,16 +34480,16 @@
         <v>-0.061</v>
       </c>
       <c r="AZ90" t="n">
-        <v>-0.152</v>
+        <v>-0.156</v>
       </c>
       <c r="BA90" t="n">
-        <v>-0.025</v>
+        <v>-0.024</v>
       </c>
       <c r="BB90" t="n">
-        <v>-1.27</v>
+        <v>-1.271</v>
       </c>
       <c r="BC90" t="n">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="BD90" t="n">
         <v>0.048</v>
@@ -34200,19 +34510,19 @@
         <v>0.004</v>
       </c>
       <c r="BJ90" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="BK90" t="n">
         <v>-0.065</v>
       </c>
       <c r="BL90" t="n">
-        <v>-0.227</v>
+        <v>-0.228</v>
       </c>
       <c r="BM90" t="n">
-        <v>-0.16</v>
+        <v>-0.161</v>
       </c>
       <c r="BN90" t="n">
-        <v>-0.16</v>
+        <v>-0.161</v>
       </c>
     </row>
     <row r="91">
@@ -34220,16 +34530,16 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>0.134</v>
+        <v>0.077</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.011</v>
+        <v>-0.01</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.242</v>
+        <v>-0.241</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.017</v>
+        <v>-0.016</v>
       </c>
       <c r="F91" t="n">
         <v>0.015</v>
@@ -34250,7 +34560,7 @@
         <v>0.024</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.079</v>
+        <v>-0.081</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -34277,7 +34587,7 @@
         <v>-0.013</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.116</v>
+        <v>-0.117</v>
       </c>
       <c r="V91" t="n">
         <v>0.005</v>
@@ -34304,7 +34614,7 @@
         <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.991</v>
+        <v>0.933</v>
       </c>
       <c r="AE91" t="n">
         <v>0.547</v>
@@ -34313,7 +34623,7 @@
         <v>0.003</v>
       </c>
       <c r="AG91" t="n">
-        <v>1.584</v>
+        <v>1.587</v>
       </c>
       <c r="AH91" t="n">
         <v>0.14</v>
@@ -34322,10 +34632,10 @@
         <v>0</v>
       </c>
       <c r="AJ91" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AK91" t="n">
-        <v>-0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="AL91" t="n">
         <v>0.405</v>
@@ -34334,10 +34644,10 @@
         <v>-0.005</v>
       </c>
       <c r="AN91" t="n">
-        <v>-0.023</v>
+        <v>-0.027</v>
       </c>
       <c r="AO91" t="n">
-        <v>-0.013</v>
+        <v>-0.016</v>
       </c>
       <c r="AP91" t="n">
         <v>0.011</v>
@@ -34346,22 +34656,22 @@
         <v>-0.006</v>
       </c>
       <c r="AR91" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="AS91" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="AT91" t="n">
         <v>-0.007</v>
       </c>
       <c r="AU91" t="n">
-        <v>-0.002</v>
+        <v>-0.008</v>
       </c>
       <c r="AV91" t="n">
-        <v>0.251</v>
+        <v>0.258</v>
       </c>
       <c r="AW91" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="AX91" t="n">
         <v>0.004</v>
@@ -34370,49 +34680,49 @@
         <v>0.113</v>
       </c>
       <c r="AZ91" t="n">
-        <v>-0.024</v>
+        <v>-0.03</v>
       </c>
       <c r="BA91" t="n">
         <v>0.047</v>
       </c>
       <c r="BB91" t="n">
-        <v>-1.681</v>
+        <v>-1.683</v>
       </c>
       <c r="BC91" t="n">
-        <v>-0.01</v>
+        <v>-0.012</v>
       </c>
       <c r="BD91" t="n">
         <v>0.362</v>
       </c>
       <c r="BE91" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="BF91" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="BG91" t="n">
         <v>0</v>
       </c>
       <c r="BH91" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="BI91" t="n">
         <v>-0.001</v>
       </c>
       <c r="BJ91" t="n">
-        <v>-0.121</v>
+        <v>-0.124</v>
       </c>
       <c r="BK91" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="BL91" t="n">
         <v>0.21</v>
       </c>
       <c r="BM91" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="BN91" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="92">
@@ -34420,16 +34730,16 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08</v>
+        <v>0.011</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.119</v>
+        <v>-0.116</v>
       </c>
       <c r="D92" t="n">
         <v>-0.374</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.03</v>
+        <v>-0.027</v>
       </c>
       <c r="F92" t="n">
         <v>0.01</v>
@@ -34444,13 +34754,13 @@
         <v>0.007</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.017</v>
+        <v>-0.015</v>
       </c>
       <c r="K92" t="n">
         <v>-0.003</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.067</v>
+        <v>-0.068</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -34474,13 +34784,13 @@
         <v>-0.01</v>
       </c>
       <c r="T92" t="n">
-        <v>-0.016</v>
+        <v>-0.015</v>
       </c>
       <c r="U92" t="n">
-        <v>-0.051</v>
+        <v>-0.052</v>
       </c>
       <c r="V92" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="W92" t="n">
         <v>-0.009</v>
@@ -34498,121 +34808,121 @@
         <v>-0.007</v>
       </c>
       <c r="AB92" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="AC92" t="n">
         <v>-0.001</v>
       </c>
       <c r="AD92" t="n">
-        <v>1.072</v>
+        <v>0.986</v>
       </c>
       <c r="AE92" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="AF92" t="n">
         <v>0.008</v>
       </c>
       <c r="AG92" t="n">
-        <v>3.902</v>
+        <v>3.91</v>
       </c>
       <c r="AH92" t="n">
-        <v>-0.133</v>
+        <v>-0.132</v>
       </c>
       <c r="AI92" t="n">
         <v>-0.001</v>
       </c>
       <c r="AJ92" t="n">
-        <v>-0.018</v>
+        <v>-0.017</v>
       </c>
       <c r="AK92" t="n">
-        <v>-0.05</v>
+        <v>-0.044</v>
       </c>
       <c r="AL92" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="AM92" t="n">
         <v>-0.005</v>
       </c>
       <c r="AN92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="AP92" t="n">
         <v>-0.003</v>
       </c>
-      <c r="AO92" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>-0.005</v>
-      </c>
       <c r="AQ92" t="n">
-        <v>-0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="AR92" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="AS92" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="AT92" t="n">
         <v>-0.012</v>
       </c>
       <c r="AU92" t="n">
-        <v>-0.011</v>
+        <v>-0.004</v>
       </c>
       <c r="AV92" t="n">
-        <v>0.167</v>
+        <v>0.203</v>
       </c>
       <c r="AW92" t="n">
-        <v>0.139</v>
+        <v>0.146</v>
       </c>
       <c r="AX92" t="n">
         <v>0.001</v>
       </c>
       <c r="AY92" t="n">
-        <v>-0.068</v>
+        <v>-0.061</v>
       </c>
       <c r="AZ92" t="n">
-        <v>-0.431</v>
+        <v>-0.414</v>
       </c>
       <c r="BA92" t="n">
-        <v>0.03</v>
+        <v>0.039</v>
       </c>
       <c r="BB92" t="n">
-        <v>-2.384</v>
+        <v>-2.377</v>
       </c>
       <c r="BC92" t="n">
-        <v>-0.025</v>
+        <v>-0.023</v>
       </c>
       <c r="BD92" t="n">
         <v>0.322</v>
       </c>
       <c r="BE92" t="n">
-        <v>-0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="BF92" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="BG92" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="BH92" t="n">
-        <v>-0.013</v>
+        <v>-0.01</v>
       </c>
       <c r="BI92" t="n">
         <v>0.002</v>
       </c>
       <c r="BJ92" t="n">
-        <v>0.356</v>
+        <v>0.368</v>
       </c>
       <c r="BK92" t="n">
         <v>0.003</v>
       </c>
       <c r="BL92" t="n">
-        <v>-0.107</v>
+        <v>-0.103</v>
       </c>
       <c r="BM92" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="BN92" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -34620,37 +34930,37 @@
         <v>45139</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.009</v>
+        <v>-0.006</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.066</v>
+        <v>-0.063</v>
       </c>
       <c r="D93" t="n">
         <v>-0.044</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.015</v>
+        <v>-0.01</v>
       </c>
       <c r="F93" t="n">
-        <v>0.029</v>
+        <v>0.006</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="H93" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="I93" t="n">
         <v>-0.006</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="K93" t="n">
         <v>-0.013</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.108</v>
+        <v>-0.109</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -34674,19 +34984,19 @@
         <v>-0.008</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="U93" t="n">
         <v>-0.105</v>
       </c>
       <c r="V93" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="W93" t="n">
         <v>-0.002</v>
       </c>
       <c r="X93" t="n">
-        <v>-0.19</v>
+        <v>-0.189</v>
       </c>
       <c r="Y93" t="n">
         <v>-0.003</v>
@@ -34707,112 +35017,112 @@
         <v>-8.589</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.186</v>
+        <v>0.184</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AG93" t="n">
-        <v>0.968</v>
+        <v>0.972</v>
       </c>
       <c r="AH93" t="n">
-        <v>-0.355</v>
+        <v>-0.354</v>
       </c>
       <c r="AI93" t="n">
         <v>0.001</v>
       </c>
       <c r="AJ93" t="n">
-        <v>-0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="AK93" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="AL93" t="n">
-        <v>0.253</v>
+        <v>0.255</v>
       </c>
       <c r="AM93" t="n">
         <v>-0.004</v>
       </c>
       <c r="AN93" t="n">
-        <v>-0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="AO93" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="AP93" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="AQ93" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AR93" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="AS93" t="n">
-        <v>-0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AU93" t="n">
-        <v>-0.015</v>
+        <v>-0.016</v>
       </c>
       <c r="AV93" t="n">
-        <v>0.056</v>
+        <v>0.075</v>
       </c>
       <c r="AW93" t="n">
-        <v>-0.041</v>
+        <v>-0.035</v>
       </c>
       <c r="AX93" t="n">
         <v>0.004</v>
       </c>
       <c r="AY93" t="n">
-        <v>-0.123</v>
+        <v>-0.121</v>
       </c>
       <c r="AZ93" t="n">
-        <v>0.006</v>
+        <v>0.013</v>
       </c>
       <c r="BA93" t="n">
-        <v>-0.052</v>
+        <v>-0.046</v>
       </c>
       <c r="BB93" t="n">
-        <v>-1.715</v>
+        <v>-1.711</v>
       </c>
       <c r="BC93" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="BD93" t="n">
-        <v>1.56</v>
+        <v>1.742</v>
       </c>
       <c r="BE93" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="BF93" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="BG93" t="n">
         <v>0.001</v>
       </c>
       <c r="BH93" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="BI93" t="n">
         <v>-0.001</v>
       </c>
       <c r="BJ93" t="n">
-        <v>-0.031</v>
+        <v>-0.024</v>
       </c>
       <c r="BK93" t="n">
         <v>0.008</v>
       </c>
       <c r="BL93" t="n">
-        <v>-0.072</v>
+        <v>-0.071</v>
       </c>
       <c r="BM93" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="BN93" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="94">
@@ -34820,19 +35130,19 @@
         <v>45170</v>
       </c>
       <c r="B94" t="n">
-        <v>0.07</v>
+        <v>0.069</v>
       </c>
       <c r="C94" t="n">
         <v>-0.133</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.316</v>
+        <v>-0.317</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.016</v>
+        <v>-0.017</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.012</v>
+        <v>-0.011</v>
       </c>
       <c r="G94" t="n">
         <v>-0.021</v>
@@ -34850,7 +35160,7 @@
         <v>-0.019</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -34865,7 +35175,7 @@
         <v>-0.015</v>
       </c>
       <c r="Q94" t="n">
-        <v>-0.018</v>
+        <v>-0.019</v>
       </c>
       <c r="R94" t="n">
         <v>-0.004</v>
@@ -34880,7 +35190,7 @@
         <v>-0.075</v>
       </c>
       <c r="V94" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="W94" t="n">
         <v>-0.007</v>
@@ -34898,22 +35208,22 @@
         <v>-0.006</v>
       </c>
       <c r="AB94" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AC94" t="n">
         <v>0.004</v>
       </c>
       <c r="AD94" t="n">
-        <v>-4.105</v>
+        <v>-4.104</v>
       </c>
       <c r="AE94" t="n">
-        <v>-0.861</v>
+        <v>-0.862</v>
       </c>
       <c r="AF94" t="n">
         <v>0.011</v>
       </c>
       <c r="AG94" t="n">
-        <v>-1.347</v>
+        <v>-1.349</v>
       </c>
       <c r="AH94" t="n">
         <v>-0.109</v>
@@ -34934,7 +35244,7 @@
         <v>0</v>
       </c>
       <c r="AN94" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AO94" t="n">
         <v>-0.039</v>
@@ -34955,13 +35265,13 @@
         <v>-0.004</v>
       </c>
       <c r="AU94" t="n">
-        <v>-0.04</v>
+        <v>-0.039</v>
       </c>
       <c r="AV94" t="n">
         <v>0.21</v>
       </c>
       <c r="AW94" t="n">
-        <v>-0.04</v>
+        <v>-0.041</v>
       </c>
       <c r="AX94" t="n">
         <v>0.004</v>
@@ -34970,10 +35280,10 @@
         <v>-0.01</v>
       </c>
       <c r="AZ94" t="n">
-        <v>-0.253</v>
+        <v>-0.265</v>
       </c>
       <c r="BA94" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="BB94" t="n">
         <v>-1.573</v>
@@ -34982,13 +35292,13 @@
         <v>0.004</v>
       </c>
       <c r="BD94" t="n">
-        <v>0.237</v>
+        <v>0.238</v>
       </c>
       <c r="BE94" t="n">
         <v>-0.002</v>
       </c>
       <c r="BF94" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="BG94" t="n">
         <v>-0.002</v>
@@ -35009,10 +35319,10 @@
         <v>-0.287</v>
       </c>
       <c r="BM94" t="n">
-        <v>-0.231</v>
+        <v>-0.232</v>
       </c>
       <c r="BN94" t="n">
-        <v>-0.231</v>
+        <v>-0.232</v>
       </c>
     </row>
     <row r="95">
@@ -35020,43 +35330,43 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.042</v>
+        <v>-0.056</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.284</v>
+        <v>-0.305</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.007</v>
+        <v>-0.008</v>
       </c>
       <c r="F95" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.003</v>
       </c>
-      <c r="G95" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.002</v>
-      </c>
       <c r="I95" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.01</v>
+        <v>-0.016</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.001</v>
+        <v>-0.012</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.006</v>
+        <v>-0.013</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="O95" t="n">
         <v>-0.014</v>
@@ -35065,10 +35375,10 @@
         <v>-0.013</v>
       </c>
       <c r="Q95" t="n">
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="S95" t="n">
         <v>-0.007</v>
@@ -35077,10 +35387,10 @@
         <v>-0.004</v>
       </c>
       <c r="U95" t="n">
-        <v>-0.019</v>
+        <v>-0.02</v>
       </c>
       <c r="V95" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="W95" t="n">
         <v>-0.008</v>
@@ -35095,7 +35405,7 @@
         <v>-0.046</v>
       </c>
       <c r="AA95" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="AB95" t="n">
         <v>-0.001</v>
@@ -35104,115 +35414,115 @@
         <v>-0.005</v>
       </c>
       <c r="AD95" t="n">
-        <v>-2.156</v>
+        <v>-2.162</v>
       </c>
       <c r="AE95" t="n">
-        <v>-0.114</v>
+        <v>-0.122</v>
       </c>
       <c r="AF95" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG95" t="n">
-        <v>2.798</v>
+        <v>2.501</v>
       </c>
       <c r="AH95" t="n">
-        <v>-0.263</v>
+        <v>-0.288</v>
       </c>
       <c r="AI95" t="n">
         <v>-0.001</v>
       </c>
       <c r="AJ95" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AK95" t="n">
-        <v>-0.059</v>
+        <v>-0.075</v>
       </c>
       <c r="AL95" t="n">
-        <v>0.416</v>
+        <v>0.403</v>
       </c>
       <c r="AM95" t="n">
         <v>0</v>
       </c>
       <c r="AN95" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AO95" t="n">
-        <v>-0.026</v>
+        <v>-0.028</v>
       </c>
       <c r="AP95" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.003</v>
       </c>
       <c r="AR95" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="AS95" t="n">
-        <v>-0.018</v>
+        <v>-0.021</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="AU95" t="n">
-        <v>-0.072</v>
+        <v>-0.071</v>
       </c>
       <c r="AV95" t="n">
-        <v>0.034</v>
+        <v>0.029</v>
       </c>
       <c r="AW95" t="n">
-        <v>0.019</v>
+        <v>0.012</v>
       </c>
       <c r="AX95" t="n">
         <v>0</v>
       </c>
       <c r="AY95" t="n">
-        <v>-0.117</v>
+        <v>-0.126</v>
       </c>
       <c r="AZ95" t="n">
-        <v>0.039</v>
+        <v>0.035</v>
       </c>
       <c r="BA95" t="n">
-        <v>0.067</v>
+        <v>0.095</v>
       </c>
       <c r="BB95" t="n">
-        <v>-1.726</v>
+        <v>-1.802</v>
       </c>
       <c r="BC95" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="BD95" t="n">
-        <v>1.23</v>
+        <v>1.716</v>
       </c>
       <c r="BE95" t="n">
-        <v>-0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="BF95" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="BG95" t="n">
         <v>0.001</v>
       </c>
       <c r="BH95" t="n">
-        <v>-0.021</v>
+        <v>-0.018</v>
       </c>
       <c r="BI95" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="BJ95" t="n">
-        <v>0.359</v>
+        <v>0.328</v>
       </c>
       <c r="BK95" t="n">
-        <v>0.027</v>
+        <v>0.022</v>
       </c>
       <c r="BL95" t="n">
-        <v>-0.037</v>
+        <v>-0.072</v>
       </c>
       <c r="BM95" t="n">
-        <v>-0.008</v>
+        <v>-0.01</v>
       </c>
       <c r="BN95" t="n">
-        <v>-0.008</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="96">
@@ -35220,37 +35530,37 @@
         <v>45231</v>
       </c>
       <c r="B96" t="n">
-        <v>0.077</v>
+        <v>0.068</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.061</v>
+        <v>-0.067</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.229</v>
+        <v>-0.255</v>
       </c>
       <c r="E96" t="n">
         <v>-0.017</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="H96" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="I96" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="K96" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="L96" t="n">
-        <v>0.069</v>
+        <v>0.062</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -35265,7 +35575,7 @@
         <v>0.001</v>
       </c>
       <c r="Q96" t="n">
-        <v>-0.011</v>
+        <v>-0.007</v>
       </c>
       <c r="R96" t="n">
         <v>-0.003</v>
@@ -35274,22 +35584,22 @@
         <v>-0.01</v>
       </c>
       <c r="T96" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="U96" t="n">
-        <v>-0.1</v>
+        <v>-0.105</v>
       </c>
       <c r="V96" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="W96" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="X96" t="n">
-        <v>-0.159</v>
+        <v>-0.158</v>
       </c>
       <c r="Y96" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="Z96" t="n">
         <v>-0.061</v>
@@ -35298,37 +35608,37 @@
         <v>-0.005</v>
       </c>
       <c r="AB96" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AC96" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="AD96" t="n">
-        <v>-1.486</v>
+        <v>-1.87</v>
       </c>
       <c r="AE96" t="n">
-        <v>0.071</v>
+        <v>0.069</v>
       </c>
       <c r="AF96" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="AG96" t="n">
-        <v>0.271</v>
+        <v>-0.203</v>
       </c>
       <c r="AH96" t="n">
-        <v>-0.016</v>
+        <v>-0.148</v>
       </c>
       <c r="AI96" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="AJ96" t="n">
-        <v>-0.027</v>
+        <v>-0.026</v>
       </c>
       <c r="AK96" t="n">
-        <v>-0.045</v>
+        <v>-0.051</v>
       </c>
       <c r="AL96" t="n">
-        <v>0.446</v>
+        <v>0.433</v>
       </c>
       <c r="AM96" t="n">
         <v>0.001</v>
@@ -35340,79 +35650,79 @@
         <v>-0.014</v>
       </c>
       <c r="AP96" t="n">
-        <v>-0.021</v>
+        <v>-0.023</v>
       </c>
       <c r="AQ96" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AR96" t="n">
         <v>0.02</v>
       </c>
       <c r="AS96" t="n">
-        <v>-0.018</v>
+        <v>-0.023</v>
       </c>
       <c r="AT96" t="n">
         <v>0.016</v>
       </c>
       <c r="AU96" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="AV96" t="n">
-        <v>-0.037</v>
+        <v>-0.022</v>
       </c>
       <c r="AW96" t="n">
-        <v>-0.025</v>
+        <v>-0.042</v>
       </c>
       <c r="AX96" t="n">
         <v>-0.004</v>
       </c>
       <c r="AY96" t="n">
-        <v>-0.013</v>
+        <v>-0.03</v>
       </c>
       <c r="AZ96" t="n">
-        <v>0.06</v>
+        <v>0.026</v>
       </c>
       <c r="BA96" t="n">
-        <v>-0.165</v>
+        <v>-0.144</v>
       </c>
       <c r="BB96" t="n">
-        <v>-0.882</v>
+        <v>-0.893</v>
       </c>
       <c r="BC96" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="BD96" t="n">
         <v>0.34</v>
       </c>
       <c r="BE96" t="n">
-        <v>-0.019</v>
+        <v>-0.016</v>
       </c>
       <c r="BF96" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="BG96" t="n">
         <v>0.001</v>
       </c>
       <c r="BH96" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="BI96" t="n">
         <v>0.002</v>
       </c>
       <c r="BJ96" t="n">
-        <v>0.108</v>
+        <v>0.071</v>
       </c>
       <c r="BK96" t="n">
-        <v>0.059</v>
+        <v>0.049</v>
       </c>
       <c r="BL96" t="n">
-        <v>0.217</v>
+        <v>0.156</v>
       </c>
       <c r="BM96" t="n">
-        <v>0.142</v>
+        <v>-0.227</v>
       </c>
       <c r="BN96" t="n">
-        <v>0.142</v>
+        <v>-0.227</v>
       </c>
     </row>
     <row r="97">
@@ -35420,37 +35730,37 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.154</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="G97" t="n">
         <v>-0.006</v>
       </c>
-      <c r="C97" t="n">
-        <v>-0.225</v>
-      </c>
-      <c r="D97" t="n">
-        <v>-0.155</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-0.021</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-0.008</v>
-      </c>
       <c r="H97" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I97" t="n">
         <v>-0.005</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.02</v>
+        <v>-0.019</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.025</v>
+        <v>-0.023</v>
       </c>
       <c r="L97" t="n">
-        <v>0.073</v>
+        <v>0.079</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -35465,28 +35775,28 @@
         <v>-0.026</v>
       </c>
       <c r="Q97" t="n">
-        <v>-0.014</v>
+        <v>-0.012</v>
       </c>
       <c r="R97" t="n">
         <v>-0.005</v>
       </c>
       <c r="S97" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="T97" t="n">
-        <v>0.004</v>
+        <v>0.009</v>
       </c>
       <c r="U97" t="n">
-        <v>-0.101</v>
+        <v>-0.103</v>
       </c>
       <c r="V97" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="W97" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="X97" t="n">
-        <v>-0.398</v>
+        <v>-0.397</v>
       </c>
       <c r="Y97" t="n">
         <v>-0.001</v>
@@ -35495,124 +35805,124 @@
         <v>-0.096</v>
       </c>
       <c r="AA97" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="AB97" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="AC97" t="n">
         <v>-0.003</v>
       </c>
       <c r="AD97" t="n">
-        <v>-4.364</v>
+        <v>-4.362</v>
       </c>
       <c r="AE97" t="n">
-        <v>-0.169</v>
+        <v>-0.168</v>
       </c>
       <c r="AF97" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="AG97" t="n">
-        <v>1.568</v>
+        <v>1.591</v>
       </c>
       <c r="AH97" t="n">
-        <v>-0.495</v>
+        <v>-0.493</v>
       </c>
       <c r="AI97" t="n">
         <v>0.001</v>
       </c>
       <c r="AJ97" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AK97" t="n">
-        <v>-0.147</v>
+        <v>-0.143</v>
       </c>
       <c r="AL97" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="AM97" t="n">
         <v>0.001</v>
       </c>
       <c r="AN97" t="n">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="AO97" t="n">
         <v>-0.016</v>
       </c>
       <c r="AP97" t="n">
-        <v>-0.009</v>
+        <v>-0.005</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AR97" t="n">
-        <v>-0.009</v>
+        <v>-0.007</v>
       </c>
       <c r="AS97" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AT97" t="n">
         <v>0.012</v>
       </c>
-      <c r="AT97" t="n">
-        <v>0.011</v>
-      </c>
       <c r="AU97" t="n">
-        <v>-0.032</v>
+        <v>-0.023</v>
       </c>
       <c r="AV97" t="n">
-        <v>-0.043</v>
+        <v>-0.019</v>
       </c>
       <c r="AW97" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="AX97" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AY97" t="n">
-        <v>-0.029</v>
+        <v>-0.016</v>
       </c>
       <c r="AZ97" t="n">
-        <v>-0.313</v>
+        <v>-0.302</v>
       </c>
       <c r="BA97" t="n">
-        <v>0.031</v>
+        <v>0.036</v>
       </c>
       <c r="BB97" t="n">
-        <v>-0.286</v>
+        <v>-0.274</v>
       </c>
       <c r="BC97" t="n">
-        <v>-0.026</v>
+        <v>-0.018</v>
       </c>
       <c r="BD97" t="n">
-        <v>0.942</v>
+        <v>0.945</v>
       </c>
       <c r="BE97" t="n">
-        <v>-0.018</v>
+        <v>-0.013</v>
       </c>
       <c r="BF97" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="BG97" t="n">
         <v>0.001</v>
       </c>
       <c r="BH97" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="BI97" t="n">
         <v>0.003</v>
       </c>
       <c r="BJ97" t="n">
-        <v>-0.846</v>
+        <v>-0.847</v>
       </c>
       <c r="BK97" t="n">
-        <v>-0.043</v>
+        <v>-0.042</v>
       </c>
       <c r="BL97" t="n">
-        <v>-0.486</v>
+        <v>-0.477</v>
       </c>
       <c r="BM97" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="BN97" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="98">
@@ -35620,19 +35930,19 @@
         <v>45292</v>
       </c>
       <c r="B98" t="n">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
       <c r="C98" t="n">
         <v>0.038</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.123</v>
+        <v>-0.119</v>
       </c>
       <c r="E98" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -35641,13 +35951,13 @@
         <v>0.013</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.015</v>
+        <v>-0.016</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="K98" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="L98" t="n">
         <v>0.07</v>
@@ -35665,7 +35975,7 @@
         <v>-0.008</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.016</v>
+        <v>-0.017</v>
       </c>
       <c r="R98" t="n">
         <v>0.002</v>
@@ -35677,10 +35987,10 @@
         <v>-0.006</v>
       </c>
       <c r="U98" t="n">
-        <v>-0.046</v>
+        <v>-0.047</v>
       </c>
       <c r="V98" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="W98" t="n">
         <v>-0.009</v>
@@ -35701,7 +36011,7 @@
         <v>0</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AD98" t="n">
         <v>0.119</v>
@@ -35710,10 +36020,10 @@
         <v>-0.006</v>
       </c>
       <c r="AF98" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AG98" t="n">
-        <v>8.896</v>
+        <v>8.892</v>
       </c>
       <c r="AH98" t="n">
         <v>0.11</v>
@@ -35722,19 +36032,19 @@
         <v>-0.001</v>
       </c>
       <c r="AJ98" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AK98" t="n">
-        <v>-0.085</v>
+        <v>-0.087</v>
       </c>
       <c r="AL98" t="n">
         <v>-0.152</v>
       </c>
       <c r="AM98" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AN98" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="AO98" t="n">
         <v>-0.019</v>
@@ -35743,7 +36053,7 @@
         <v>0.008</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AR98" t="n">
         <v>0.033</v>
@@ -35758,7 +36068,7 @@
         <v>0.397</v>
       </c>
       <c r="AV98" t="n">
-        <v>-0.034</v>
+        <v>-0.035</v>
       </c>
       <c r="AW98" t="n">
         <v>-0.015</v>
@@ -35767,31 +36077,31 @@
         <v>0.004</v>
       </c>
       <c r="AY98" t="n">
-        <v>0.151</v>
+        <v>0.154</v>
       </c>
       <c r="AZ98" t="n">
-        <v>-0.237</v>
+        <v>-0.28</v>
       </c>
       <c r="BA98" t="n">
-        <v>0.05</v>
+        <v>0.058</v>
       </c>
       <c r="BB98" t="n">
-        <v>0.424</v>
+        <v>0.436</v>
       </c>
       <c r="BC98" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="BD98" t="n">
-        <v>0.852</v>
+        <v>0.868</v>
       </c>
       <c r="BE98" t="n">
-        <v>-0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="BF98" t="n">
         <v>0.004</v>
       </c>
       <c r="BG98" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="BH98" t="n">
         <v>0.016</v>
@@ -35800,13 +36110,13 @@
         <v>0.001</v>
       </c>
       <c r="BJ98" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="BK98" t="n">
         <v>-0.115</v>
       </c>
       <c r="BL98" t="n">
-        <v>-0.226</v>
+        <v>-0.225</v>
       </c>
       <c r="BM98" t="n">
         <v>-0.034</v>
@@ -35820,34 +36130,34 @@
         <v>45323</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="C99" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.208</v>
+        <v>-0.209</v>
       </c>
       <c r="E99" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="F99" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="G99" t="n">
         <v>0.025</v>
       </c>
       <c r="H99" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="I99" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="J99" t="n">
         <v>-0.005</v>
       </c>
       <c r="K99" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="L99" t="n">
         <v>0.042</v>
@@ -35877,7 +36187,7 @@
         <v>0.007</v>
       </c>
       <c r="U99" t="n">
-        <v>-0.089</v>
+        <v>-0.093</v>
       </c>
       <c r="V99" t="n">
         <v>0.01</v>
@@ -35904,7 +36214,7 @@
         <v>-0.001</v>
       </c>
       <c r="AD99" t="n">
-        <v>-4.194</v>
+        <v>-4.195</v>
       </c>
       <c r="AE99" t="n">
         <v>-1.118</v>
@@ -35913,7 +36223,7 @@
         <v>0.002</v>
       </c>
       <c r="AG99" t="n">
-        <v>2.415</v>
+        <v>2.404</v>
       </c>
       <c r="AH99" t="n">
         <v>0.267</v>
@@ -35925,10 +36235,10 @@
         <v>0.024</v>
       </c>
       <c r="AK99" t="n">
-        <v>-0.025</v>
+        <v>-0.026</v>
       </c>
       <c r="AL99" t="n">
-        <v>-0.169</v>
+        <v>-0.168</v>
       </c>
       <c r="AM99" t="n">
         <v>0</v>
@@ -35949,7 +36259,7 @@
         <v>0.025</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="AT99" t="n">
         <v>0.007</v>
@@ -35961,46 +36271,46 @@
         <v>-0.184</v>
       </c>
       <c r="AW99" t="n">
-        <v>-0.048</v>
+        <v>-0.05</v>
       </c>
       <c r="AX99" t="n">
         <v>0</v>
       </c>
       <c r="AY99" t="n">
-        <v>-0.027</v>
+        <v>-0.028</v>
       </c>
       <c r="AZ99" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="BA99" t="n">
         <v>0.053</v>
       </c>
-      <c r="BA99" t="n">
-        <v>0.052</v>
-      </c>
       <c r="BB99" t="n">
-        <v>-0.217</v>
+        <v>-0.22</v>
       </c>
       <c r="BC99" t="n">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="BD99" t="n">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="BE99" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="BF99" t="n">
         <v>-0.003</v>
       </c>
       <c r="BG99" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="BH99" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BI99" t="n">
         <v>0</v>
       </c>
       <c r="BJ99" t="n">
-        <v>0.18</v>
+        <v>0.172</v>
       </c>
       <c r="BK99" t="n">
         <v>0.028</v>
@@ -36009,10 +36319,10 @@
         <v>0.157</v>
       </c>
       <c r="BM99" t="n">
-        <v>-0.075</v>
+        <v>-0.076</v>
       </c>
       <c r="BN99" t="n">
-        <v>-0.075</v>
+        <v>-0.076</v>
       </c>
     </row>
     <row r="100">
@@ -36020,19 +36330,19 @@
         <v>45352</v>
       </c>
       <c r="B100" t="n">
-        <v>0.068</v>
+        <v>0.052</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.065</v>
+        <v>-0.056</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.211</v>
+        <v>-0.212</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.011</v>
+        <v>-0.008</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="G100" t="n">
         <v>0.011</v>
@@ -36041,22 +36351,22 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.023</v>
+        <v>-0.024</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.047</v>
+        <v>-0.046</v>
       </c>
       <c r="L100" t="n">
-        <v>0.088</v>
+        <v>0.089</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -36065,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="R100" t="n">
         <v>0.001</v>
@@ -36077,16 +36387,16 @@
         <v>-0.002</v>
       </c>
       <c r="U100" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="V100" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="W100" t="n">
         <v>-0.01</v>
       </c>
       <c r="X100" t="n">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="Y100" t="n">
         <v>0.002</v>
@@ -36095,7 +36405,7 @@
         <v>-0.014</v>
       </c>
       <c r="AA100" t="n">
-        <v>-0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="AB100" t="n">
         <v>0</v>
@@ -36104,19 +36414,19 @@
         <v>-0.001</v>
       </c>
       <c r="AD100" t="n">
-        <v>0.109</v>
+        <v>-0.296</v>
       </c>
       <c r="AE100" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="AF100" t="n">
         <v>-0.002</v>
       </c>
       <c r="AG100" t="n">
-        <v>-0.716</v>
+        <v>-0.695</v>
       </c>
       <c r="AH100" t="n">
-        <v>0.322</v>
+        <v>0.319</v>
       </c>
       <c r="AI100" t="n">
         <v>0.004</v>
@@ -36125,73 +36435,73 @@
         <v>-0.019</v>
       </c>
       <c r="AK100" t="n">
-        <v>-0.053</v>
+        <v>-0.052</v>
       </c>
       <c r="AL100" t="n">
-        <v>-0.316</v>
+        <v>-0.317</v>
       </c>
       <c r="AM100" t="n">
         <v>0</v>
       </c>
       <c r="AN100" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AO100" t="n">
         <v>-0.024</v>
       </c>
       <c r="AP100" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AQ100" t="n">
         <v>-0.005</v>
       </c>
       <c r="AR100" t="n">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AU100" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="AV100" t="n">
-        <v>-0.193</v>
+        <v>-0.197</v>
       </c>
       <c r="AW100" t="n">
-        <v>-0.046</v>
+        <v>-0.056</v>
       </c>
       <c r="AX100" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="AY100" t="n">
-        <v>-0.083</v>
+        <v>-0.082</v>
       </c>
       <c r="AZ100" t="n">
-        <v>-0.048</v>
+        <v>-0.049</v>
       </c>
       <c r="BA100" t="n">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="BB100" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="BC100" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="BD100" t="n">
-        <v>0.069</v>
+        <v>0.912</v>
       </c>
       <c r="BE100" t="n">
         <v>-0.015</v>
       </c>
       <c r="BF100" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="BG100" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="BH100" t="n">
         <v>-0.02</v>
@@ -36200,19 +36510,419 @@
         <v>0.002</v>
       </c>
       <c r="BJ100" t="n">
-        <v>-0.087</v>
+        <v>-0.076</v>
       </c>
       <c r="BK100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="T101" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="W101" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>-0.822</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>-1.187</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>11.683</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="AI101" t="n">
         <v>0.009</v>
       </c>
-      <c r="BL100" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="BM100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN100" t="n">
-        <v>0</v>
+      <c r="AJ101" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S102" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="T102" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="U102" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="W102" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>-2.024</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>-1.101</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>4.147</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>-0.075</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>-0.135</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>-0.238</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
@@ -48835,7 +49545,7 @@
         <v>-0.01</v>
       </c>
       <c r="D90" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="E90" t="n">
         <v>0.01</v>
@@ -48850,7 +49560,7 @@
         <v>3.92</v>
       </c>
       <c r="I90" t="n">
-        <v>-6.36</v>
+        <v>-6.35</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -48859,7 +49569,7 @@
         <v>-0.1</v>
       </c>
       <c r="L90" t="n">
-        <v>-2.32</v>
+        <v>-2.42</v>
       </c>
       <c r="M90" t="n">
         <v>-0.02</v>
@@ -48868,7 +49578,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1.39</v>
+        <v>0.63</v>
       </c>
       <c r="P90" t="n">
         <v>0.01</v>
@@ -48883,7 +49593,7 @@
         <v>0.01</v>
       </c>
       <c r="T90" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
@@ -48916,13 +49626,13 @@
         <v>0.04</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AF90" t="n">
         <v>0.27</v>
       </c>
       <c r="AG90" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="AH90" t="n">
         <v>0.01</v>
@@ -48958,25 +49668,25 @@
         <v>-0.17</v>
       </c>
       <c r="AS90" t="n">
-        <v>-2.62</v>
+        <v>-3.27</v>
       </c>
       <c r="AT90" t="n">
         <v>-3.86</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AV90" t="n">
         <v>0.15</v>
       </c>
       <c r="AW90" t="n">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="AX90" t="n">
-        <v>-2.85</v>
+        <v>-2.86</v>
       </c>
       <c r="AY90" t="n">
-        <v>-5.5</v>
+        <v>-7.09</v>
       </c>
     </row>
     <row r="91">
@@ -48990,7 +49700,7 @@
         <v>-0.02</v>
       </c>
       <c r="D91" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -49011,25 +49721,25 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="L91" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="M91" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0.62</v>
+        <v>-0.06</v>
       </c>
       <c r="P91" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q91" t="n">
-        <v>7.09</v>
+        <v>6.78</v>
       </c>
       <c r="R91" t="n">
         <v>0.11</v>
@@ -49044,7 +49754,7 @@
         <v>-0.16</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="W91" t="n">
         <v>-0.72</v>
@@ -49059,7 +49769,7 @@
         <v>0</v>
       </c>
       <c r="AA91" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AB91" t="n">
         <v>-0.01</v>
@@ -49071,13 +49781,13 @@
         <v>-0.08</v>
       </c>
       <c r="AE91" t="n">
-        <v>-0.16</v>
+        <v>-0.18</v>
       </c>
       <c r="AF91" t="n">
         <v>-0.02</v>
       </c>
       <c r="AG91" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="AH91" t="n">
         <v>0.02</v>
@@ -49092,7 +49802,7 @@
         <v>0.01</v>
       </c>
       <c r="AL91" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AM91" t="n">
         <v>-0.24</v>
@@ -49113,25 +49823,25 @@
         <v>-0.15</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="AT91" t="n">
         <v>-3.26</v>
       </c>
       <c r="AU91" t="n">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="AV91" t="n">
         <v>-0.08</v>
       </c>
       <c r="AW91" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="AX91" t="n">
-        <v>-0.4</v>
+        <v>-0.52</v>
       </c>
       <c r="AY91" t="n">
-        <v>-1.24</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="92">
@@ -49139,16 +49849,16 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.07</v>
+        <v>-0.02</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F92" t="n">
         <v>-0.25</v>
@@ -49160,31 +49870,31 @@
         <v>4.97</v>
       </c>
       <c r="I92" t="n">
-        <v>-8.03</v>
+        <v>-7.99</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="L92" t="n">
-        <v>-1.09</v>
+        <v>-1.07</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="N92" t="n">
         <v>0.01</v>
       </c>
       <c r="O92" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="P92" t="n">
         <v>0.04</v>
       </c>
       <c r="Q92" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -49193,13 +49903,13 @@
         <v>-0.06</v>
       </c>
       <c r="T92" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="U92" t="n">
         <v>0.11</v>
       </c>
       <c r="V92" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="W92" t="n">
         <v>-0.96</v>
@@ -49208,13 +49918,13 @@
         <v>0.05</v>
       </c>
       <c r="Y92" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="Z92" t="n">
         <v>-0.02</v>
       </c>
       <c r="AA92" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AB92" t="n">
         <v>0</v>
@@ -49226,19 +49936,19 @@
         <v>-0.13</v>
       </c>
       <c r="AE92" t="n">
-        <v>-0.39</v>
+        <v>-0.22</v>
       </c>
       <c r="AF92" t="n">
         <v>0.03</v>
       </c>
       <c r="AG92" t="n">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="AH92" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AI92" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AJ92" t="n">
         <v>-0.08</v>
@@ -49247,7 +49957,7 @@
         <v>-0.01</v>
       </c>
       <c r="AL92" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AM92" t="n">
         <v>0.5</v>
@@ -49271,22 +49981,22 @@
         <v>2.3</v>
       </c>
       <c r="AT92" t="n">
-        <v>-1.56</v>
+        <v>-1.57</v>
       </c>
       <c r="AU92" t="n">
-        <v>-0.46</v>
+        <v>-0.28</v>
       </c>
       <c r="AV92" t="n">
         <v>-0.27</v>
       </c>
       <c r="AW92" t="n">
-        <v>-0.04</v>
+        <v>0.12</v>
       </c>
       <c r="AX92" t="n">
-        <v>-1.28</v>
+        <v>-1.44</v>
       </c>
       <c r="AY92" t="n">
-        <v>1.59</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="93">
@@ -49300,7 +50010,7 @@
         <v>-0.02</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="E93" t="n">
         <v>0.01</v>
@@ -49312,10 +50022,10 @@
         <v>0.15</v>
       </c>
       <c r="H93" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I93" t="n">
-        <v>-5.77</v>
+        <v>-5.76</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -49324,37 +50034,37 @@
         <v>-0.49</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.89</v>
+        <v>-0.84</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="P93" t="n">
         <v>0.01</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.63</v>
+        <v>0.18</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="S93" t="n">
         <v>-0.01</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="U93" t="n">
         <v>0.14</v>
       </c>
       <c r="V93" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="W93" t="n">
         <v>-0.7</v>
@@ -49375,40 +50085,40 @@
         <v>0</v>
       </c>
       <c r="AC93" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="AF93" t="n">
         <v>-0.07</v>
       </c>
       <c r="AG93" t="n">
-        <v>-0.13</v>
+        <v>-0.08</v>
       </c>
       <c r="AH93" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="AI93" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AK93" t="n">
         <v>-0.01</v>
       </c>
       <c r="AL93" t="n">
-        <v>-0.17</v>
+        <v>-0.15</v>
       </c>
       <c r="AM93" t="n">
         <v>-0.17</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO93" t="n">
         <v>0.07</v>
@@ -49423,25 +50133,25 @@
         <v>-0.28</v>
       </c>
       <c r="AS93" t="n">
-        <v>-3.24</v>
+        <v>-3.88</v>
       </c>
       <c r="AT93" t="n">
         <v>-2.33</v>
       </c>
       <c r="AU93" t="n">
-        <v>-1.28</v>
+        <v>-1.13</v>
       </c>
       <c r="AV93" t="n">
         <v>0.08</v>
       </c>
       <c r="AW93" t="n">
-        <v>-0.09</v>
+        <v>0.02</v>
       </c>
       <c r="AX93" t="n">
-        <v>-4.91</v>
+        <v>-4.89</v>
       </c>
       <c r="AY93" t="n">
-        <v>-17.17</v>
+        <v>-17.55</v>
       </c>
     </row>
     <row r="94">
@@ -49455,7 +50165,7 @@
         <v>0.01</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E94" t="n">
         <v>0.03</v>
@@ -49470,7 +50180,7 @@
         <v>2.31</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -49479,7 +50189,7 @@
         <v>-0.25</v>
       </c>
       <c r="L94" t="n">
-        <v>-6.29</v>
+        <v>-6.3</v>
       </c>
       <c r="M94" t="n">
         <v>-0.14</v>
@@ -49488,7 +50198,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.44</v>
+        <v>-0.45</v>
       </c>
       <c r="P94" t="n">
         <v>-0.05</v>
@@ -49536,7 +50246,7 @@
         <v>-0.36</v>
       </c>
       <c r="AE94" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="AF94" t="n">
         <v>-0.61</v>
@@ -49545,7 +50255,7 @@
         <v>0.03</v>
       </c>
       <c r="AH94" t="n">
-        <v>-0.09</v>
+        <v>0.02</v>
       </c>
       <c r="AI94" t="n">
         <v>-0.04</v>
@@ -49590,13 +50300,13 @@
         <v>-0.1</v>
       </c>
       <c r="AW94" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AX94" t="n">
-        <v>-1.76</v>
+        <v>-1.78</v>
       </c>
       <c r="AY94" t="n">
-        <v>-12.04</v>
+        <v>-12.08</v>
       </c>
     </row>
     <row r="95">
@@ -49604,16 +50314,16 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="C95" t="n">
         <v>0.05</v>
       </c>
       <c r="D95" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="F95" t="n">
         <v>-0.41</v>
@@ -49625,16 +50335,16 @@
         <v>4.13</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.18</v>
+        <v>-1.26</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.91</v>
+        <v>-0.83</v>
       </c>
       <c r="M95" t="n">
         <v>0.03</v>
@@ -49643,16 +50353,16 @@
         <v>0.01</v>
       </c>
       <c r="O95" t="n">
-        <v>-1.46</v>
+        <v>-1.45</v>
       </c>
       <c r="P95" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q95" t="n">
-        <v>-3.07</v>
+        <v>1.33</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.08</v>
+        <v>-0.07</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -49664,10 +50374,10 @@
         <v>0.3</v>
       </c>
       <c r="V95" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="W95" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="X95" t="n">
         <v>0.38</v>
@@ -49676,7 +50386,7 @@
         <v>0.02</v>
       </c>
       <c r="Z95" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AA95" t="n">
         <v>-0.02</v>
@@ -49691,16 +50401,16 @@
         <v>-0.04</v>
       </c>
       <c r="AE95" t="n">
-        <v>0.19</v>
+        <v>1.28</v>
       </c>
       <c r="AF95" t="n">
         <v>0.47</v>
       </c>
       <c r="AG95" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AH95" t="n">
-        <v>-0.18</v>
+        <v>-0.23</v>
       </c>
       <c r="AI95" t="n">
         <v>0.03</v>
@@ -49712,10 +50422,10 @@
         <v>-0.02</v>
       </c>
       <c r="AL95" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AM95" t="n">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="AN95" t="n">
         <v>0.01</v>
@@ -49724,34 +50434,34 @@
         <v>0.08</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AQ95" t="n">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="AR95" t="n">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.13</v>
+        <v>-0.83</v>
       </c>
       <c r="AT95" t="n">
-        <v>-10.29</v>
+        <v>-10.24</v>
       </c>
       <c r="AU95" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="AV95" t="n">
         <v>0.05</v>
       </c>
       <c r="AW95" t="n">
-        <v>-0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AX95" t="n">
-        <v>-2.94</v>
+        <v>-2.91</v>
       </c>
       <c r="AY95" t="n">
-        <v>-12.6</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="96">
@@ -49759,55 +50469,55 @@
         <v>45231</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C96" t="n">
         <v>-0.05</v>
       </c>
       <c r="D96" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="G96" t="n">
         <v>-0.62</v>
       </c>
       <c r="H96" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="I96" t="n">
-        <v>3.76</v>
+        <v>4.38</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="M96" t="n">
         <v>-0.01</v>
       </c>
-      <c r="L96" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.02</v>
-      </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>-1.45</v>
+        <v>-1.39</v>
       </c>
       <c r="P96" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R96" t="n">
         <v>-0.03</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>3</v>
-      </c>
-      <c r="R96" t="n">
-        <v>-0.06</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -49819,16 +50529,16 @@
         <v>-0.16</v>
       </c>
       <c r="V96" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="W96" t="n">
         <v>-0.08</v>
       </c>
       <c r="X96" t="n">
-        <v>-0.49</v>
+        <v>-0.48</v>
       </c>
       <c r="Y96" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="Z96" t="n">
         <v>0</v>
@@ -49846,19 +50556,19 @@
         <v>-0.3</v>
       </c>
       <c r="AE96" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AF96" t="n">
         <v>-0.07</v>
       </c>
       <c r="AG96" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="AH96" t="n">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="AI96" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AJ96" t="n">
         <v>-0.21</v>
@@ -49867,7 +50577,7 @@
         <v>0.13</v>
       </c>
       <c r="AL96" t="n">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="AM96" t="n">
         <v>0.32</v>
@@ -49879,34 +50589,34 @@
         <v>0.2</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AR96" t="n">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="AS96" t="n">
-        <v>10.06</v>
+        <v>10.12</v>
       </c>
       <c r="AT96" t="n">
-        <v>-4.11</v>
+        <v>-4.08</v>
       </c>
       <c r="AU96" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AV96" t="n">
         <v>-0.23</v>
       </c>
       <c r="AW96" t="n">
-        <v>-0.44</v>
+        <v>-0.19</v>
       </c>
       <c r="AX96" t="n">
-        <v>-0.82</v>
+        <v>-0.5</v>
       </c>
       <c r="AY96" t="n">
-        <v>16.78</v>
+        <v>17.27</v>
       </c>
     </row>
     <row r="97">
@@ -49914,13 +50624,13 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C97" t="n">
         <v>0.02</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="E97" t="n">
         <v>0.41</v>
@@ -49932,34 +50642,34 @@
         <v>-0.02</v>
       </c>
       <c r="H97" t="n">
-        <v>-5.34</v>
+        <v>-5.35</v>
       </c>
       <c r="I97" t="n">
-        <v>5.12</v>
+        <v>5.17</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="L97" t="n">
         <v>-2.35</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="P97" t="n">
         <v>-0.06</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="R97" t="n">
         <v>0.05</v>
@@ -49968,13 +50678,13 @@
         <v>-0.01</v>
       </c>
       <c r="T97" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="U97" t="n">
         <v>-0.01</v>
       </c>
       <c r="V97" t="n">
-        <v>-0.06</v>
+        <v>0.03</v>
       </c>
       <c r="W97" t="n">
         <v>-0.43</v>
@@ -49989,7 +50699,7 @@
         <v>0</v>
       </c>
       <c r="AA97" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB97" t="n">
         <v>0</v>
@@ -50001,19 +50711,19 @@
         <v>-0.37</v>
       </c>
       <c r="AE97" t="n">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AF97" t="n">
         <v>-0.08</v>
       </c>
       <c r="AG97" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="AH97" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AI97" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AJ97" t="n">
         <v>0.01</v>
@@ -50022,13 +50732,13 @@
         <v>-0.32</v>
       </c>
       <c r="AL97" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AM97" t="n">
         <v>-0.53</v>
       </c>
       <c r="AN97" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO97" t="n">
         <v>0.11</v>
@@ -50040,28 +50750,28 @@
         <v>-0.03</v>
       </c>
       <c r="AR97" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AS97" t="n">
         <v>3.64</v>
       </c>
       <c r="AT97" t="n">
-        <v>-4.16</v>
+        <v>-4.15</v>
       </c>
       <c r="AU97" t="n">
-        <v>-2.47</v>
+        <v>-2.25</v>
       </c>
       <c r="AV97" t="n">
         <v>-0.02</v>
       </c>
       <c r="AW97" t="n">
-        <v>-0.54</v>
+        <v>-0.39</v>
       </c>
       <c r="AX97" t="n">
-        <v>-0.28</v>
+        <v>-0.26</v>
       </c>
       <c r="AY97" t="n">
-        <v>-6.71</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="98">
@@ -50075,7 +50785,7 @@
         <v>0.01</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -50087,10 +50797,10 @@
         <v>0.03</v>
       </c>
       <c r="H98" t="n">
-        <v>-1.11</v>
+        <v>-1.12</v>
       </c>
       <c r="I98" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -50099,22 +50809,22 @@
         <v>-0.24</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.28</v>
+        <v>-0.37</v>
       </c>
       <c r="M98" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="P98" t="n">
         <v>-0.01</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.84</v>
+        <v>-0.85</v>
       </c>
       <c r="R98" t="n">
         <v>-0.02</v>
@@ -50123,13 +50833,13 @@
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="U98" t="n">
         <v>-0.03</v>
       </c>
       <c r="V98" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="W98" t="n">
         <v>0.49</v>
@@ -50138,10 +50848,10 @@
         <v>-0.24</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Z98" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AA98" t="n">
         <v>0</v>
@@ -50156,7 +50866,7 @@
         <v>-0.22</v>
       </c>
       <c r="AE98" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="AF98" t="n">
         <v>0.06</v>
@@ -50165,10 +50875,10 @@
         <v>0.15</v>
       </c>
       <c r="AH98" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AI98" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AJ98" t="n">
         <v>0</v>
@@ -50177,7 +50887,7 @@
         <v>-0.12</v>
       </c>
       <c r="AL98" t="n">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="AM98" t="n">
         <v>-0.28</v>
@@ -50198,25 +50908,25 @@
         <v>0.02</v>
       </c>
       <c r="AS98" t="n">
-        <v>-3.72</v>
+        <v>-3.69</v>
       </c>
       <c r="AT98" t="n">
-        <v>-10.98</v>
+        <v>-10.97</v>
       </c>
       <c r="AU98" t="n">
-        <v>-0.36</v>
+        <v>-0.39</v>
       </c>
       <c r="AV98" t="n">
         <v>-0.13</v>
       </c>
       <c r="AW98" t="n">
-        <v>-0.05</v>
+        <v>-0.07</v>
       </c>
       <c r="AX98" t="n">
         <v>-0.36</v>
       </c>
       <c r="AY98" t="n">
-        <v>-17.98</v>
+        <v>-18.35</v>
       </c>
     </row>
     <row r="99">
@@ -50230,7 +50940,7 @@
         <v>-0.01</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="E99" t="n">
         <v>-0.03</v>
@@ -50251,10 +50961,10 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="M99" t="n">
         <v>0.2</v>
@@ -50263,7 +50973,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="P99" t="n">
         <v>0.04</v>
@@ -50284,7 +50994,7 @@
         <v>0.06</v>
       </c>
       <c r="V99" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="W99" t="n">
         <v>-0.21</v>
@@ -50311,13 +51021,13 @@
         <v>-0.39</v>
       </c>
       <c r="AE99" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AF99" t="n">
         <v>-0.49</v>
       </c>
       <c r="AG99" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AH99" t="n">
         <v>-0.08</v>
@@ -50359,19 +51069,19 @@
         <v>-6.6</v>
       </c>
       <c r="AU99" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AV99" t="n">
         <v>-0.02</v>
       </c>
       <c r="AW99" t="n">
-        <v>-0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="AX99" t="n">
         <v>0.07</v>
       </c>
       <c r="AY99" t="n">
-        <v>-9.2</v>
+        <v>-9.35</v>
       </c>
     </row>
     <row r="100">
@@ -50385,7 +51095,7 @@
         <v>-0.04</v>
       </c>
       <c r="D100" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E100" t="n">
         <v>0.01</v>
@@ -50397,37 +51107,37 @@
         <v>-0.29</v>
       </c>
       <c r="H100" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I100" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01</v>
+        <v>0.29</v>
       </c>
       <c r="L100" t="n">
-        <v>-1.28</v>
+        <v>-0.8</v>
       </c>
       <c r="M100" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>-4.64</v>
+        <v>-4.66</v>
       </c>
       <c r="P100" t="n">
         <v>-0.05</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.16</v>
+        <v>2.29</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S100" t="n">
         <v>-0.01</v>
@@ -50439,16 +51149,16 @@
         <v>0.14</v>
       </c>
       <c r="V100" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="W100" t="n">
-        <v>-0.67</v>
+        <v>-0.65</v>
       </c>
       <c r="X100" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="Y100" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="Z100" t="n">
         <v>-0.01</v>
@@ -50466,19 +51176,19 @@
         <v>0.06</v>
       </c>
       <c r="AE100" t="n">
-        <v>3.96</v>
+        <v>4.03</v>
       </c>
       <c r="AF100" t="n">
         <v>0.08</v>
       </c>
       <c r="AG100" t="n">
-        <v>-0.1</v>
+        <v>-0.07</v>
       </c>
       <c r="AH100" t="n">
         <v>-0.11</v>
       </c>
       <c r="AI100" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AJ100" t="n">
         <v>0.01</v>
@@ -50487,7 +51197,7 @@
         <v>-0.02</v>
       </c>
       <c r="AL100" t="n">
-        <v>-0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="AM100" t="n">
         <v>-0.34</v>
@@ -50499,34 +51209,344 @@
         <v>0.06</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AR100" t="n">
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AT100" t="n">
-        <v>-1.51</v>
+        <v>-1.55</v>
       </c>
       <c r="AU100" t="n">
-        <v>-0.66</v>
+        <v>-0.7</v>
       </c>
       <c r="AV100" t="n">
         <v>-0.21</v>
       </c>
       <c r="AW100" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W101" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>-5.66</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-10.67</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O102" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>-5.05</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T102" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W102" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="X102" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AO102" t="n">
         <v>-0.05</v>
       </c>
-      <c r="AX100" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AY100" t="n">
-        <v>-2.07</v>
+      <c r="AP102" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>-15.69</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -15586,13 +15586,13 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C97" t="n">
         <v>0.02</v>
       </c>
       <c r="D97" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -15604,34 +15604,34 @@
         <v>-0.13</v>
       </c>
       <c r="H97" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.88</v>
+        <v>-0.65</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="K97" t="n">
         <v>-0.39</v>
       </c>
       <c r="L97" t="n">
-        <v>-7.89</v>
+        <v>-7.92</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="P97" t="n">
         <v>-0.05</v>
       </c>
       <c r="Q97" t="n">
-        <v>-1.26</v>
+        <v>-1.27</v>
       </c>
       <c r="R97" t="n">
         <v>0.05</v>
@@ -15646,7 +15646,7 @@
         <v>-0.39</v>
       </c>
       <c r="V97" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="W97" t="n">
         <v>-0.11</v>
@@ -15655,7 +15655,7 @@
         <v>0.12</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Z97" t="n">
         <v>-0.01</v>
@@ -15667,13 +15667,13 @@
         <v>0</v>
       </c>
       <c r="AC97" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="AD97" t="n">
         <v>0.24</v>
       </c>
       <c r="AE97" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="AF97" t="n">
         <v>-0.1</v>
@@ -15709,31 +15709,31 @@
         <v>-0.05</v>
       </c>
       <c r="AQ97" t="n">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="AR97" t="n">
         <v>-0.09</v>
       </c>
       <c r="AS97" t="n">
-        <v>-1.43</v>
+        <v>-1.56</v>
       </c>
       <c r="AT97" t="n">
-        <v>-2.08</v>
+        <v>-2.15</v>
       </c>
       <c r="AU97" t="n">
-        <v>-0.08</v>
+        <v>-0.14</v>
       </c>
       <c r="AV97" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AW97" t="n">
-        <v>-0.13</v>
+        <v>-0.18</v>
       </c>
       <c r="AX97" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="AY97" t="n">
-        <v>-9.77</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="98">
@@ -16361,13 +16361,13 @@
         <v>45413</v>
       </c>
       <c r="B102" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="C102" t="n">
         <v>0.04</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.31</v>
+        <v>-2.2</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -16379,10 +16379,10 @@
         <v>-3.19</v>
       </c>
       <c r="H102" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I102" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="J102" t="n">
         <v>0.02</v>
@@ -16391,25 +16391,25 @@
         <v>-0.21</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.69</v>
+        <v>-0.72</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="N102" t="n">
         <v>-0.02</v>
       </c>
       <c r="O102" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="P102" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="Q102" t="n">
-        <v>-0.99</v>
+        <v>-1.12</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -16421,7 +16421,7 @@
         <v>0.07</v>
       </c>
       <c r="V102" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="W102" t="n">
         <v>-0.47</v>
@@ -16454,13 +16454,13 @@
         <v>0.02</v>
       </c>
       <c r="AG102" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AH102" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="AI102" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="AJ102" t="n">
         <v>0.28</v>
@@ -16490,25 +16490,180 @@
         <v>-0.03</v>
       </c>
       <c r="AS102" t="n">
-        <v>9.23</v>
+        <v>9.67</v>
       </c>
       <c r="AT102" t="n">
-        <v>-2.17</v>
+        <v>-1.99</v>
       </c>
       <c r="AU102" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="AV102" t="n">
         <v>-0.06</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AX102" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="AY102" t="n">
-        <v>7.88</v>
+        <v>8.55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.69</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O103" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="P103" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="R103" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="U103" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W103" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="X103" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>-6.66</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>-9.78</v>
       </c>
     </row>
   </sheetData>
@@ -35730,37 +35885,37 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
-        <v>0.003</v>
+        <v>-0.008</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.21</v>
+        <v>-0.245</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.154</v>
+        <v>-0.149</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.011</v>
+        <v>-0.018</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.017</v>
+        <v>-0.019</v>
       </c>
       <c r="G97" t="n">
         <v>-0.006</v>
       </c>
       <c r="H97" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.019</v>
+        <v>-0.017</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.023</v>
+        <v>-0.024</v>
       </c>
       <c r="L97" t="n">
-        <v>0.079</v>
+        <v>0.075</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -35784,10 +35939,10 @@
         <v>-0.012</v>
       </c>
       <c r="T97" t="n">
-        <v>0.009</v>
+        <v>0.005</v>
       </c>
       <c r="U97" t="n">
-        <v>-0.103</v>
+        <v>-0.106</v>
       </c>
       <c r="V97" t="n">
         <v>-0.002</v>
@@ -35805,7 +35960,7 @@
         <v>-0.096</v>
       </c>
       <c r="AA97" t="n">
-        <v>-0.01</v>
+        <v>-0.008</v>
       </c>
       <c r="AB97" t="n">
         <v>-0.003</v>
@@ -35814,16 +35969,16 @@
         <v>-0.003</v>
       </c>
       <c r="AD97" t="n">
-        <v>-4.362</v>
+        <v>-4.366</v>
       </c>
       <c r="AE97" t="n">
-        <v>-0.168</v>
+        <v>-0.169</v>
       </c>
       <c r="AF97" t="n">
-        <v>-0.006</v>
+        <v>-0.009</v>
       </c>
       <c r="AG97" t="n">
-        <v>1.591</v>
+        <v>1.534</v>
       </c>
       <c r="AH97" t="n">
         <v>-0.493</v>
@@ -35835,70 +35990,70 @@
         <v>-0.001</v>
       </c>
       <c r="AK97" t="n">
-        <v>-0.143</v>
+        <v>-0.15</v>
       </c>
       <c r="AL97" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="AM97" t="n">
         <v>0.001</v>
       </c>
       <c r="AN97" t="n">
-        <v>0</v>
+        <v>-0.009</v>
       </c>
       <c r="AO97" t="n">
         <v>-0.016</v>
       </c>
       <c r="AP97" t="n">
-        <v>-0.005</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AR97" t="n">
-        <v>-0.007</v>
+        <v>-0.009</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.016</v>
+        <v>0.009</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="AU97" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AV97" t="n">
         <v>-0.023</v>
       </c>
-      <c r="AV97" t="n">
-        <v>-0.019</v>
-      </c>
       <c r="AW97" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="AX97" t="n">
         <v>0</v>
       </c>
       <c r="AY97" t="n">
-        <v>-0.016</v>
+        <v>-0.028</v>
       </c>
       <c r="AZ97" t="n">
         <v>-0.302</v>
       </c>
       <c r="BA97" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="BB97" t="n">
-        <v>-0.274</v>
+        <v>-0.288</v>
       </c>
       <c r="BC97" t="n">
-        <v>-0.018</v>
+        <v>-0.022</v>
       </c>
       <c r="BD97" t="n">
-        <v>0.945</v>
+        <v>1.061</v>
       </c>
       <c r="BE97" t="n">
-        <v>-0.013</v>
+        <v>-0.015</v>
       </c>
       <c r="BF97" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="BG97" t="n">
         <v>0.001</v>
@@ -35910,13 +36065,13 @@
         <v>0.003</v>
       </c>
       <c r="BJ97" t="n">
-        <v>-0.847</v>
+        <v>-0.863</v>
       </c>
       <c r="BK97" t="n">
-        <v>-0.042</v>
+        <v>-0.048</v>
       </c>
       <c r="BL97" t="n">
-        <v>-0.477</v>
+        <v>-0.481</v>
       </c>
       <c r="BM97" t="n">
         <v>0.401</v>
@@ -36730,16 +36885,16 @@
         <v>45413</v>
       </c>
       <c r="B102" t="n">
-        <v>0.094</v>
+        <v>0.097</v>
       </c>
       <c r="C102" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="D102" t="n">
-        <v>0.061</v>
+        <v>0.033</v>
       </c>
       <c r="E102" t="n">
-        <v>0.046</v>
+        <v>0.038</v>
       </c>
       <c r="F102" t="n">
         <v>0.008</v>
@@ -36748,25 +36903,25 @@
         <v>0.035</v>
       </c>
       <c r="H102" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="J102" t="n">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="K102" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07</v>
+        <v>0.067</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
         <v>0.008</v>
@@ -36778,16 +36933,16 @@
         <v>0.004</v>
       </c>
       <c r="R102" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="S102" t="n">
         <v>-0.007</v>
       </c>
       <c r="T102" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="U102" t="n">
-        <v>-0.015</v>
+        <v>-0.016</v>
       </c>
       <c r="V102" t="n">
         <v>0.001</v>
@@ -36814,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="AD102" t="n">
-        <v>-2.024</v>
+        <v>-1.978</v>
       </c>
       <c r="AE102" t="n">
         <v>-1.101</v>
@@ -36832,97 +36987,297 @@
         <v>0.005</v>
       </c>
       <c r="AJ102" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="AK102" t="n">
-        <v>-0.075</v>
+        <v>-0.073</v>
       </c>
       <c r="AL102" t="n">
-        <v>-0.135</v>
+        <v>-0.145</v>
       </c>
       <c r="AM102" t="n">
         <v>0.001</v>
       </c>
       <c r="AN102" t="n">
-        <v>-0.015</v>
+        <v>-0.016</v>
       </c>
       <c r="AO102" t="n">
-        <v>-0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="AP102" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.002</v>
       </c>
       <c r="AR102" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="AS102" t="n">
-        <v>-0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="AU102" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AV102" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="AX102" t="n">
         <v>-0.001</v>
       </c>
       <c r="AY102" t="n">
-        <v>0.141</v>
+        <v>0.096</v>
       </c>
       <c r="AZ102" t="n">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="BA102" t="n">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="BB102" t="n">
-        <v>0.888</v>
+        <v>0.881</v>
       </c>
       <c r="BC102" t="n">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="BD102" t="n">
-        <v>-0.238</v>
+        <v>0.166</v>
       </c>
       <c r="BE102" t="n">
         <v>0.01</v>
       </c>
       <c r="BF102" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="BG102" t="n">
         <v>-0.002</v>
       </c>
       <c r="BH102" t="n">
-        <v>-0.019</v>
+        <v>-0.02</v>
       </c>
       <c r="BI102" t="n">
         <v>-0.001</v>
       </c>
       <c r="BJ102" t="n">
-        <v>0.202</v>
+        <v>0.206</v>
       </c>
       <c r="BK102" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="BL102" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="BM102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.106</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="O103" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="S103" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="T103" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="V103" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="W103" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="X103" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>-2.573</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>-0.344</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>-0.198</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="AM103" t="n">
         <v>0.001</v>
       </c>
-      <c r="BN102" t="n">
+      <c r="AN103" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AU103" t="n">
         <v>0.001</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>-0.176</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>-0.042</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>-0.106</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>-0.133</v>
       </c>
     </row>
   </sheetData>
@@ -50624,13 +50979,13 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C97" t="n">
         <v>0.02</v>
       </c>
       <c r="D97" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E97" t="n">
         <v>0.41</v>
@@ -50642,28 +50997,28 @@
         <v>-0.02</v>
       </c>
       <c r="H97" t="n">
-        <v>-5.35</v>
+        <v>-5.34</v>
       </c>
       <c r="I97" t="n">
-        <v>5.17</v>
+        <v>5.23</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="L97" t="n">
-        <v>-2.35</v>
+        <v>-2.16</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="P97" t="n">
         <v>-0.06</v>
@@ -50684,46 +51039,46 @@
         <v>-0.01</v>
       </c>
       <c r="V97" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="W97" t="n">
         <v>-0.43</v>
       </c>
       <c r="X97" t="n">
-        <v>-0.94</v>
+        <v>-0.78</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z97" t="n">
         <v>0</v>
       </c>
       <c r="AA97" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AB97" t="n">
         <v>0</v>
       </c>
       <c r="AC97" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AD97" t="n">
         <v>-0.37</v>
       </c>
       <c r="AE97" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AF97" t="n">
         <v>-0.08</v>
       </c>
       <c r="AG97" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AH97" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AI97" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AJ97" t="n">
         <v>0.01</v>
@@ -50732,7 +51087,7 @@
         <v>-0.32</v>
       </c>
       <c r="AL97" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AM97" t="n">
         <v>-0.53</v>
@@ -50753,25 +51108,25 @@
         <v>-0.03</v>
       </c>
       <c r="AS97" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="AT97" t="n">
-        <v>-4.15</v>
+        <v>-4.06</v>
       </c>
       <c r="AU97" t="n">
-        <v>-2.25</v>
+        <v>-2.32</v>
       </c>
       <c r="AV97" t="n">
         <v>-0.02</v>
       </c>
       <c r="AW97" t="n">
-        <v>-0.39</v>
+        <v>-0.32</v>
       </c>
       <c r="AX97" t="n">
-        <v>-0.26</v>
+        <v>-0.18</v>
       </c>
       <c r="AY97" t="n">
-        <v>-5.7</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="98">
@@ -51405,7 +51760,7 @@
         <v>-0.01</v>
       </c>
       <c r="D102" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E102" t="n">
         <v>-0.01</v>
@@ -51420,7 +51775,7 @@
         <v>-10.67</v>
       </c>
       <c r="I102" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -51429,28 +51784,28 @@
         <v>-0.01</v>
       </c>
       <c r="L102" t="n">
-        <v>-2.23</v>
+        <v>-2.24</v>
       </c>
       <c r="M102" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O102" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="P102" t="n">
         <v>-0.02</v>
       </c>
-      <c r="N102" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O102" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
-      </c>
       <c r="Q102" t="n">
-        <v>-5.05</v>
+        <v>-1.08</v>
       </c>
       <c r="R102" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="S102" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="T102" t="n">
         <v>-0.4</v>
@@ -51459,13 +51814,13 @@
         <v>0.02</v>
       </c>
       <c r="V102" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="W102" t="n">
         <v>-1.89</v>
       </c>
       <c r="X102" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="Y102" t="n">
         <v>-0.28</v>
@@ -51486,25 +51841,25 @@
         <v>-0.1</v>
       </c>
       <c r="AE102" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="AF102" t="n">
         <v>-0.54</v>
       </c>
       <c r="AG102" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AH102" t="n">
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
       <c r="AI102" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AJ102" t="n">
         <v>-0.01</v>
       </c>
       <c r="AK102" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AL102" t="n">
         <v>-0.03</v>
@@ -51528,25 +51883,180 @@
         <v>0.65</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.92</v>
+        <v>3.47</v>
       </c>
       <c r="AT102" t="n">
         <v>-0.13</v>
       </c>
       <c r="AU102" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AV102" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="AX102" t="n">
         <v>2.67</v>
       </c>
       <c r="AY102" t="n">
-        <v>-15.69</v>
+        <v>-10.22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-3.69</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P103" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="R103" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="S103" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T103" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W103" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>-5.32</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -368,9 +368,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -407,7 +405,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -15739,28 +15739,28 @@
         <v>45292</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="C98" t="n">
         <v>0.36</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.63</v>
+        <v>-1.59</v>
       </c>
       <c r="E98" t="n">
         <v>-0.01</v>
       </c>
       <c r="F98" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G98" t="n">
         <v>0.75</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.81</v>
+        <v>-0.83</v>
       </c>
       <c r="I98" t="n">
-        <v>0.82</v>
+        <v>1.22</v>
       </c>
       <c r="J98" t="n">
         <v>0.03</v>
@@ -15769,7 +15769,7 @@
         <v>-0.15</v>
       </c>
       <c r="L98" t="n">
-        <v>-1.88</v>
+        <v>-1.91</v>
       </c>
       <c r="M98" t="n">
         <v>-0.08</v>
@@ -15778,13 +15778,13 @@
         <v>0.01</v>
       </c>
       <c r="O98" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="P98" t="n">
         <v>-0.06</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="R98" t="n">
         <v>-0.08</v>
@@ -15793,19 +15793,19 @@
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="U98" t="n">
         <v>-0.08</v>
       </c>
       <c r="V98" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="W98" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="X98" t="n">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="Y98" t="n">
         <v>0</v>
@@ -15826,13 +15826,13 @@
         <v>0.9</v>
       </c>
       <c r="AE98" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="AF98" t="n">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="AG98" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AH98" t="n">
         <v>0.01</v>
@@ -15847,10 +15847,10 @@
         <v>-0.02</v>
       </c>
       <c r="AL98" t="n">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="AM98" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="AN98" t="n">
         <v>0.04</v>
@@ -15868,25 +15868,25 @@
         <v>-0.06</v>
       </c>
       <c r="AS98" t="n">
-        <v>16.88</v>
+        <v>16.95</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="AV98" t="n">
         <v>-0.08</v>
       </c>
       <c r="AW98" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AX98" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="AY98" t="n">
-        <v>21.39</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="99">
@@ -16520,7 +16520,7 @@
         <v>0.06</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.51</v>
+        <v>-1.48</v>
       </c>
       <c r="E103" t="n">
         <v>0.01</v>
@@ -16535,7 +16535,7 @@
         <v>0.33</v>
       </c>
       <c r="I103" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="J103" t="n">
         <v>0.01</v>
@@ -16544,22 +16544,22 @@
         <v>-0.03</v>
       </c>
       <c r="L103" t="n">
-        <v>-1.14</v>
+        <v>-0.81</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="N103" t="n">
         <v>-0.01</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q103" t="n">
-        <v>-2.09</v>
+        <v>-2.07</v>
       </c>
       <c r="R103" t="n">
         <v>-0.09</v>
@@ -16568,13 +16568,13 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="U103" t="n">
         <v>-0.03</v>
       </c>
       <c r="V103" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="W103" t="n">
         <v>-0.65</v>
@@ -16586,13 +16586,13 @@
         <v>-0.02</v>
       </c>
       <c r="Z103" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AA103" t="n">
         <v>-0.03</v>
       </c>
       <c r="AB103" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AC103" t="n">
         <v>0.17</v>
@@ -16601,19 +16601,19 @@
         <v>0.3</v>
       </c>
       <c r="AE103" t="n">
-        <v>0.79</v>
+        <v>1.42</v>
       </c>
       <c r="AF103" t="n">
         <v>0.02</v>
       </c>
       <c r="AG103" t="n">
-        <v>-0.07</v>
+        <v>-0.04</v>
       </c>
       <c r="AH103" t="n">
         <v>0.47</v>
       </c>
       <c r="AI103" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="AJ103" t="n">
         <v>0.01</v>
@@ -16643,25 +16643,180 @@
         <v>-0.04</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AT103" t="n">
         <v>-6.66</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AV103" t="n">
         <v>-0.07</v>
       </c>
       <c r="AW103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AX103" t="n">
         <v>0.05</v>
       </c>
-      <c r="AX103" t="n">
+      <c r="AY103" t="n">
+        <v>-8.73</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-5.21</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L104" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="R104" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="S104" t="n">
         <v>0.02</v>
       </c>
-      <c r="AY103" t="n">
-        <v>-9.78</v>
+      <c r="T104" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="U104" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="V104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X104" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>17.28</v>
       </c>
     </row>
   </sheetData>
@@ -36083,37 +36238,37 @@
         <v>45292</v>
       </c>
       <c r="B98" t="n">
-        <v>0.038</v>
+        <v>0.025</v>
       </c>
       <c r="C98" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.119</v>
+        <v>-0.114</v>
       </c>
       <c r="E98" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005</v>
+        <v>0.095</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="H98" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.016</v>
+        <v>-0.019</v>
       </c>
       <c r="J98" t="n">
         <v>-0.007</v>
       </c>
       <c r="K98" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07</v>
+        <v>0.067</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -36128,67 +36283,67 @@
         <v>-0.008</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.017</v>
+        <v>-0.016</v>
       </c>
       <c r="R98" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="S98" t="n">
         <v>-0.015</v>
       </c>
       <c r="T98" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="U98" t="n">
-        <v>-0.047</v>
+        <v>-0.055</v>
       </c>
       <c r="V98" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="W98" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="X98" t="n">
         <v>0.039</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="Z98" t="n">
         <v>-0.02</v>
       </c>
       <c r="AA98" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AC98" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AD98" t="n">
-        <v>0.119</v>
+        <v>0.108</v>
       </c>
       <c r="AE98" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="AF98" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="AG98" t="n">
-        <v>8.892</v>
+        <v>8.867</v>
       </c>
       <c r="AH98" t="n">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="AI98" t="n">
         <v>-0.001</v>
       </c>
       <c r="AJ98" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AK98" t="n">
-        <v>-0.087</v>
+        <v>-0.088</v>
       </c>
       <c r="AL98" t="n">
         <v>-0.152</v>
@@ -36197,58 +36352,58 @@
         <v>-0.001</v>
       </c>
       <c r="AN98" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="AO98" t="n">
-        <v>-0.019</v>
+        <v>-0.02</v>
       </c>
       <c r="AP98" t="n">
         <v>0.008</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="AR98" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="AT98" t="n">
         <v>0.02</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.397</v>
+        <v>0.31</v>
       </c>
       <c r="AV98" t="n">
-        <v>-0.035</v>
+        <v>-0.049</v>
       </c>
       <c r="AW98" t="n">
-        <v>-0.015</v>
+        <v>-0.022</v>
       </c>
       <c r="AX98" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AY98" t="n">
-        <v>0.154</v>
+        <v>0.142</v>
       </c>
       <c r="AZ98" t="n">
-        <v>-0.28</v>
+        <v>-0.225</v>
       </c>
       <c r="BA98" t="n">
-        <v>0.058</v>
+        <v>0.065</v>
       </c>
       <c r="BB98" t="n">
-        <v>0.436</v>
+        <v>0.433</v>
       </c>
       <c r="BC98" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="BD98" t="n">
-        <v>0.868</v>
+        <v>1.429</v>
       </c>
       <c r="BE98" t="n">
-        <v>-0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="BF98" t="n">
         <v>0.004</v>
@@ -36257,25 +36412,25 @@
         <v>0.003</v>
       </c>
       <c r="BH98" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="BI98" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="BJ98" t="n">
-        <v>0.464</v>
+        <v>0.469</v>
       </c>
       <c r="BK98" t="n">
-        <v>-0.115</v>
+        <v>-0.118</v>
       </c>
       <c r="BL98" t="n">
-        <v>-0.225</v>
+        <v>-0.224</v>
       </c>
       <c r="BM98" t="n">
-        <v>-0.034</v>
+        <v>-0.035</v>
       </c>
       <c r="BN98" t="n">
-        <v>-0.034</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="99">
@@ -37083,22 +37238,22 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.048</v>
+        <v>-0.052</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.074</v>
+        <v>-0.081</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.106</v>
+        <v>-0.105</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.009</v>
+        <v>-0.016</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.01</v>
+        <v>-0.014</v>
       </c>
       <c r="G103" t="n">
-        <v>0.006</v>
+        <v>0.009</v>
       </c>
       <c r="H103" t="n">
         <v>0.002</v>
@@ -37107,10 +37262,10 @@
         <v>0.005</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.065</v>
+        <v>-0.014</v>
       </c>
       <c r="L103" t="n">
         <v>0.07</v>
@@ -37128,7 +37283,7 @@
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.007</v>
+        <v>-0.008</v>
       </c>
       <c r="R103" t="n">
         <v>0.003</v>
@@ -37137,10 +37292,10 @@
         <v>-0.004</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="U103" t="n">
-        <v>0.039</v>
+        <v>0.074</v>
       </c>
       <c r="V103" t="n">
         <v>-0.007</v>
@@ -37167,46 +37322,46 @@
         <v>0</v>
       </c>
       <c r="AD103" t="n">
-        <v>-2.573</v>
+        <v>-2.572</v>
       </c>
       <c r="AE103" t="n">
-        <v>-0.344</v>
+        <v>-0.343</v>
       </c>
       <c r="AF103" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG103" t="n">
-        <v>-1.28</v>
+        <v>-0.976</v>
       </c>
       <c r="AH103" t="n">
-        <v>-0.198</v>
+        <v>-0.201</v>
       </c>
       <c r="AI103" t="n">
         <v>0.005</v>
       </c>
       <c r="AJ103" t="n">
-        <v>-0.028</v>
+        <v>-0.022</v>
       </c>
       <c r="AK103" t="n">
-        <v>-0.057</v>
+        <v>-0.056</v>
       </c>
       <c r="AL103" t="n">
-        <v>-0.278</v>
+        <v>-0.279</v>
       </c>
       <c r="AM103" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AN103" t="n">
         <v>-0.007</v>
       </c>
       <c r="AO103" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="AP103" t="n">
         <v>-0.012</v>
       </c>
-      <c r="AP103" t="n">
-        <v>-0.011</v>
-      </c>
       <c r="AQ103" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AR103" t="n">
         <v>-0.016</v>
@@ -37215,55 +37370,55 @@
         <v>0.028</v>
       </c>
       <c r="AT103" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="AU103" t="n">
         <v>0.001</v>
       </c>
       <c r="AV103" t="n">
-        <v>-0.176</v>
+        <v>-0.18</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.039</v>
+        <v>0.2</v>
       </c>
       <c r="AX103" t="n">
         <v>-0.002</v>
       </c>
       <c r="AY103" t="n">
-        <v>-0.095</v>
+        <v>-0.096</v>
       </c>
       <c r="AZ103" t="n">
-        <v>-0.05</v>
+        <v>-0.054</v>
       </c>
       <c r="BA103" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="BB103" t="n">
-        <v>0.959</v>
+        <v>0.976</v>
       </c>
       <c r="BC103" t="n">
         <v>-0.042</v>
       </c>
       <c r="BD103" t="n">
-        <v>-0.106</v>
+        <v>-0.107</v>
       </c>
       <c r="BE103" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="BF103" t="n">
-        <v>-0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="BG103" t="n">
         <v>-0.002</v>
       </c>
       <c r="BH103" t="n">
-        <v>-0.001</v>
+        <v>0.006</v>
       </c>
       <c r="BI103" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="BJ103" t="n">
-        <v>-0.057</v>
+        <v>-0.06</v>
       </c>
       <c r="BK103" t="n">
         <v>-0.1</v>
@@ -37272,10 +37427,210 @@
         <v>-0.063</v>
       </c>
       <c r="BM103" t="n">
-        <v>-0.133</v>
+        <v>-0.132</v>
       </c>
       <c r="BN103" t="n">
-        <v>-0.133</v>
+        <v>-0.132</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S104" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="W104" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="X104" t="n">
+        <v>-0.039</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>-0.153</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>-0.723</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>0.008</v>
       </c>
     </row>
   </sheetData>
@@ -51132,13 +51487,13 @@
         <v>45292</v>
       </c>
       <c r="B98" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -51159,25 +51514,25 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.37</v>
+        <v>0.07</v>
       </c>
       <c r="M98" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="P98" t="n">
         <v>-0.01</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.85</v>
+        <v>-0.35</v>
       </c>
       <c r="R98" t="n">
         <v>-0.02</v>
@@ -51186,22 +51541,22 @@
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="U98" t="n">
         <v>-0.03</v>
       </c>
       <c r="V98" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="W98" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="X98" t="n">
         <v>-0.24</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z98" t="n">
         <v>-0.02</v>
@@ -51213,13 +51568,13 @@
         <v>-0.01</v>
       </c>
       <c r="AC98" t="n">
-        <v>-4.5</v>
+        <v>-4.47</v>
       </c>
       <c r="AD98" t="n">
-        <v>-0.22</v>
+        <v>-0.17</v>
       </c>
       <c r="AE98" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="AF98" t="n">
         <v>0.06</v>
@@ -51228,10 +51583,10 @@
         <v>0.15</v>
       </c>
       <c r="AH98" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI98" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AJ98" t="n">
         <v>0</v>
@@ -51240,7 +51595,7 @@
         <v>-0.12</v>
       </c>
       <c r="AL98" t="n">
-        <v>-0.14</v>
+        <v>-0.04</v>
       </c>
       <c r="AM98" t="n">
         <v>-0.28</v>
@@ -51249,7 +51604,7 @@
         <v>0</v>
       </c>
       <c r="AO98" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="AP98" t="n">
         <v>-0.02</v>
@@ -51261,25 +51616,25 @@
         <v>0.02</v>
       </c>
       <c r="AS98" t="n">
-        <v>-3.69</v>
+        <v>-2.12</v>
       </c>
       <c r="AT98" t="n">
-        <v>-10.97</v>
+        <v>-10.96</v>
       </c>
       <c r="AU98" t="n">
-        <v>-0.39</v>
+        <v>-0.43</v>
       </c>
       <c r="AV98" t="n">
         <v>-0.13</v>
       </c>
       <c r="AW98" t="n">
-        <v>-0.07</v>
+        <v>0.01</v>
       </c>
       <c r="AX98" t="n">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="AY98" t="n">
-        <v>-18.35</v>
+        <v>-15.78</v>
       </c>
     </row>
     <row r="99">
@@ -51907,16 +52262,16 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.17</v>
+        <v>-0.2</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F103" t="n">
         <v>0.02</v>
@@ -51925,19 +52280,19 @@
         <v>0.42</v>
       </c>
       <c r="H103" t="n">
-        <v>-3.69</v>
+        <v>-3.68</v>
       </c>
       <c r="I103" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.53</v>
+        <v>-0.47</v>
       </c>
       <c r="M103" t="n">
         <v>-0.14</v>
@@ -51946,13 +52301,13 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="P103" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q103" t="n">
-        <v>-2.68</v>
+        <v>-4.75</v>
       </c>
       <c r="R103" t="n">
         <v>-0.08</v>
@@ -51961,19 +52316,19 @@
         <v>-0.01</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="U103" t="n">
         <v>0.02</v>
       </c>
       <c r="V103" t="n">
-        <v>0.1</v>
+        <v>-0.19</v>
       </c>
       <c r="W103" t="n">
-        <v>-0.91</v>
+        <v>-0.9</v>
       </c>
       <c r="X103" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="Y103" t="n">
         <v>0</v>
@@ -51985,28 +52340,28 @@
         <v>-0.01</v>
       </c>
       <c r="AB103" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AC103" t="n">
-        <v>-0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="AD103" t="n">
         <v>0.04</v>
       </c>
       <c r="AE103" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AF103" t="n">
         <v>-0.03</v>
       </c>
       <c r="AG103" t="n">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="AH103" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="AI103" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AJ103" t="n">
         <v>0.01</v>
@@ -52015,7 +52370,7 @@
         <v>-0.02</v>
       </c>
       <c r="AL103" t="n">
-        <v>-0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="AM103" t="n">
         <v>-0.01</v>
@@ -52024,7 +52379,7 @@
         <v>0</v>
       </c>
       <c r="AO103" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AP103" t="n">
         <v>0.02</v>
@@ -52036,10 +52391,10 @@
         <v>0.89</v>
       </c>
       <c r="AS103" t="n">
-        <v>-0.64</v>
+        <v>0.13</v>
       </c>
       <c r="AT103" t="n">
-        <v>-1.76</v>
+        <v>-1.75</v>
       </c>
       <c r="AU103" t="n">
         <v>0.86</v>
@@ -52048,13 +52403,168 @@
         <v>-0.08</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="AX103" t="n">
         <v>-0.63</v>
       </c>
       <c r="AY103" t="n">
-        <v>-5.32</v>
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-7.02</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="U104" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="V104" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>3.79</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -15850,7 +15850,7 @@
         <v>-0.17</v>
       </c>
       <c r="AM98" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="AN98" t="n">
         <v>0.04</v>
@@ -15886,7 +15886,7 @@
         <v>-0.14</v>
       </c>
       <c r="AY98" t="n">
-        <v>22.31</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="99">
@@ -16052,25 +16052,25 @@
         <v>0.02</v>
       </c>
       <c r="C100" t="n">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="D100" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="F100" t="n">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="G100" t="n">
-        <v>2.69</v>
+        <v>2.93</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.67</v>
+        <v>-0.48</v>
       </c>
       <c r="I100" t="n">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -16079,7 +16079,7 @@
         <v>-0.4</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.63</v>
+        <v>-0.7</v>
       </c>
       <c r="M100" t="n">
         <v>-0.1</v>
@@ -16088,13 +16088,13 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="P100" t="n">
         <v>-0.07</v>
       </c>
       <c r="Q100" t="n">
-        <v>-0.57</v>
+        <v>-0.56</v>
       </c>
       <c r="R100" t="n">
         <v>0.23</v>
@@ -16109,10 +16109,10 @@
         <v>-0.04</v>
       </c>
       <c r="V100" t="n">
-        <v>-0.87</v>
+        <v>-0.36</v>
       </c>
       <c r="W100" t="n">
-        <v>0.13</v>
+        <v>0.59</v>
       </c>
       <c r="X100" t="n">
         <v>-0.26</v>
@@ -16130,13 +16130,13 @@
         <v>0</v>
       </c>
       <c r="AC100" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AD100" t="n">
-        <v>0.78</v>
+        <v>1.02</v>
       </c>
       <c r="AE100" t="n">
-        <v>-0.71</v>
+        <v>-0.73</v>
       </c>
       <c r="AF100" t="n">
         <v>-0.16</v>
@@ -16145,7 +16145,7 @@
         <v>-0.16</v>
       </c>
       <c r="AH100" t="n">
-        <v>-1.28</v>
+        <v>-1.3</v>
       </c>
       <c r="AI100" t="n">
         <v>-0.1</v>
@@ -16154,10 +16154,10 @@
         <v>0.1</v>
       </c>
       <c r="AK100" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AL100" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="AM100" t="n">
         <v>-0.03</v>
@@ -16172,31 +16172,31 @@
         <v>-0.14</v>
       </c>
       <c r="AQ100" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>-2.67</v>
+        <v>-2.58</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="AU100" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AV100" t="n">
         <v>-0.11</v>
       </c>
       <c r="AW100" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AX100" t="n">
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="AY100" t="n">
-        <v>-0.45</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="101">
@@ -16830,7 +16830,7 @@
         <v>0.03</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.49</v>
+        <v>-2.52</v>
       </c>
       <c r="E105" t="n">
         <v>-0.01</v>
@@ -16857,19 +16857,19 @@
         <v>1.84</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="P105" t="n">
         <v>-0.06</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.46</v>
+        <v>-0.37</v>
       </c>
       <c r="R105" t="n">
         <v>0.03</v>
@@ -16884,7 +16884,7 @@
         <v>-0.04</v>
       </c>
       <c r="V105" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="W105" t="n">
         <v>-1.12</v>
@@ -16893,7 +16893,7 @@
         <v>0.03</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Z105" t="n">
         <v>0</v>
@@ -16911,7 +16911,7 @@
         <v>0.5</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AF105" t="n">
         <v>-0.05</v>
@@ -16932,7 +16932,7 @@
         <v>-0.06</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="AM105" t="n">
         <v>-0.01</v>
@@ -16941,7 +16941,7 @@
         <v>0.02</v>
       </c>
       <c r="AO105" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AP105" t="n">
         <v>0.12</v>
@@ -16959,19 +16959,174 @@
         <v>-0.46</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="AV105" t="n">
         <v>0.2</v>
       </c>
       <c r="AW105" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="AX105" t="n">
         <v>0.08</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.49</v>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O106" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="R106" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U106" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W106" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>40.35</v>
       </c>
     </row>
   </sheetData>
@@ -36528,7 +36683,7 @@
         <v>0.041</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.618</v>
+        <v>0.317</v>
       </c>
       <c r="AV98" t="n">
         <v>-0.097</v>
@@ -36793,37 +36948,37 @@
         <v>45352</v>
       </c>
       <c r="B100" t="n">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.112</v>
+        <v>-0.118</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.422</v>
+        <v>-0.416</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.017</v>
+        <v>-0.019</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.031</v>
+        <v>-0.028</v>
       </c>
       <c r="G100" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.047</v>
+        <v>-0.056</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.028</v>
+        <v>-0.027</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.092</v>
+        <v>-0.097</v>
       </c>
       <c r="L100" t="n">
-        <v>0.177</v>
+        <v>0.173</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -36838,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>-0.028</v>
+        <v>-0.024</v>
       </c>
       <c r="R100" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="S100" t="n">
         <v>-0.016</v>
@@ -36850,16 +37005,16 @@
         <v>-0.003</v>
       </c>
       <c r="U100" t="n">
-        <v>-0.006</v>
+        <v>-0.016</v>
       </c>
       <c r="V100" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="W100" t="n">
-        <v>-0.02</v>
+        <v>-0.021</v>
       </c>
       <c r="X100" t="n">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="Y100" t="n">
         <v>0.004</v>
@@ -36868,118 +37023,118 @@
         <v>-0.027</v>
       </c>
       <c r="AA100" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="AB100" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AC100" t="n">
         <v>-0.002</v>
       </c>
       <c r="AD100" t="n">
-        <v>-0.591</v>
+        <v>-0.069</v>
       </c>
       <c r="AE100" t="n">
-        <v>0.898</v>
+        <v>0.893</v>
       </c>
       <c r="AF100" t="n">
-        <v>-0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="AG100" t="n">
-        <v>-1.385</v>
+        <v>-1.833</v>
       </c>
       <c r="AH100" t="n">
-        <v>0.637</v>
+        <v>0.627</v>
       </c>
       <c r="AI100" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="AJ100" t="n">
-        <v>-0.037</v>
+        <v>-0.036</v>
       </c>
       <c r="AK100" t="n">
-        <v>-0.105</v>
+        <v>-0.114</v>
       </c>
       <c r="AL100" t="n">
-        <v>-0.631</v>
+        <v>-0.644</v>
       </c>
       <c r="AM100" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AN100" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AO100" t="n">
         <v>-0.048</v>
       </c>
       <c r="AP100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>-0.037</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>-0.113</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>-0.207</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>4.635</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="BG100" t="n">
         <v>0.002</v>
       </c>
-      <c r="AQ100" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="AR100" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="AS100" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="AT100" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="AU100" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="AV100" t="n">
-        <v>-0.394</v>
-      </c>
-      <c r="AW100" t="n">
-        <v>-0.111</v>
-      </c>
-      <c r="AX100" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="AY100" t="n">
-        <v>-0.164</v>
-      </c>
-      <c r="AZ100" t="n">
-        <v>-0.099</v>
-      </c>
-      <c r="BA100" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="BB100" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="BC100" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="BD100" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="BE100" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="BF100" t="n">
-        <v>-0.019</v>
-      </c>
-      <c r="BG100" t="n">
-        <v>0.003</v>
-      </c>
       <c r="BH100" t="n">
-        <v>-0.04</v>
+        <v>-0.028</v>
       </c>
       <c r="BI100" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="BJ100" t="n">
-        <v>-0.152</v>
+        <v>-0.156</v>
       </c>
       <c r="BK100" t="n">
         <v>0.021</v>
       </c>
       <c r="BL100" t="n">
-        <v>0.029</v>
+        <v>0.019</v>
       </c>
       <c r="BM100" t="n">
         <v>0</v>
@@ -37796,34 +37951,34 @@
         <v>0.053</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.021</v>
+        <v>-0.034</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.073</v>
+        <v>0.046</v>
       </c>
       <c r="E105" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F105" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="G105" t="n">
-        <v>0.054</v>
+        <v>0.06</v>
       </c>
       <c r="H105" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.023</v>
+        <v>-0.022</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.015</v>
+        <v>-0.018</v>
       </c>
       <c r="K105" t="n">
         <v>0.193</v>
       </c>
       <c r="L105" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -37838,28 +37993,28 @@
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="R105" t="n">
         <v>0.012</v>
       </c>
       <c r="S105" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="T105" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="U105" t="n">
-        <v>0.027</v>
+        <v>0.165</v>
       </c>
       <c r="V105" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="W105" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="X105" t="n">
-        <v>-0.04</v>
+        <v>-0.046</v>
       </c>
       <c r="Y105" t="n">
         <v>0.002</v>
@@ -37871,34 +38026,34 @@
         <v>0.006</v>
       </c>
       <c r="AB105" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AC105" t="n">
         <v>-0.012</v>
       </c>
       <c r="AD105" t="n">
-        <v>-0.994</v>
+        <v>-0.993</v>
       </c>
       <c r="AE105" t="n">
-        <v>-1.187</v>
+        <v>-1.179</v>
       </c>
       <c r="AF105" t="n">
         <v>0.013</v>
       </c>
       <c r="AG105" t="n">
-        <v>8.457</v>
+        <v>8.27</v>
       </c>
       <c r="AH105" t="n">
-        <v>1.083</v>
+        <v>1.081</v>
       </c>
       <c r="AI105" t="n">
         <v>0.006</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="AK105" t="n">
-        <v>-0.091</v>
+        <v>-0.09</v>
       </c>
       <c r="AL105" t="n">
         <v>-0.155</v>
@@ -37910,58 +38065,58 @@
         <v>-0.011</v>
       </c>
       <c r="AO105" t="n">
-        <v>-0.032</v>
+        <v>-0.035</v>
       </c>
       <c r="AP105" t="n">
-        <v>-0.009</v>
+        <v>-0.012</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="AR105" t="n">
-        <v>-0.009</v>
+        <v>-0.007</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="AT105" t="n">
-        <v>-0.019</v>
+        <v>-0.02</v>
       </c>
       <c r="AU105" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="AV105" t="n">
-        <v>-0.203</v>
+        <v>-0.226</v>
       </c>
       <c r="AW105" t="n">
         <v>0.176</v>
       </c>
       <c r="AX105" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="AY105" t="n">
-        <v>0.288</v>
+        <v>0.286</v>
       </c>
       <c r="AZ105" t="n">
-        <v>0.271</v>
+        <v>0.257</v>
       </c>
       <c r="BA105" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>-3.451</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="BF105" t="n">
         <v>0.003</v>
-      </c>
-      <c r="BB105" t="n">
-        <v>2.492</v>
-      </c>
-      <c r="BC105" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="BD105" t="n">
-        <v>-3.453</v>
-      </c>
-      <c r="BE105" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="BF105" t="n">
-        <v>0.002</v>
       </c>
       <c r="BG105" t="n">
         <v>-0.002</v>
@@ -37970,22 +38125,222 @@
         <v>-0.019</v>
       </c>
       <c r="BI105" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="BJ105" t="n">
-        <v>0.869</v>
+        <v>0.86</v>
       </c>
       <c r="BK105" t="n">
         <v>-0.07</v>
       </c>
       <c r="BL105" t="n">
-        <v>-0.196</v>
+        <v>-0.208</v>
       </c>
       <c r="BM105" t="n">
-        <v>-0.325</v>
+        <v>-0.327</v>
       </c>
       <c r="BN105" t="n">
-        <v>-0.325</v>
+        <v>-0.327</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.302</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O106" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="S106" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="W106" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>6.596</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>-0.513</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>29.405</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>-0.388</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>-0.509</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.763</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>-0.124</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>0.004</v>
       </c>
     </row>
   </sheetData>
@@ -52152,19 +52507,19 @@
         <v>45352</v>
       </c>
       <c r="B100" t="n">
-        <v>-3.44</v>
+        <v>-3.45</v>
       </c>
       <c r="C100" t="n">
         <v>-0.04</v>
       </c>
       <c r="D100" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="E100" t="n">
         <v>0.01</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G100" t="n">
         <v>-0.28</v>
@@ -52173,31 +52528,31 @@
         <v>0.14</v>
       </c>
       <c r="I100" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.81</v>
+        <v>-0.82</v>
       </c>
       <c r="M100" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O100" t="n">
-        <v>-4.64</v>
+        <v>-4.63</v>
       </c>
       <c r="P100" t="n">
         <v>-0.05</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="R100" t="n">
         <v>0.01</v>
@@ -52212,16 +52567,16 @@
         <v>0.14</v>
       </c>
       <c r="V100" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="W100" t="n">
         <v>-0.65</v>
       </c>
       <c r="X100" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="Y100" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="Z100" t="n">
         <v>-0.01</v>
@@ -52233,13 +52588,13 @@
         <v>0</v>
       </c>
       <c r="AC100" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AD100" t="n">
         <v>0.06</v>
       </c>
       <c r="AE100" t="n">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="AF100" t="n">
         <v>0.08</v>
@@ -52248,10 +52603,10 @@
         <v>-0.07</v>
       </c>
       <c r="AH100" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="AI100" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AJ100" t="n">
         <v>0.02</v>
@@ -52260,7 +52615,7 @@
         <v>-0.02</v>
       </c>
       <c r="AL100" t="n">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AM100" t="n">
         <v>-0.34</v>
@@ -52278,28 +52633,28 @@
         <v>0.06</v>
       </c>
       <c r="AR100" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="AT100" t="n">
         <v>-1.51</v>
       </c>
       <c r="AU100" t="n">
-        <v>-0.7</v>
+        <v>-0.68</v>
       </c>
       <c r="AV100" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="AW100" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="AX100" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AY100" t="n">
-        <v>-0.98</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="101">
@@ -52948,7 +53303,7 @@
         <v>-3.29</v>
       </c>
       <c r="I105" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -52957,7 +53312,7 @@
         <v>0.63</v>
       </c>
       <c r="L105" t="n">
-        <v>8.28</v>
+        <v>8.24</v>
       </c>
       <c r="M105" t="n">
         <v>-0.08</v>
@@ -52966,13 +53321,13 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="Q105" t="n">
-        <v>-1.88</v>
+        <v>-1.92</v>
       </c>
       <c r="R105" t="n">
         <v>0.16</v>
@@ -52981,13 +53336,13 @@
         <v>0.01</v>
       </c>
       <c r="T105" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="U105" t="n">
         <v>-0.32</v>
       </c>
       <c r="V105" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="W105" t="n">
         <v>0.28</v>
@@ -53014,13 +53369,13 @@
         <v>-0.02</v>
       </c>
       <c r="AE105" t="n">
-        <v>-0.14</v>
+        <v>-0.24</v>
       </c>
       <c r="AF105" t="n">
         <v>-0.11</v>
       </c>
       <c r="AG105" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="AH105" t="n">
         <v>0.13</v>
@@ -53029,13 +53384,13 @@
         <v>0</v>
       </c>
       <c r="AJ105" t="n">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="AK105" t="n">
         <v>0.19</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AM105" t="n">
         <v>0.8</v>
@@ -53047,7 +53402,7 @@
         <v>-0.03</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.19</v>
@@ -53056,25 +53411,180 @@
         <v>1.9</v>
       </c>
       <c r="AS105" t="n">
-        <v>3.2</v>
+        <v>6.38</v>
       </c>
       <c r="AT105" t="n">
-        <v>-3.3</v>
+        <v>-3.29</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="AV105" t="n">
         <v>-0.17</v>
       </c>
       <c r="AW105" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-4.72</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>-3.54</v>
+      </c>
+      <c r="R106" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T106" t="n">
         <v>0.17</v>
       </c>
-      <c r="AX105" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AY105" t="n">
-        <v>8.3</v>
+      <c r="U106" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>-5.42</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -16210,22 +16210,22 @@
         <v>0.08</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.58</v>
+        <v>-2.66</v>
       </c>
       <c r="E101" t="n">
         <v>0.05</v>
       </c>
       <c r="F101" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="G101" t="n">
         <v>-1.29</v>
       </c>
       <c r="H101" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I101" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -16234,7 +16234,7 @@
         <v>-0.65</v>
       </c>
       <c r="L101" t="n">
-        <v>5.28</v>
+        <v>5.2</v>
       </c>
       <c r="M101" t="n">
         <v>-0.03</v>
@@ -16243,16 +16243,16 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="P101" t="n">
         <v>-0.06</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="S101" t="n">
         <v>0.01</v>
@@ -16264,10 +16264,10 @@
         <v>-0.02</v>
       </c>
       <c r="V101" t="n">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="W101" t="n">
-        <v>-0.47</v>
+        <v>-0.27</v>
       </c>
       <c r="X101" t="n">
         <v>0.13</v>
@@ -16279,10 +16279,10 @@
         <v>0.01</v>
       </c>
       <c r="AA101" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="AB101" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AC101" t="n">
         <v>1.03</v>
@@ -16291,13 +16291,13 @@
         <v>0.42</v>
       </c>
       <c r="AE101" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="AF101" t="n">
         <v>0</v>
       </c>
       <c r="AG101" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="AH101" t="n">
         <v>0.04</v>
@@ -16312,7 +16312,7 @@
         <v>0.05</v>
       </c>
       <c r="AL101" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AM101" t="n">
         <v>0.15</v>
@@ -16327,31 +16327,31 @@
         <v>0.04</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR101" t="n">
         <v>-0.04</v>
       </c>
       <c r="AS101" t="n">
-        <v>16.12</v>
+        <v>15.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="AU101" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="AV101" t="n">
         <v>-0.06</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AX101" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AY101" t="n">
-        <v>29.06</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="102">
@@ -16985,10 +16985,10 @@
         <v>0.27</v>
       </c>
       <c r="D106" t="n">
-        <v>4.96</v>
+        <v>5.12</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>-0.01</v>
@@ -17009,7 +17009,7 @@
         <v>-0.4</v>
       </c>
       <c r="L106" t="n">
-        <v>0.44</v>
+        <v>0.89</v>
       </c>
       <c r="M106" t="n">
         <v>-0.04</v>
@@ -17018,28 +17018,28 @@
         <v>-0.01</v>
       </c>
       <c r="O106" t="n">
-        <v>8.69</v>
+        <v>8.91</v>
       </c>
       <c r="P106" t="n">
         <v>-0.01</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.65</v>
+        <v>-0.32</v>
       </c>
       <c r="R106" t="n">
         <v>-0.1</v>
       </c>
       <c r="S106" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="T106" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="U106" t="n">
         <v>-0.1</v>
       </c>
       <c r="V106" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W106" t="n">
         <v>-0.18</v>
@@ -17057,7 +17057,7 @@
         <v>-0.01</v>
       </c>
       <c r="AB106" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AC106" t="n">
         <v>0.69</v>
@@ -17066,7 +17066,7 @@
         <v>0.5</v>
       </c>
       <c r="AE106" t="n">
-        <v>5.28</v>
+        <v>5.72</v>
       </c>
       <c r="AF106" t="n">
         <v>0</v>
@@ -17075,10 +17075,10 @@
         <v>-0.07</v>
       </c>
       <c r="AH106" t="n">
-        <v>-0.08</v>
+        <v>-0.07</v>
       </c>
       <c r="AI106" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AJ106" t="n">
         <v>0.16</v>
@@ -17087,13 +17087,13 @@
         <v>-0.37</v>
       </c>
       <c r="AL106" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AM106" t="n">
         <v>0.23</v>
       </c>
       <c r="AN106" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AO106" t="n">
         <v>0.01</v>
@@ -17108,13 +17108,13 @@
         <v>0.15</v>
       </c>
       <c r="AS106" t="n">
-        <v>17.15</v>
+        <v>17.12</v>
       </c>
       <c r="AT106" t="n">
         <v>0.27</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AV106" t="n">
         <v>0.1</v>
@@ -17126,7 +17126,162 @@
         <v>0.63</v>
       </c>
       <c r="AY106" t="n">
-        <v>40.35</v>
+        <v>41.83</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W107" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="X107" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>20.9</v>
       </c>
     </row>
   </sheetData>
@@ -37148,37 +37303,37 @@
         <v>45383</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.037</v>
+        <v>-0.043</v>
       </c>
       <c r="C101" t="n">
-        <v>0.066</v>
+        <v>0.074</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005</v>
+        <v>0.013</v>
       </c>
       <c r="E101" t="n">
-        <v>0.019</v>
+        <v>0.035</v>
       </c>
       <c r="F101" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="G101" t="n">
-        <v>0.07</v>
+        <v>0.073</v>
       </c>
       <c r="H101" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="I101" t="n">
         <v>0.035</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.011</v>
+        <v>-0.009</v>
       </c>
       <c r="K101" t="n">
-        <v>0.189</v>
+        <v>0.183</v>
       </c>
       <c r="L101" t="n">
-        <v>0.279</v>
+        <v>0.281</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -37193,22 +37348,22 @@
         <v>-0.001</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="R101" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="S101" t="n">
         <v>-0.017</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="U101" t="n">
-        <v>0.112</v>
+        <v>0.117</v>
       </c>
       <c r="V101" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="W101" t="n">
         <v>-0.006</v>
@@ -37223,7 +37378,7 @@
         <v>-0.03</v>
       </c>
       <c r="AA101" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="AB101" t="n">
         <v>0.005</v>
@@ -37232,115 +37387,115 @@
         <v>-0.003</v>
       </c>
       <c r="AD101" t="n">
-        <v>-1.64</v>
+        <v>-2.929</v>
       </c>
       <c r="AE101" t="n">
-        <v>-2.368</v>
+        <v>-2.378</v>
       </c>
       <c r="AF101" t="n">
-        <v>0.039</v>
+        <v>0.033</v>
       </c>
       <c r="AG101" t="n">
-        <v>23.312</v>
+        <v>22.98</v>
       </c>
       <c r="AH101" t="n">
-        <v>2.371</v>
+        <v>2.367</v>
       </c>
       <c r="AI101" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>-0.071</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AP101" t="n">
         <v>0.018</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>-0.062</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="AM101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="AO101" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="AP101" t="n">
-        <v>0.017</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.004</v>
       </c>
       <c r="AR101" t="n">
-        <v>-0.124</v>
+        <v>-0.123</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.001</v>
+        <v>-0.009</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.028</v>
+        <v>0.018</v>
       </c>
       <c r="AU101" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="AV101" t="n">
         <v>0.435</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.111</v>
+        <v>0.119</v>
       </c>
       <c r="AX101" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>4.168</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="BF101" t="n">
         <v>-0.011</v>
-      </c>
-      <c r="AY101" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="AZ101" t="n">
-        <v>-0.057</v>
-      </c>
-      <c r="BA101" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="BB101" t="n">
-        <v>1.118</v>
-      </c>
-      <c r="BC101" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="BD101" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="BE101" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BF101" t="n">
-        <v>-0.013</v>
       </c>
       <c r="BG101" t="n">
         <v>0.002</v>
       </c>
       <c r="BH101" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="BI101" t="n">
         <v>0.002</v>
       </c>
-      <c r="BI101" t="n">
-        <v>0.001</v>
-      </c>
       <c r="BJ101" t="n">
-        <v>0.515</v>
+        <v>0.513</v>
       </c>
       <c r="BK101" t="n">
-        <v>0.068</v>
+        <v>0.069</v>
       </c>
       <c r="BL101" t="n">
-        <v>0.605</v>
+        <v>0.615</v>
       </c>
       <c r="BM101" t="n">
-        <v>-0.36</v>
+        <v>-0.359</v>
       </c>
       <c r="BN101" t="n">
-        <v>-0.36</v>
+        <v>-0.359</v>
       </c>
     </row>
     <row r="102">
@@ -38148,43 +38303,43 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.302</v>
+        <v>-0.307</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1</v>
+        <v>0.127</v>
       </c>
       <c r="D106" t="n">
-        <v>0.345</v>
+        <v>0.322</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.027</v>
+        <v>-0.025</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06</v>
+        <v>0.073</v>
       </c>
       <c r="G106" t="n">
         <v>0.062</v>
       </c>
       <c r="H106" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="I106" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="J106" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="K106" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="L106" t="n">
-        <v>0.353</v>
+        <v>0.345</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="O106" t="n">
         <v>-0.009</v>
@@ -38193,7 +38348,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="R106" t="n">
         <v>0.006</v>
@@ -38205,10 +38360,10 @@
         <v>0.007</v>
       </c>
       <c r="U106" t="n">
-        <v>0.266</v>
+        <v>0.271</v>
       </c>
       <c r="V106" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="W106" t="n">
         <v>-0.003</v>
@@ -38232,16 +38387,16 @@
         <v>-0.012</v>
       </c>
       <c r="AD106" t="n">
-        <v>6.596</v>
+        <v>6.595</v>
       </c>
       <c r="AE106" t="n">
         <v>-0.513</v>
       </c>
       <c r="AF106" t="n">
-        <v>-0.02</v>
+        <v>-0.019</v>
       </c>
       <c r="AG106" t="n">
-        <v>29.405</v>
+        <v>29.635</v>
       </c>
       <c r="AH106" t="n">
         <v>0.833</v>
@@ -38250,97 +38405,297 @@
         <v>0.007</v>
       </c>
       <c r="AJ106" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AK106" t="n">
-        <v>-0.011</v>
+        <v>-0.016</v>
       </c>
       <c r="AL106" t="n">
-        <v>-0.388</v>
+        <v>-0.399</v>
       </c>
       <c r="AM106" t="n">
         <v>0.002</v>
       </c>
       <c r="AN106" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="AO106" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AP106" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AQ106" t="n">
         <v>0.014</v>
-      </c>
-      <c r="AQ106" t="n">
-        <v>0.017</v>
       </c>
       <c r="AR106" t="n">
         <v>-0.026</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="AV106" t="n">
-        <v>-0.509</v>
+        <v>-0.51</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.13</v>
+        <v>0.236</v>
       </c>
       <c r="AX106" t="n">
         <v>-0.006</v>
       </c>
       <c r="AY106" t="n">
-        <v>0.025</v>
+        <v>0.031</v>
       </c>
       <c r="AZ106" t="n">
-        <v>0.408</v>
+        <v>0.283</v>
       </c>
       <c r="BA106" t="n">
-        <v>-0.031</v>
+        <v>0.01</v>
       </c>
       <c r="BB106" t="n">
-        <v>1.763</v>
+        <v>1.875</v>
       </c>
       <c r="BC106" t="n">
-        <v>0.043</v>
+        <v>0.052</v>
       </c>
       <c r="BD106" t="n">
-        <v>-0.124</v>
+        <v>0.91</v>
       </c>
       <c r="BE106" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="BF106" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="BG106" t="n">
         <v>-0.007</v>
       </c>
       <c r="BH106" t="n">
-        <v>0.01</v>
+        <v>0.017</v>
       </c>
       <c r="BI106" t="n">
         <v>0.006</v>
       </c>
       <c r="BJ106" t="n">
-        <v>0.497</v>
+        <v>0.642</v>
       </c>
       <c r="BK106" t="n">
-        <v>-0.03</v>
+        <v>-0.031</v>
       </c>
       <c r="BL106" t="n">
-        <v>0.897</v>
+        <v>0.814</v>
       </c>
       <c r="BM106" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="BN106" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="O107" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="S107" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="V107" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="X107" t="n">
+        <v>-0.153</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>-4.498</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>20.992</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>-0.179</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>-0.041</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>-3.823</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>0.017</v>
       </c>
     </row>
   </sheetData>
@@ -52662,13 +53017,13 @@
         <v>45383</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.83</v>
+        <v>-1.82</v>
       </c>
       <c r="C101" t="n">
         <v>0.02</v>
       </c>
       <c r="D101" t="n">
-        <v>0.11</v>
+        <v>-0.2</v>
       </c>
       <c r="E101" t="n">
         <v>0.01</v>
@@ -52680,34 +53035,34 @@
         <v>0.26</v>
       </c>
       <c r="H101" t="n">
-        <v>-2.82</v>
+        <v>-2.83</v>
       </c>
       <c r="I101" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.21</v>
+        <v>-0.12</v>
       </c>
       <c r="M101" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="P101" t="n">
         <v>0.03</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.88</v>
+        <v>0.48</v>
       </c>
       <c r="R101" t="n">
         <v>0.09</v>
@@ -52719,19 +53074,19 @@
         <v>0.22</v>
       </c>
       <c r="U101" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="V101" t="n">
-        <v>0.55</v>
+        <v>0.24</v>
       </c>
       <c r="W101" t="n">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="X101" t="n">
         <v>0.52</v>
       </c>
       <c r="Y101" t="n">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="Z101" t="n">
         <v>0</v>
@@ -52743,22 +53098,22 @@
         <v>0</v>
       </c>
       <c r="AC101" t="n">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="AD101" t="n">
         <v>0.03</v>
       </c>
       <c r="AE101" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AF101" t="n">
         <v>0.11</v>
       </c>
       <c r="AG101" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AH101" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="AI101" t="n">
         <v>0.02</v>
@@ -52770,7 +53125,7 @@
         <v>-0.3</v>
       </c>
       <c r="AL101" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="AM101" t="n">
         <v>-0.3</v>
@@ -52785,31 +53140,31 @@
         <v>0.29</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>3.46</v>
       </c>
       <c r="AT101" t="n">
-        <v>-5.63</v>
+        <v>-5.61</v>
       </c>
       <c r="AU101" t="n">
-        <v>-0.33</v>
+        <v>-0.25</v>
       </c>
       <c r="AV101" t="n">
         <v>-0.08</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AX101" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AY101" t="n">
-        <v>-2.57</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="102">
@@ -53437,16 +53792,16 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="C106" t="n">
         <v>-0.01</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.28</v>
+        <v>-0.26</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="F106" t="n">
         <v>0.06</v>
@@ -53458,34 +53813,34 @@
         <v>-4.72</v>
       </c>
       <c r="I106" t="n">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="L106" t="n">
-        <v>3.94</v>
+        <v>4.03</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="P106" t="n">
         <v>0.03</v>
       </c>
       <c r="Q106" t="n">
-        <v>-3.54</v>
+        <v>-3.25</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="S106" t="n">
         <v>-0.01</v>
@@ -53497,13 +53852,13 @@
         <v>-0.17</v>
       </c>
       <c r="V106" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="W106" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="X106" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="Y106" t="n">
         <v>-0.03</v>
@@ -53524,34 +53879,34 @@
         <v>0.05</v>
       </c>
       <c r="AE106" t="n">
-        <v>-2.07</v>
+        <v>-1.97</v>
       </c>
       <c r="AF106" t="n">
         <v>0.13</v>
       </c>
       <c r="AG106" t="n">
-        <v>-0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AH106" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AI106" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AJ106" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AK106" t="n">
         <v>0.01</v>
       </c>
       <c r="AL106" t="n">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="AM106" t="n">
         <v>0.56</v>
       </c>
       <c r="AN106" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO106" t="n">
         <v>-0.01</v>
@@ -53566,25 +53921,180 @@
         <v>-0.38</v>
       </c>
       <c r="AS106" t="n">
-        <v>-2.55</v>
+        <v>-2.1</v>
       </c>
       <c r="AT106" t="n">
-        <v>-4.7</v>
+        <v>-4.74</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AV106" t="n">
         <v>-0.11</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AX106" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AY106" t="n">
-        <v>-5.42</v>
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L107" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O107" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="U107" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="W107" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>-0.56</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>-1.85</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -6,9 +6,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Annual Export -Country" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Annual Export -Countries" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name=" Annual Export -Product" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Annual Import -Country" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Annual Import -Countries" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -16365,46 +16365,46 @@
         <v>0.04</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.19</v>
+        <v>-2.31</v>
       </c>
       <c r="E102" t="n">
         <v>0.01</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.18</v>
+        <v>-3.25</v>
       </c>
       <c r="H102" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="J102" t="n">
         <v>0.02</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.72</v>
+        <v>-0.74</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N102" t="n">
         <v>-0.02</v>
       </c>
       <c r="O102" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="P102" t="n">
         <v>-0.09</v>
       </c>
       <c r="Q102" t="n">
-        <v>-1.12</v>
+        <v>-1.13</v>
       </c>
       <c r="R102" t="n">
         <v>-0.06</v>
@@ -16419,7 +16419,7 @@
         <v>0.07</v>
       </c>
       <c r="V102" t="n">
-        <v>0.56</v>
+        <v>0.57</v>
       </c>
       <c r="W102" t="n">
         <v>-0.47</v>
@@ -16446,13 +16446,13 @@
         <v>0.86</v>
       </c>
       <c r="AE102" t="n">
-        <v>4.06</v>
+        <v>4.55</v>
       </c>
       <c r="AF102" t="n">
         <v>0.02</v>
       </c>
       <c r="AG102" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AH102" t="n">
         <v>-0.03</v>
@@ -16482,31 +16482,31 @@
         <v>-0.02</v>
       </c>
       <c r="AQ102" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="AR102" t="n">
         <v>-0.03</v>
       </c>
       <c r="AS102" t="n">
-        <v>9.65</v>
+        <v>9.49</v>
       </c>
       <c r="AT102" t="n">
-        <v>-1.97</v>
+        <v>-2.02</v>
       </c>
       <c r="AU102" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AV102" t="n">
         <v>-0.06</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AX102" t="n">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="AY102" t="n">
-        <v>8.54</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="103">
@@ -17134,13 +17134,13 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C107" t="n">
         <v>0.16</v>
       </c>
       <c r="D107" t="n">
-        <v>2.94</v>
+        <v>3.45</v>
       </c>
       <c r="E107" t="n">
         <v>-0.09</v>
@@ -17164,10 +17164,10 @@
         <v>-0.24</v>
       </c>
       <c r="L107" t="n">
-        <v>-2.06</v>
+        <v>-1.88</v>
       </c>
       <c r="M107" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         <v>0.02</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="R107" t="n">
         <v>0.11</v>
@@ -17194,7 +17194,7 @@
         <v>-0.04</v>
       </c>
       <c r="V107" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="W107" t="n">
         <v>-1.02</v>
@@ -17221,13 +17221,13 @@
         <v>0.48</v>
       </c>
       <c r="AE107" t="n">
-        <v>6.65</v>
+        <v>6.56</v>
       </c>
       <c r="AF107" t="n">
         <v>0.09</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AH107" t="n">
         <v>-0.46</v>
@@ -17242,7 +17242,7 @@
         <v>-0.01</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AM107" t="n">
         <v>0.1</v>
@@ -17263,25 +17263,180 @@
         <v>0.02</v>
       </c>
       <c r="AS107" t="n">
-        <v>11.52</v>
+        <v>11.51</v>
       </c>
       <c r="AT107" t="n">
         <v>1.41</v>
       </c>
       <c r="AU107" t="n">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="AV107" t="n">
         <v>0.18</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AX107" t="n">
         <v>1.52</v>
       </c>
       <c r="AY107" t="n">
-        <v>20.9</v>
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-5.53</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R108" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V108" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="W108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="X108" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>27.52</v>
       </c>
     </row>
   </sheetData>
@@ -37503,37 +37658,37 @@
         <v>45413</v>
       </c>
       <c r="B102" t="n">
-        <v>0.193</v>
+        <v>0.211</v>
       </c>
       <c r="C102" t="n">
-        <v>0.098</v>
+        <v>0.114</v>
       </c>
       <c r="D102" t="n">
-        <v>0.066</v>
+        <v>0.078</v>
       </c>
       <c r="E102" t="n">
-        <v>0.076</v>
+        <v>0.079</v>
       </c>
       <c r="F102" t="n">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="G102" t="n">
-        <v>0.071</v>
+        <v>0.075</v>
       </c>
       <c r="H102" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="J102" t="n">
-        <v>0.022</v>
+        <v>0.027</v>
       </c>
       <c r="K102" t="n">
-        <v>0.07</v>
+        <v>0.065</v>
       </c>
       <c r="L102" t="n">
-        <v>0.133</v>
+        <v>0.129</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -37548,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="R102" t="n">
         <v>0.012</v>
@@ -37557,19 +37712,19 @@
         <v>-0.014</v>
       </c>
       <c r="T102" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="U102" t="n">
-        <v>-0.032</v>
+        <v>-0.021</v>
       </c>
       <c r="V102" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="W102" t="n">
         <v>-0.006</v>
       </c>
       <c r="X102" t="n">
-        <v>0.17</v>
+        <v>0.171</v>
       </c>
       <c r="Y102" t="n">
         <v>-0.001</v>
@@ -37578,124 +37733,124 @@
         <v>-0.019</v>
       </c>
       <c r="AA102" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="AB102" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AC102" t="n">
         <v>-0.001</v>
       </c>
       <c r="AD102" t="n">
-        <v>-3.946</v>
+        <v>-4.07</v>
       </c>
       <c r="AE102" t="n">
-        <v>-2.197</v>
+        <v>-2.21</v>
       </c>
       <c r="AF102" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="AG102" t="n">
-        <v>8.276</v>
+        <v>8.61</v>
       </c>
       <c r="AH102" t="n">
-        <v>1.697</v>
+        <v>1.672</v>
       </c>
       <c r="AI102" t="n">
-        <v>0.009</v>
+        <v>0.006</v>
       </c>
       <c r="AJ102" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="AK102" t="n">
-        <v>-0.146</v>
+        <v>-0.153</v>
       </c>
       <c r="AL102" t="n">
-        <v>-0.289</v>
+        <v>-0.318</v>
       </c>
       <c r="AM102" t="n">
         <v>0.003</v>
       </c>
       <c r="AN102" t="n">
-        <v>-0.031</v>
+        <v>-0.028</v>
       </c>
       <c r="AO102" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>-0.108</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="BF102" t="n">
         <v>-0.011</v>
-      </c>
-      <c r="AP102" t="n">
-        <v>-0.005</v>
-      </c>
-      <c r="AQ102" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AR102" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="AS102" t="n">
-        <v>-0.019</v>
-      </c>
-      <c r="AT102" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="AU102" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="AV102" t="n">
-        <v>-0.005</v>
-      </c>
-      <c r="AW102" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="AX102" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="AY102" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="AZ102" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="BA102" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="BB102" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="BC102" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="BD102" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="BE102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BF102" t="n">
-        <v>-0.012</v>
       </c>
       <c r="BG102" t="n">
         <v>-0.004</v>
       </c>
       <c r="BH102" t="n">
-        <v>-0.04</v>
+        <v>-0.037</v>
       </c>
       <c r="BI102" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ102" t="n">
-        <v>0.411</v>
+        <v>0.399</v>
       </c>
       <c r="BK102" t="n">
-        <v>0.161</v>
+        <v>0.159</v>
       </c>
       <c r="BL102" t="n">
-        <v>0.699</v>
+        <v>0.706</v>
       </c>
       <c r="BM102" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="BN102" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="103">
@@ -38503,37 +38658,37 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>0.291</v>
+        <v>0.285</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212</v>
+        <v>0.213</v>
       </c>
       <c r="D107" t="n">
-        <v>0.801</v>
+        <v>0.808</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.033</v>
+        <v>-0.039</v>
       </c>
       <c r="F107" t="n">
         <v>0.073</v>
       </c>
       <c r="G107" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="H107" t="n">
         <v>0.021</v>
       </c>
       <c r="I107" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="J107" t="n">
         <v>0.044</v>
       </c>
       <c r="K107" t="n">
-        <v>0.247</v>
+        <v>0.245</v>
       </c>
       <c r="L107" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -38560,16 +38715,16 @@
         <v>0.005</v>
       </c>
       <c r="U107" t="n">
-        <v>0.18</v>
+        <v>0.083</v>
       </c>
       <c r="V107" t="n">
         <v>-0.001</v>
       </c>
       <c r="W107" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>-0.153</v>
+        <v>-0.154</v>
       </c>
       <c r="Y107" t="n">
         <v>-0.005</v>
@@ -38578,7 +38733,7 @@
         <v>0.01</v>
       </c>
       <c r="AA107" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="AB107" t="n">
         <v>-0.001</v>
@@ -38587,19 +38742,19 @@
         <v>0.001</v>
       </c>
       <c r="AD107" t="n">
-        <v>-4.498</v>
+        <v>-4.446</v>
       </c>
       <c r="AE107" t="n">
-        <v>-0.167</v>
+        <v>-0.172</v>
       </c>
       <c r="AF107" t="n">
         <v>0.03</v>
       </c>
       <c r="AG107" t="n">
-        <v>20.992</v>
+        <v>21.375</v>
       </c>
       <c r="AH107" t="n">
-        <v>1.076</v>
+        <v>1.075</v>
       </c>
       <c r="AI107" t="n">
         <v>0.006</v>
@@ -38608,94 +38763,294 @@
         <v>0.02</v>
       </c>
       <c r="AK107" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="AL107" t="n">
-        <v>-0.179</v>
+        <v>-0.147</v>
       </c>
       <c r="AM107" t="n">
         <v>0.002</v>
       </c>
       <c r="AN107" t="n">
-        <v>-0.027</v>
+        <v>-0.028</v>
       </c>
       <c r="AO107" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.18</v>
+        <v>0.183</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="AR107" t="n">
         <v>0.01</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.027</v>
+        <v>0.039</v>
       </c>
       <c r="AT107" t="n">
         <v>-0.041</v>
       </c>
       <c r="AU107" t="n">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="AV107" t="n">
-        <v>0.229</v>
+        <v>0.231</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.081</v>
+        <v>0.056</v>
       </c>
       <c r="AX107" t="n">
         <v>0.001</v>
       </c>
       <c r="AY107" t="n">
-        <v>0.306</v>
+        <v>0.299</v>
       </c>
       <c r="AZ107" t="n">
-        <v>0.472</v>
+        <v>0.658</v>
       </c>
       <c r="BA107" t="n">
-        <v>0.277</v>
+        <v>0.278</v>
       </c>
       <c r="BB107" t="n">
-        <v>2.471</v>
+        <v>2.49</v>
       </c>
       <c r="BC107" t="n">
-        <v>-0.01</v>
+        <v>-0.017</v>
       </c>
       <c r="BD107" t="n">
-        <v>-3.823</v>
+        <v>-3.825</v>
       </c>
       <c r="BE107" t="n">
-        <v>0.028</v>
+        <v>0.048</v>
       </c>
       <c r="BF107" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="BG107" t="n">
         <v>0.008</v>
       </c>
       <c r="BH107" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="BI107" t="n">
         <v>0.013</v>
       </c>
       <c r="BJ107" t="n">
-        <v>0.228</v>
+        <v>0.214</v>
       </c>
       <c r="BK107" t="n">
         <v>0.041</v>
       </c>
       <c r="BL107" t="n">
-        <v>1.018</v>
+        <v>1.016</v>
       </c>
       <c r="BM107" t="n">
         <v>0.017</v>
       </c>
       <c r="BN107" t="n">
         <v>0.017</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.201</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="S108" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="W108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="X108" t="n">
+        <v>-0.506</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>-3.497</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>-0.959</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>26.499</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0.567</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>-0.467</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>-0.072</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>-0.927</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>-0.042</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>0.008</v>
       </c>
     </row>
   </sheetData>
@@ -53178,7 +53533,7 @@
         <v>-0.01</v>
       </c>
       <c r="D102" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E102" t="n">
         <v>-0.01</v>
@@ -53190,10 +53545,10 @@
         <v>-0.01</v>
       </c>
       <c r="H102" t="n">
-        <v>-10.62</v>
+        <v>-10.61</v>
       </c>
       <c r="I102" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -53202,25 +53557,25 @@
         <v>-0.01</v>
       </c>
       <c r="L102" t="n">
-        <v>-2.23</v>
+        <v>-2.18</v>
       </c>
       <c r="M102" t="n">
         <v>-0.03</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.78</v>
+        <v>-0.76</v>
       </c>
       <c r="P102" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q102" t="n">
-        <v>-1.08</v>
+        <v>-1</v>
       </c>
       <c r="R102" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="S102" t="n">
         <v>-0.02</v>
@@ -53232,19 +53587,19 @@
         <v>0.02</v>
       </c>
       <c r="V102" t="n">
-        <v>0.14</v>
+        <v>-0.12</v>
       </c>
       <c r="W102" t="n">
         <v>-1.89</v>
       </c>
       <c r="X102" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="Y102" t="n">
         <v>-0.28</v>
       </c>
       <c r="Z102" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AA102" t="n">
         <v>-0.01</v>
@@ -53253,22 +53608,22 @@
         <v>0</v>
       </c>
       <c r="AC102" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AD102" t="n">
         <v>-0.1</v>
       </c>
       <c r="AE102" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="AF102" t="n">
         <v>-0.53</v>
       </c>
       <c r="AG102" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AH102" t="n">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="AI102" t="n">
         <v>-0.04</v>
@@ -53280,7 +53635,7 @@
         <v>-0.02</v>
       </c>
       <c r="AL102" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AM102" t="n">
         <v>-0.39</v>
@@ -53298,28 +53653,28 @@
         <v>0.05</v>
       </c>
       <c r="AR102" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="AS102" t="n">
         <v>3.44</v>
       </c>
       <c r="AT102" t="n">
-        <v>-0.12</v>
+        <v>-0.27</v>
       </c>
       <c r="AU102" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AV102" t="n">
         <v>-0.2</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AX102" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AY102" t="n">
-        <v>-10.26</v>
+        <v>-10.37</v>
       </c>
     </row>
     <row r="103">
@@ -53947,13 +54302,13 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C107" t="n">
         <v>-0.06</v>
       </c>
       <c r="D107" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="E107" t="n">
         <v>0.01</v>
@@ -53968,34 +54323,34 @@
         <v>-4.29</v>
       </c>
       <c r="I107" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L107" t="n">
-        <v>6.68</v>
+        <v>6.73</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
       <c r="P107" t="n">
         <v>0.01</v>
       </c>
       <c r="Q107" t="n">
-        <v>-7.58</v>
+        <v>-7.35</v>
       </c>
       <c r="R107" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="S107" t="n">
         <v>0.01</v>
@@ -54007,10 +54362,10 @@
         <v>-0.19</v>
       </c>
       <c r="V107" t="n">
-        <v>0.52</v>
+        <v>0.12</v>
       </c>
       <c r="W107" t="n">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -54034,7 +54389,7 @@
         <v>0.08</v>
       </c>
       <c r="AE107" t="n">
-        <v>-0.75</v>
+        <v>-0.74</v>
       </c>
       <c r="AF107" t="n">
         <v>-0.56</v>
@@ -54043,7 +54398,7 @@
         <v>0.27</v>
       </c>
       <c r="AH107" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AI107" t="n">
         <v>-0.04</v>
@@ -54055,16 +54410,16 @@
         <v>0.01</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="AM107" t="n">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="AN107" t="n">
         <v>-0.01</v>
       </c>
       <c r="AO107" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AP107" t="n">
         <v>0.14</v>
@@ -54076,25 +54431,180 @@
         <v>0.1</v>
       </c>
       <c r="AS107" t="n">
-        <v>-1.34</v>
+        <v>-1.3</v>
       </c>
       <c r="AT107" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X108" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="AV108" t="n">
         <v>-0.04</v>
       </c>
-      <c r="AU107" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AW107" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="AX107" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AY107" t="n">
-        <v>-1.85</v>
+      <c r="AW108" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>-18.48</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -16520,7 +16520,7 @@
         <v>0.06</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.47</v>
+        <v>-1.53</v>
       </c>
       <c r="E103" t="n">
         <v>0.02</v>
@@ -16532,7 +16532,7 @@
         <v>-0.69</v>
       </c>
       <c r="H103" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="I103" t="n">
         <v>1.15</v>
@@ -16544,7 +16544,7 @@
         <v>-0.03</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.81</v>
+        <v>-0.8</v>
       </c>
       <c r="M103" t="n">
         <v>-0.04</v>
@@ -16553,13 +16553,13 @@
         <v>-0.01</v>
       </c>
       <c r="O103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P103" t="n">
         <v>-0.03</v>
       </c>
-      <c r="P103" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Q103" t="n">
-        <v>-2.06</v>
+        <v>-2.02</v>
       </c>
       <c r="R103" t="n">
         <v>-0.09</v>
@@ -16568,10 +16568,10 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="U103" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="V103" t="n">
         <v>0.17</v>
@@ -16583,7 +16583,7 @@
         <v>-0.14</v>
       </c>
       <c r="Y103" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="Z103" t="n">
         <v>-0.01</v>
@@ -16592,16 +16592,16 @@
         <v>-0.03</v>
       </c>
       <c r="AB103" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AC103" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AD103" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AE103" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AF103" t="n">
         <v>0.02</v>
@@ -16610,7 +16610,7 @@
         <v>-0.04</v>
       </c>
       <c r="AH103" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AI103" t="n">
         <v>-0.09</v>
@@ -16622,7 +16622,7 @@
         <v>0.01</v>
       </c>
       <c r="AL103" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="AM103" t="n">
         <v>0.01</v>
@@ -16643,25 +16643,25 @@
         <v>-0.04</v>
       </c>
       <c r="AS103" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="AT103" t="n">
-        <v>-6.65</v>
+        <v>-6.68</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AV103" t="n">
-        <v>-0.07</v>
+        <v>-0.08</v>
       </c>
       <c r="AW103" t="n">
         <v>0.01</v>
       </c>
       <c r="AX103" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AY103" t="n">
-        <v>-8.71</v>
+        <v>-8.94</v>
       </c>
     </row>
     <row r="104">
@@ -16672,22 +16672,22 @@
         <v>-0.12</v>
       </c>
       <c r="C104" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D104" t="n">
-        <v>-5.04</v>
+        <v>-5.03</v>
       </c>
       <c r="E104" t="n">
         <v>0.01</v>
       </c>
       <c r="F104" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="H104" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I104" t="n">
         <v>0.52</v>
@@ -16699,25 +16699,25 @@
         <v>-0.21</v>
       </c>
       <c r="L104" t="n">
-        <v>4.62</v>
+        <v>4.67</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N104" t="n">
         <v>-0.01</v>
       </c>
       <c r="O104" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="P104" t="n">
         <v>-0.03</v>
       </c>
       <c r="Q104" t="n">
-        <v>-0.99</v>
+        <v>-1</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="S104" t="n">
         <v>0.22</v>
@@ -16729,13 +16729,13 @@
         <v>-0.03</v>
       </c>
       <c r="V104" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="W104" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="X104" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="Y104" t="n">
         <v>-0.02</v>
@@ -16750,34 +16750,34 @@
         <v>0</v>
       </c>
       <c r="AC104" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="AD104" t="n">
         <v>0.44</v>
       </c>
       <c r="AE104" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="AF104" t="n">
         <v>0.04</v>
       </c>
       <c r="AG104" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="AH104" t="n">
         <v>1.67</v>
       </c>
       <c r="AI104" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="AJ104" t="n">
         <v>0.2</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="AL104" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AM104" t="n">
         <v>0.04</v>
@@ -16786,7 +16786,7 @@
         <v>0.05</v>
       </c>
       <c r="AO104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AP104" t="n">
         <v>0.04</v>
@@ -16798,25 +16798,25 @@
         <v>-0.03</v>
       </c>
       <c r="AS104" t="n">
-        <v>7.26</v>
+        <v>7.98</v>
       </c>
       <c r="AT104" t="n">
-        <v>-3.31</v>
+        <v>-3.36</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AV104" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AW104" t="n">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="AX104" t="n">
-        <v>0.62</v>
+        <v>1.53</v>
       </c>
       <c r="AY104" t="n">
-        <v>14.58</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="105">
@@ -16824,10 +16824,10 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="C105" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D105" t="n">
         <v>-2.52</v>
@@ -16836,16 +16836,16 @@
         <v>-0.01</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="G105" t="n">
         <v>-1.2</v>
       </c>
       <c r="H105" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="I105" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="J105" t="n">
         <v>0.01</v>
@@ -16857,13 +16857,13 @@
         <v>1.84</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="P105" t="n">
         <v>-0.06</v>
@@ -16881,19 +16881,19 @@
         <v>0.1</v>
       </c>
       <c r="U105" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="V105" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="W105" t="n">
-        <v>-1.12</v>
+        <v>-0.78</v>
       </c>
       <c r="X105" t="n">
         <v>0.03</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z105" t="n">
         <v>0</v>
@@ -16905,22 +16905,22 @@
         <v>0</v>
       </c>
       <c r="AC105" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AD105" t="n">
         <v>0.5</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="AF105" t="n">
         <v>-0.05</v>
       </c>
       <c r="AG105" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="AH105" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="AI105" t="n">
         <v>0.01</v>
@@ -16929,49 +16929,49 @@
         <v>0.18</v>
       </c>
       <c r="AK105" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AM105" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AN105" t="n">
         <v>0.02</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AP105" t="n">
         <v>0.12</v>
       </c>
       <c r="AQ105" t="n">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="AR105" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="AS105" t="n">
-        <v>9.56</v>
+        <v>9.52</v>
       </c>
       <c r="AT105" t="n">
-        <v>-0.46</v>
+        <v>-0.55</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="AV105" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="AW105" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AX105" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.44</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="106">
@@ -16982,25 +16982,25 @@
         <v>0.08</v>
       </c>
       <c r="C106" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="D106" t="n">
         <v>5.12</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G106" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -17009,7 +17009,7 @@
         <v>-0.4</v>
       </c>
       <c r="L106" t="n">
-        <v>0.89</v>
+        <v>0.1</v>
       </c>
       <c r="M106" t="n">
         <v>-0.04</v>
@@ -17018,13 +17018,13 @@
         <v>-0.01</v>
       </c>
       <c r="O106" t="n">
-        <v>8.91</v>
+        <v>8.56</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.32</v>
+        <v>-1.09</v>
       </c>
       <c r="R106" t="n">
         <v>-0.1</v>
@@ -17036,16 +17036,16 @@
         <v>0.03</v>
       </c>
       <c r="U106" t="n">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="V106" t="n">
-        <v>1.84</v>
+        <v>1.5</v>
       </c>
       <c r="W106" t="n">
-        <v>-0.18</v>
+        <v>0.14</v>
       </c>
       <c r="X106" t="n">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="Y106" t="n">
         <v>-0.03</v>
@@ -17060,13 +17060,13 @@
         <v>0</v>
       </c>
       <c r="AC106" t="n">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AE106" t="n">
-        <v>5.72</v>
+        <v>5.23</v>
       </c>
       <c r="AF106" t="n">
         <v>0</v>
@@ -17075,7 +17075,7 @@
         <v>-0.07</v>
       </c>
       <c r="AH106" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="AI106" t="n">
         <v>0.04</v>
@@ -17084,13 +17084,13 @@
         <v>0.16</v>
       </c>
       <c r="AK106" t="n">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="AL106" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="AM106" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="AN106" t="n">
         <v>0</v>
@@ -17102,31 +17102,31 @@
         <v>-0.04</v>
       </c>
       <c r="AQ106" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AR106" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AS106" t="n">
-        <v>17.12</v>
+        <v>18.71</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.27</v>
+        <v>-0.12</v>
       </c>
       <c r="AU106" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AV106" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="AX106" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="AY106" t="n">
-        <v>41.83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
@@ -17295,7 +17295,7 @@
         <v>-0.02</v>
       </c>
       <c r="D108" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="E108" t="n">
         <v>-0.02</v>
@@ -17316,43 +17316,43 @@
         <v>-0.01</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.25</v>
+        <v>-0.23</v>
       </c>
       <c r="L108" t="n">
-        <v>-5.53</v>
+        <v>-4.89</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="N108" t="n">
         <v>-0.01</v>
       </c>
       <c r="O108" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="P108" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.1</v>
+        <v>0.83</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.04</v>
+        <v>-0.07</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T108" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="U108" t="n">
         <v>0.09</v>
       </c>
       <c r="V108" t="n">
-        <v>-0.9</v>
+        <v>-0.43</v>
       </c>
       <c r="W108" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="X108" t="n">
         <v>1.15</v>
@@ -17376,19 +17376,19 @@
         <v>0.1</v>
       </c>
       <c r="AE108" t="n">
-        <v>4.97</v>
+        <v>5.58</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
       </c>
       <c r="AG108" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AH108" t="n">
         <v>1.9</v>
       </c>
       <c r="AI108" t="n">
-        <v>-0.07</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ108" t="n">
         <v>0.19</v>
@@ -17397,7 +17397,7 @@
         <v>-0.11</v>
       </c>
       <c r="AL108" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="AM108" t="n">
         <v>0.11</v>
@@ -17406,7 +17406,7 @@
         <v>-0.04</v>
       </c>
       <c r="AO108" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AP108" t="n">
         <v>-0.01</v>
@@ -17418,25 +17418,645 @@
         <v>-0.1</v>
       </c>
       <c r="AS108" t="n">
-        <v>25.54</v>
+        <v>25.77</v>
       </c>
       <c r="AT108" t="n">
         <v>-2.37</v>
       </c>
       <c r="AU108" t="n">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
       <c r="AV108" t="n">
         <v>0.03</v>
       </c>
       <c r="AW108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>31.34</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G109" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="R109" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S109" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U109" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W109" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AI109" t="n">
         <v>0.07</v>
       </c>
-      <c r="AX108" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AY108" t="n">
-        <v>27.52</v>
+      <c r="AJ109" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-3.31</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="W110" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>58.24</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R112" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="S112" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W112" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>105.68</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>94.31</v>
       </c>
     </row>
   </sheetData>
@@ -37858,37 +38478,37 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.104</v>
+        <v>-0.099</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.161</v>
+        <v>-0.155</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.209</v>
+        <v>-0.219</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.031</v>
+        <v>-0.029</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.028</v>
+        <v>-0.026</v>
       </c>
       <c r="G103" t="n">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="H103" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I103" t="n">
         <v>0.005</v>
       </c>
-      <c r="I103" t="n">
-        <v>0.01</v>
-      </c>
       <c r="J103" t="n">
-        <v>-0.028</v>
+        <v>-0.024</v>
       </c>
       <c r="K103" t="n">
         <v>-0.029</v>
       </c>
       <c r="L103" t="n">
-        <v>0.14</v>
+        <v>0.142</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -37903,7 +38523,7 @@
         <v>0.001</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.016</v>
+        <v>-0.014</v>
       </c>
       <c r="R103" t="n">
         <v>0.006</v>
@@ -37912,13 +38532,13 @@
         <v>-0.009</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="U103" t="n">
-        <v>0.147</v>
+        <v>0.079</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.014</v>
+        <v>-0.013</v>
       </c>
       <c r="W103" t="n">
         <v>-0.007</v>
@@ -37942,115 +38562,115 @@
         <v>-0.001</v>
       </c>
       <c r="AD103" t="n">
-        <v>-5.135</v>
+        <v>-5.157</v>
       </c>
       <c r="AE103" t="n">
-        <v>-0.685</v>
+        <v>-0.706</v>
       </c>
       <c r="AF103" t="n">
-        <v>-0.003</v>
+        <v>-0.01</v>
       </c>
       <c r="AG103" t="n">
-        <v>-1.949</v>
+        <v>-1.935</v>
       </c>
       <c r="AH103" t="n">
-        <v>-0.401</v>
+        <v>-0.419</v>
       </c>
       <c r="AI103" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="AJ103" t="n">
-        <v>-0.044</v>
+        <v>-0.043</v>
       </c>
       <c r="AK103" t="n">
-        <v>-0.112</v>
+        <v>-0.118</v>
       </c>
       <c r="AL103" t="n">
-        <v>-0.558</v>
+        <v>-0.581</v>
       </c>
       <c r="AM103" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AN103" t="n">
-        <v>-0.014</v>
+        <v>-0.013</v>
       </c>
       <c r="AO103" t="n">
-        <v>-0.021</v>
+        <v>-0.023</v>
       </c>
       <c r="AP103" t="n">
         <v>-0.023</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AR103" t="n">
-        <v>-0.033</v>
+        <v>-0.032</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="AT103" t="n">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="AV103" t="n">
-        <v>-0.359</v>
+        <v>-0.361</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.4</v>
+        <v>0.392</v>
       </c>
       <c r="AX103" t="n">
         <v>-0.005</v>
       </c>
       <c r="AY103" t="n">
-        <v>-0.192</v>
+        <v>-0.247</v>
       </c>
       <c r="AZ103" t="n">
         <v>-0.109</v>
       </c>
       <c r="BA103" t="n">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="BB103" t="n">
-        <v>1.948</v>
+        <v>1.962</v>
       </c>
       <c r="BC103" t="n">
-        <v>-0.084</v>
+        <v>-0.078</v>
       </c>
       <c r="BD103" t="n">
         <v>-0.214</v>
       </c>
       <c r="BE103" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="BF103" t="n">
-        <v>-0.009</v>
+        <v>-0.011</v>
       </c>
       <c r="BG103" t="n">
         <v>-0.004</v>
       </c>
       <c r="BH103" t="n">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="BI103" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="BJ103" t="n">
-        <v>-0.119</v>
+        <v>-0.139</v>
       </c>
       <c r="BK103" t="n">
         <v>-0.2</v>
       </c>
       <c r="BL103" t="n">
-        <v>-0.125</v>
+        <v>-0.133</v>
       </c>
       <c r="BM103" t="n">
-        <v>-0.263</v>
+        <v>-0.266</v>
       </c>
       <c r="BN103" t="n">
-        <v>-0.263</v>
+        <v>-0.266</v>
       </c>
     </row>
     <row r="104">
@@ -38058,37 +38678,37 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>0.093</v>
+        <v>0.077</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106</v>
+        <v>0.122</v>
       </c>
       <c r="D104" t="n">
-        <v>0.276</v>
+        <v>0.253</v>
       </c>
       <c r="E104" t="n">
-        <v>0.122</v>
+        <v>0.12</v>
       </c>
       <c r="F104" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="G104" t="n">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="H104" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I104" t="n">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
       <c r="J104" t="n">
         <v>0.006</v>
       </c>
       <c r="K104" t="n">
-        <v>0.125</v>
+        <v>0.133</v>
       </c>
       <c r="L104" t="n">
-        <v>0.326</v>
+        <v>0.319</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -38097,34 +38717,34 @@
         <v>-0.001</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.078</v>
+        <v>0.08</v>
       </c>
       <c r="R104" t="n">
         <v>0.01</v>
       </c>
       <c r="S104" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="T104" t="n">
         <v>0.014</v>
       </c>
       <c r="U104" t="n">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="V104" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="W104" t="n">
         <v>-0.002</v>
       </c>
       <c r="X104" t="n">
-        <v>-0.079</v>
+        <v>-0.078</v>
       </c>
       <c r="Y104" t="n">
         <v>-0.003</v>
@@ -38133,46 +38753,46 @@
         <v>-0.022</v>
       </c>
       <c r="AA104" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="AB104" t="n">
         <v>0.004</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AD104" t="n">
-        <v>3.888</v>
+        <v>3.856</v>
       </c>
       <c r="AE104" t="n">
-        <v>1.719</v>
+        <v>1.715</v>
       </c>
       <c r="AF104" t="n">
-        <v>-0.01</v>
+        <v>-0.012</v>
       </c>
       <c r="AG104" t="n">
-        <v>0.774</v>
+        <v>0.818</v>
       </c>
       <c r="AH104" t="n">
-        <v>1.337</v>
+        <v>1.323</v>
       </c>
       <c r="AI104" t="n">
-        <v>0.009</v>
+        <v>0.012</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="AK104" t="n">
-        <v>0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AL104" t="n">
-        <v>-0.309</v>
+        <v>-0.32</v>
       </c>
       <c r="AM104" t="n">
         <v>0.004</v>
       </c>
       <c r="AN104" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="AO104" t="n">
         <v>-0.004</v>
@@ -38181,76 +38801,76 @@
         <v>0.01</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.039</v>
+        <v>0.03</v>
       </c>
       <c r="AR104" t="n">
-        <v>0.041</v>
+        <v>0.052</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.072</v>
+        <v>0.071</v>
       </c>
       <c r="AV104" t="n">
-        <v>-0.113</v>
+        <v>-0.126</v>
       </c>
       <c r="AW104" t="n">
-        <v>-0.048</v>
+        <v>-0.046</v>
       </c>
       <c r="AX104" t="n">
         <v>-0.002</v>
       </c>
       <c r="AY104" t="n">
-        <v>0.157</v>
+        <v>0.1</v>
       </c>
       <c r="AZ104" t="n">
-        <v>1.213</v>
+        <v>1.266</v>
       </c>
       <c r="BA104" t="n">
-        <v>0.214</v>
+        <v>0.169</v>
       </c>
       <c r="BB104" t="n">
-        <v>2.445</v>
+        <v>2.424</v>
       </c>
       <c r="BC104" t="n">
-        <v>-0.052</v>
+        <v>-0.059</v>
       </c>
       <c r="BD104" t="n">
-        <v>-0.119</v>
+        <v>-0.117</v>
       </c>
       <c r="BE104" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="BF104" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="BG104" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="BH104" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="BI104" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="BJ104" t="n">
-        <v>0.984</v>
+        <v>1.776</v>
       </c>
       <c r="BK104" t="n">
         <v>-0.051</v>
       </c>
       <c r="BL104" t="n">
-        <v>0.907</v>
+        <v>0.887</v>
       </c>
       <c r="BM104" t="n">
-        <v>0.017</v>
+        <v>0.959</v>
       </c>
       <c r="BN104" t="n">
-        <v>0.017</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="105">
@@ -38258,43 +38878,43 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>0.053</v>
+        <v>0.069</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.034</v>
+        <v>-0.028</v>
       </c>
       <c r="D105" t="n">
-        <v>0.046</v>
+        <v>0.004</v>
       </c>
       <c r="E105" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="F105" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="H105" t="n">
         <v>0.032</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="J105" t="n">
         <v>-0.018</v>
       </c>
       <c r="K105" t="n">
-        <v>0.193</v>
+        <v>0.195</v>
       </c>
       <c r="L105" t="n">
-        <v>0.315</v>
+        <v>0.292</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="O105" t="n">
         <v>-0.033</v>
@@ -38303,7 +38923,7 @@
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="R105" t="n">
         <v>0.012</v>
@@ -38312,145 +38932,145 @@
         <v>-0.006</v>
       </c>
       <c r="T105" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="U105" t="n">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="V105" t="n">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
       <c r="W105" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="X105" t="n">
         <v>-0.046</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="Z105" t="n">
         <v>-0.015</v>
       </c>
       <c r="AA105" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="AB105" t="n">
         <v>0.004</v>
       </c>
       <c r="AC105" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>-1.101</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>8.409</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>-0.093</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>-0.269</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>2.456</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH105" t="n">
         <v>-0.012</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>-0.993</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>-1.179</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>1.081</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>-0.155</v>
-      </c>
-      <c r="AM105" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>-0.011</v>
-      </c>
-      <c r="AO105" t="n">
-        <v>-0.035</v>
-      </c>
-      <c r="AP105" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="AQ105" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="AR105" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="AS105" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="AT105" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="AU105" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="AV105" t="n">
-        <v>-0.226</v>
-      </c>
-      <c r="AW105" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="AX105" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="AY105" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="AZ105" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="BA105" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="BB105" t="n">
-        <v>2.471</v>
-      </c>
-      <c r="BC105" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="BD105" t="n">
-        <v>-3.451</v>
-      </c>
-      <c r="BE105" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="BF105" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="BG105" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="BH105" t="n">
-        <v>-0.019</v>
       </c>
       <c r="BI105" t="n">
         <v>0.009</v>
       </c>
       <c r="BJ105" t="n">
-        <v>0.86</v>
+        <v>0.805</v>
       </c>
       <c r="BK105" t="n">
         <v>-0.07</v>
       </c>
       <c r="BL105" t="n">
-        <v>-0.208</v>
+        <v>-0.24</v>
       </c>
       <c r="BM105" t="n">
-        <v>-0.327</v>
+        <v>-0.328</v>
       </c>
       <c r="BN105" t="n">
-        <v>-0.327</v>
+        <v>-0.328</v>
       </c>
     </row>
     <row r="106">
@@ -38458,43 +39078,43 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.307</v>
+        <v>-0.356</v>
       </c>
       <c r="C106" t="n">
-        <v>0.127</v>
+        <v>0.105</v>
       </c>
       <c r="D106" t="n">
-        <v>0.322</v>
+        <v>0.218</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.025</v>
+        <v>-0.031</v>
       </c>
       <c r="F106" t="n">
-        <v>0.073</v>
+        <v>0.069</v>
       </c>
       <c r="G106" t="n">
-        <v>0.062</v>
+        <v>0.065</v>
       </c>
       <c r="H106" t="n">
-        <v>0.009</v>
+        <v>0.005</v>
       </c>
       <c r="I106" t="n">
-        <v>0.09</v>
+        <v>0.082</v>
       </c>
       <c r="J106" t="n">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="K106" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="L106" t="n">
-        <v>0.345</v>
+        <v>0.006</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="O106" t="n">
         <v>-0.009</v>
@@ -38503,7 +39123,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="R106" t="n">
         <v>0.006</v>
@@ -38512,145 +39132,145 @@
         <v>-0.012</v>
       </c>
       <c r="T106" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="U106" t="n">
-        <v>0.271</v>
+        <v>0.255</v>
       </c>
       <c r="V106" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="W106" t="n">
         <v>-0.003</v>
       </c>
       <c r="X106" t="n">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="Y106" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="Z106" t="n">
         <v>-0.006</v>
       </c>
       <c r="AA106" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>6.191</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>-0.515</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>29.192</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="AI106" t="n">
         <v>0.006</v>
       </c>
-      <c r="AB106" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>6.595</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>-0.513</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>-0.019</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>29.635</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>0.007</v>
-      </c>
       <c r="AJ106" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AK106" t="n">
-        <v>-0.016</v>
+        <v>-0.049</v>
       </c>
       <c r="AL106" t="n">
-        <v>-0.399</v>
+        <v>-0.478</v>
       </c>
       <c r="AM106" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AN106" t="n">
-        <v>-0.012</v>
+        <v>-0.034</v>
       </c>
       <c r="AO106" t="n">
-        <v>0.003</v>
+        <v>0.009</v>
       </c>
       <c r="AP106" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="AR106" t="n">
         <v>-0.026</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AT106" t="n">
         <v>0.011</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.024</v>
+        <v>0.011</v>
       </c>
       <c r="AV106" t="n">
-        <v>-0.51</v>
+        <v>-0.533</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.236</v>
+        <v>0.227</v>
       </c>
       <c r="AX106" t="n">
         <v>-0.006</v>
       </c>
       <c r="AY106" t="n">
-        <v>0.031</v>
+        <v>-0.043</v>
       </c>
       <c r="AZ106" t="n">
-        <v>0.283</v>
+        <v>0.249</v>
       </c>
       <c r="BA106" t="n">
-        <v>0.01</v>
+        <v>-0.006</v>
       </c>
       <c r="BB106" t="n">
-        <v>1.875</v>
+        <v>1.813</v>
       </c>
       <c r="BC106" t="n">
-        <v>0.052</v>
+        <v>0.058</v>
       </c>
       <c r="BD106" t="n">
-        <v>0.91</v>
+        <v>1.343</v>
       </c>
       <c r="BE106" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="BF106" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="BG106" t="n">
         <v>-0.007</v>
       </c>
       <c r="BH106" t="n">
-        <v>0.017</v>
+        <v>0.009</v>
       </c>
       <c r="BI106" t="n">
         <v>0.006</v>
       </c>
       <c r="BJ106" t="n">
-        <v>0.642</v>
+        <v>0.563</v>
       </c>
       <c r="BK106" t="n">
-        <v>-0.031</v>
+        <v>-0.046</v>
       </c>
       <c r="BL106" t="n">
-        <v>0.814</v>
+        <v>0.647</v>
       </c>
       <c r="BM106" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
       <c r="BN106" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="107">
@@ -38858,37 +39478,37 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.063</v>
+        <v>-0.049</v>
       </c>
       <c r="C108" t="n">
-        <v>0.161</v>
+        <v>0.169</v>
       </c>
       <c r="D108" t="n">
-        <v>0.637</v>
+        <v>0.634</v>
       </c>
       <c r="E108" t="n">
-        <v>0.022</v>
+        <v>0.031</v>
       </c>
       <c r="F108" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="G108" t="n">
-        <v>0.054</v>
+        <v>0.065</v>
       </c>
       <c r="H108" t="n">
         <v>-0.004</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.013</v>
+        <v>-0.01</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.201</v>
+        <v>-0.196</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.003</v>
+        <v>0.011</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -38903,28 +39523,28 @@
         <v>0.001</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="R108" t="n">
         <v>0.004</v>
       </c>
       <c r="S108" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="T108" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="U108" t="n">
-        <v>0.493</v>
+        <v>0.52</v>
       </c>
       <c r="V108" t="n">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
       <c r="W108" t="n">
-        <v>-0.01</v>
+        <v>-0.008</v>
       </c>
       <c r="X108" t="n">
-        <v>-0.506</v>
+        <v>-0.504</v>
       </c>
       <c r="Y108" t="n">
         <v>-0.001</v>
@@ -38936,121 +39556,921 @@
         <v>0.02</v>
       </c>
       <c r="AB108" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AC108" t="n">
         <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>-3.497</v>
+        <v>-3.418</v>
       </c>
       <c r="AE108" t="n">
-        <v>-0.959</v>
+        <v>-0.927</v>
       </c>
       <c r="AF108" t="n">
         <v>-0.005</v>
       </c>
       <c r="AG108" t="n">
-        <v>26.499</v>
+        <v>27.078</v>
       </c>
       <c r="AH108" t="n">
-        <v>0.567</v>
+        <v>0.58</v>
       </c>
       <c r="AI108" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0.044</v>
+        <v>0.05</v>
       </c>
       <c r="AK108" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="AL108" t="n">
-        <v>-0.467</v>
+        <v>-0.459</v>
       </c>
       <c r="AM108" t="n">
         <v>0.001</v>
       </c>
       <c r="AN108" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="AO108" t="n">
-        <v>-0.012</v>
+        <v>-0.011</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="AR108" t="n">
-        <v>-0.029</v>
+        <v>-0.03</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="AT108" t="n">
         <v>-0.06</v>
       </c>
       <c r="AU108" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.149</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O109" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S109" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="W109" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>-1.337</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>2.981</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>3.624</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>-0.355</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>1.463</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>2.149</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.626</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="O110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="P110" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="V110" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="W110" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>-4.824</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>39.082</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AN110" t="n">
         <v>0.017</v>
       </c>
-      <c r="AV108" t="n">
-        <v>-0.072</v>
-      </c>
-      <c r="AW108" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="AX108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY108" t="n">
+      <c r="AO110" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>-0.087</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>-0.247</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>-0.128</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>1.606</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>-1.253</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>-0.459</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>-0.186</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S111" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>-5.521</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>-1.053</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>61.495</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>-0.037</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>-1.555</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>-0.149</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>-0.064</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S112" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V112" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="X112" t="n">
+        <v>-0.195</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>8.379</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>-1.378</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>87.085</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0.559</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AS112" t="n">
         <v>0.013</v>
       </c>
-      <c r="AZ108" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BA108" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="BB108" t="n">
-        <v>2.523</v>
-      </c>
-      <c r="BC108" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="BD108" t="n">
-        <v>-0.927</v>
-      </c>
-      <c r="BE108" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="BF108" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="BG108" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="BH108" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="BI108" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="BJ108" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="BK108" t="n">
-        <v>-0.042</v>
-      </c>
-      <c r="BL108" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="BM108" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="BN108" t="n">
-        <v>0.008</v>
+      <c r="AT112" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>-4.867</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>-0.177</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>-0.008</v>
       </c>
     </row>
   </sheetData>
@@ -53688,7 +55108,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="E103" t="n">
         <v>-0.01</v>
@@ -53703,7 +55123,7 @@
         <v>-4.3</v>
       </c>
       <c r="I103" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -53712,7 +55132,7 @@
         <v>-0.05</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.47</v>
+        <v>-0.38</v>
       </c>
       <c r="M103" t="n">
         <v>-0.15</v>
@@ -53721,19 +55141,19 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="P103" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q103" t="n">
-        <v>-4.73</v>
+        <v>-3.75</v>
       </c>
       <c r="R103" t="n">
         <v>-0.08</v>
       </c>
       <c r="S103" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="T103" t="n">
         <v>-0.02</v>
@@ -53742,13 +55162,13 @@
         <v>0.02</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="W103" t="n">
         <v>-0.9</v>
       </c>
       <c r="X103" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="Y103" t="n">
         <v>0</v>
@@ -53760,25 +55180,25 @@
         <v>-0.02</v>
       </c>
       <c r="AB103" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AC103" t="n">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="AD103" t="n">
         <v>0.04</v>
       </c>
       <c r="AE103" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AF103" t="n">
         <v>-0.03</v>
       </c>
       <c r="AG103" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AH103" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AI103" t="n">
         <v>0.03</v>
@@ -53814,22 +55234,22 @@
         <v>0.13</v>
       </c>
       <c r="AT103" t="n">
-        <v>-1.73</v>
+        <v>-2.43</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="AV103" t="n">
         <v>-0.08</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AX103" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="AY103" t="n">
-        <v>-7.14</v>
+        <v>-6.89</v>
       </c>
     </row>
     <row r="104">
@@ -53837,13 +55257,13 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D104" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E104" t="n">
         <v>0.05</v>
@@ -53855,10 +55275,10 @@
         <v>0.46</v>
       </c>
       <c r="H104" t="n">
-        <v>-7.04</v>
+        <v>-7.05</v>
       </c>
       <c r="I104" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="J104" t="n">
         <v>0.01</v>
@@ -53867,7 +55287,7 @@
         <v>0.15</v>
       </c>
       <c r="L104" t="n">
-        <v>3.08</v>
+        <v>3.31</v>
       </c>
       <c r="M104" t="n">
         <v>0.08</v>
@@ -53876,37 +55296,37 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="R104" t="n">
         <v>0.03</v>
       </c>
-      <c r="P104" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>-4.49</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.04</v>
-      </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="U104" t="n">
         <v>-0.02</v>
       </c>
       <c r="V104" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="W104" t="n">
         <v>0.11</v>
       </c>
       <c r="X104" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Z104" t="n">
         <v>-0.01</v>
@@ -53924,7 +55344,7 @@
         <v>-0.06</v>
       </c>
       <c r="AE104" t="n">
-        <v>1.77</v>
+        <v>1.38</v>
       </c>
       <c r="AF104" t="n">
         <v>-0.09</v>
@@ -53933,13 +55353,13 @@
         <v>0.15</v>
       </c>
       <c r="AH104" t="n">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="AI104" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AK104" t="n">
         <v>0.04</v>
@@ -53960,31 +55380,31 @@
         <v>0.22</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="AR104" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AS104" t="n">
-        <v>5.05</v>
+        <v>8.64</v>
       </c>
       <c r="AT104" t="n">
-        <v>-2.32</v>
+        <v>-3.64</v>
       </c>
       <c r="AU104" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AV104" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AW104" t="n">
-        <v>0.03</v>
+        <v>-0.12</v>
       </c>
       <c r="AX104" t="n">
         <v>3.09</v>
       </c>
       <c r="AY104" t="n">
-        <v>4.67</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="105">
@@ -53998,31 +55418,31 @@
         <v>-0.01</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.48</v>
+        <v>-0.49</v>
       </c>
       <c r="E105" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F105" t="n">
         <v>-0.12</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="H105" t="n">
-        <v>-3.29</v>
+        <v>-3.28</v>
       </c>
       <c r="I105" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="L105" t="n">
-        <v>8.24</v>
+        <v>8.3</v>
       </c>
       <c r="M105" t="n">
         <v>-0.08</v>
@@ -54031,37 +55451,37 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="Q105" t="n">
-        <v>-1.92</v>
+        <v>-1.89</v>
       </c>
       <c r="R105" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="S105" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T105" t="n">
         <v>0.07</v>
       </c>
       <c r="U105" t="n">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="V105" t="n">
-        <v>0.37</v>
+        <v>-0.03</v>
       </c>
       <c r="W105" t="n">
         <v>0.28</v>
       </c>
       <c r="X105" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z105" t="n">
         <v>-0.01</v>
@@ -54079,16 +55499,16 @@
         <v>-0.02</v>
       </c>
       <c r="AE105" t="n">
-        <v>-0.24</v>
+        <v>0.04</v>
       </c>
       <c r="AF105" t="n">
         <v>-0.11</v>
       </c>
       <c r="AG105" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AH105" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="AI105" t="n">
         <v>0</v>
@@ -54100,7 +55520,7 @@
         <v>0.19</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AM105" t="n">
         <v>0.8</v>
@@ -54115,31 +55535,31 @@
         <v>0.08</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AR105" t="n">
         <v>1.9</v>
       </c>
       <c r="AS105" t="n">
-        <v>6.38</v>
+        <v>4.11</v>
       </c>
       <c r="AT105" t="n">
-        <v>-3.29</v>
+        <v>-5.25</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.11</v>
+        <v>-0.06</v>
       </c>
       <c r="AV105" t="n">
         <v>-0.17</v>
       </c>
       <c r="AW105" t="n">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="AX105" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AY105" t="n">
-        <v>11.11</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="106">
@@ -54153,7 +55573,7 @@
         <v>-0.01</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.26</v>
+        <v>-0.23</v>
       </c>
       <c r="E106" t="n">
         <v>-0.03</v>
@@ -54174,10 +55594,10 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="L106" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="M106" t="n">
         <v>-0.02</v>
@@ -54186,13 +55606,13 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="P106" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Q106" t="n">
-        <v>-3.25</v>
+        <v>-3.45</v>
       </c>
       <c r="R106" t="n">
         <v>-0.05</v>
@@ -54204,16 +55624,16 @@
         <v>0.17</v>
       </c>
       <c r="U106" t="n">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="V106" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="W106" t="n">
         <v>0.04</v>
       </c>
       <c r="X106" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="Y106" t="n">
         <v>-0.03</v>
@@ -54234,7 +55654,7 @@
         <v>0.05</v>
       </c>
       <c r="AE106" t="n">
-        <v>-1.97</v>
+        <v>-1.89</v>
       </c>
       <c r="AF106" t="n">
         <v>0.13</v>
@@ -54255,7 +55675,7 @@
         <v>0.01</v>
       </c>
       <c r="AL106" t="n">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="AM106" t="n">
         <v>0.56</v>
@@ -54276,10 +55696,10 @@
         <v>-0.38</v>
       </c>
       <c r="AS106" t="n">
-        <v>-2.1</v>
+        <v>-1.81</v>
       </c>
       <c r="AT106" t="n">
-        <v>-4.74</v>
+        <v>-5.49</v>
       </c>
       <c r="AU106" t="n">
         <v>0.43</v>
@@ -54288,13 +55708,13 @@
         <v>-0.11</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="AX106" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AY106" t="n">
-        <v>-4.7</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="107">
@@ -54457,16 +55877,16 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="C108" t="n">
         <v>-0.01</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.26</v>
+        <v>-1.3</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F108" t="n">
         <v>0.06</v>
@@ -54475,34 +55895,34 @@
         <v>0.11</v>
       </c>
       <c r="H108" t="n">
-        <v>-3.67</v>
+        <v>-3.69</v>
       </c>
       <c r="I108" t="n">
-        <v>-2.43</v>
+        <v>-1.74</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="L108" t="n">
-        <v>5.81</v>
+        <v>5.94</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.28</v>
+        <v>0.21</v>
       </c>
       <c r="P108" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="Q108" t="n">
-        <v>-7.37</v>
+        <v>-6.58</v>
       </c>
       <c r="R108" t="n">
         <v>0.01</v>
@@ -54511,28 +55931,28 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>-0.05</v>
+        <v>-0.07</v>
       </c>
       <c r="U108" t="n">
         <v>0.04</v>
       </c>
       <c r="V108" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="W108" t="n">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="X108" t="n">
-        <v>-0.1</v>
+        <v>0.13</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Z108" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA108" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="AB108" t="n">
         <v>0</v>
@@ -54544,28 +55964,28 @@
         <v>0.24</v>
       </c>
       <c r="AE108" t="n">
-        <v>-0.76</v>
+        <v>-0.73</v>
       </c>
       <c r="AF108" t="n">
         <v>-0.13</v>
       </c>
       <c r="AG108" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AH108" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AI108" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ108" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AK108" t="n">
         <v>-0.16</v>
       </c>
       <c r="AL108" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AM108" t="n">
         <v>-0.21</v>
@@ -54577,34 +55997,654 @@
         <v>-0.06</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.03</v>
       </c>
       <c r="AR108" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AS108" t="n">
-        <v>-9.93</v>
+        <v>-9.74</v>
       </c>
       <c r="AT108" t="n">
-        <v>-0.72</v>
+        <v>-0.86</v>
       </c>
       <c r="AU108" t="n">
-        <v>-1.55</v>
+        <v>-1.56</v>
       </c>
       <c r="AV108" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>-16.15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M109" t="n">
         <v>-0.04</v>
       </c>
-      <c r="AW108" t="n">
+      <c r="N109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>-7.36</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X109" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V110" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC110" t="n">
         <v>0.06</v>
       </c>
-      <c r="AX108" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AY108" t="n">
-        <v>-18.48</v>
+      <c r="AD110" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L111" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L112" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>-8.03</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T112" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="U112" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W112" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>5.43</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -17137,25 +17137,25 @@
         <v>0.06</v>
       </c>
       <c r="C107" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D107" t="n">
-        <v>3.45</v>
+        <v>2.87</v>
       </c>
       <c r="E107" t="n">
         <v>-0.09</v>
       </c>
       <c r="F107" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.63</v>
+        <v>-0.7</v>
       </c>
       <c r="H107" t="n">
-        <v>-1.01</v>
+        <v>-1.13</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.36</v>
+        <v>-0.39</v>
       </c>
       <c r="J107" t="n">
         <v>-0.01</v>
@@ -17164,25 +17164,25 @@
         <v>-0.24</v>
       </c>
       <c r="L107" t="n">
-        <v>-1.88</v>
+        <v>-1.87</v>
       </c>
       <c r="M107" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P107" t="n">
         <v>0.03</v>
       </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="P107" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Q107" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="R107" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
@@ -17194,13 +17194,13 @@
         <v>-0.04</v>
       </c>
       <c r="V107" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="W107" t="n">
-        <v>-1.02</v>
+        <v>-0.91</v>
       </c>
       <c r="X107" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="Y107" t="n">
         <v>-0.02</v>
@@ -17215,22 +17215,22 @@
         <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
       <c r="AD107" t="n">
         <v>0.48</v>
       </c>
       <c r="AE107" t="n">
-        <v>6.56</v>
+        <v>6.58</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AG107" t="n">
         <v>0.19</v>
       </c>
       <c r="AH107" t="n">
-        <v>-0.46</v>
+        <v>-0.45</v>
       </c>
       <c r="AI107" t="n">
         <v>0.06</v>
@@ -17239,13 +17239,13 @@
         <v>0.01</v>
       </c>
       <c r="AK107" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AM107" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AN107" t="n">
         <v>0</v>
@@ -17257,31 +17257,31 @@
         <v>-0.01</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AR107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AV107" t="n">
         <v>0.02</v>
       </c>
-      <c r="AS107" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="AT107" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AU107" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>0.18</v>
-      </c>
       <c r="AW107" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="AX107" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AY107" t="n">
-        <v>21.42</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="108">
@@ -17909,22 +17909,22 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="C112" t="n">
         <v>-0.21</v>
       </c>
       <c r="D112" t="n">
-        <v>-3.23</v>
+        <v>-3.25</v>
       </c>
       <c r="E112" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F112" t="n">
         <v>-0.28</v>
       </c>
       <c r="G112" t="n">
-        <v>-4.01</v>
+        <v>-2.81</v>
       </c>
       <c r="H112" t="n">
         <v>-1.1</v>
@@ -17939,7 +17939,7 @@
         <v>-0.01</v>
       </c>
       <c r="L112" t="n">
-        <v>-4.38</v>
+        <v>-3.61</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -17948,13 +17948,13 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.09</v>
+        <v>0.13</v>
       </c>
       <c r="P112" t="n">
         <v>0.05</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="R112" t="n">
         <v>-0.19</v>
@@ -17963,16 +17963,16 @@
         <v>-0.01</v>
       </c>
       <c r="T112" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="U112" t="n">
         <v>0.15</v>
       </c>
       <c r="V112" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="W112" t="n">
-        <v>-0.65</v>
+        <v>-0.13</v>
       </c>
       <c r="X112" t="n">
         <v>0.55</v>
@@ -17996,7 +17996,7 @@
         <v>-0.28</v>
       </c>
       <c r="AE112" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="AF112" t="n">
         <v>0.05</v>
@@ -18017,7 +18017,7 @@
         <v>0.19</v>
       </c>
       <c r="AL112" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AM112" t="n">
         <v>-0.05</v>
@@ -18026,7 +18026,7 @@
         <v>0.01</v>
       </c>
       <c r="AO112" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AP112" t="n">
         <v>-0.03</v>
@@ -18038,13 +18038,13 @@
         <v>-0.03</v>
       </c>
       <c r="AS112" t="n">
-        <v>105.68</v>
+        <v>107.39</v>
       </c>
       <c r="AT112" t="n">
         <v>-2.94</v>
       </c>
       <c r="AU112" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AV112" t="n">
         <v>0.28</v>
@@ -18053,10 +18053,165 @@
         <v>0.05</v>
       </c>
       <c r="AX112" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AY112" t="n">
-        <v>94.31</v>
+        <v>98.68</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V113" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="W113" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>12.65</v>
       </c>
     </row>
   </sheetData>
@@ -39278,43 +39433,43 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>0.285</v>
+        <v>0.255</v>
       </c>
       <c r="C107" t="n">
-        <v>0.213</v>
+        <v>0.221</v>
       </c>
       <c r="D107" t="n">
-        <v>0.808</v>
+        <v>0.769</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.039</v>
+        <v>-0.042</v>
       </c>
       <c r="F107" t="n">
-        <v>0.073</v>
+        <v>0.071</v>
       </c>
       <c r="G107" t="n">
-        <v>0.056</v>
+        <v>0.061</v>
       </c>
       <c r="H107" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="I107" t="n">
-        <v>0.051</v>
+        <v>0.045</v>
       </c>
       <c r="J107" t="n">
-        <v>0.044</v>
+        <v>0.027</v>
       </c>
       <c r="K107" t="n">
-        <v>0.245</v>
+        <v>0.228</v>
       </c>
       <c r="L107" t="n">
-        <v>0.175</v>
+        <v>0.132</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>-0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="O107" t="n">
         <v>-0.015</v>
@@ -39323,7 +39478,7 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="R107" t="n">
         <v>0.048</v>
@@ -39332,10 +39487,10 @@
         <v>-0.009</v>
       </c>
       <c r="T107" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>0.083</v>
+        <v>0.062</v>
       </c>
       <c r="V107" t="n">
         <v>-0.001</v>
@@ -39344,10 +39499,10 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>-0.154</v>
+        <v>-0.339</v>
       </c>
       <c r="Y107" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="Z107" t="n">
         <v>0.01</v>
@@ -39356,25 +39511,25 @@
         <v>0.013</v>
       </c>
       <c r="AB107" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AD107" t="n">
-        <v>-4.446</v>
+        <v>-4.65</v>
       </c>
       <c r="AE107" t="n">
         <v>-0.172</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="AG107" t="n">
-        <v>21.375</v>
+        <v>20.148</v>
       </c>
       <c r="AH107" t="n">
-        <v>1.075</v>
+        <v>1.023</v>
       </c>
       <c r="AI107" t="n">
         <v>0.006</v>
@@ -39383,94 +39538,94 @@
         <v>0.02</v>
       </c>
       <c r="AK107" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="AL107" t="n">
-        <v>-0.147</v>
+        <v>-0.192</v>
       </c>
       <c r="AM107" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AN107" t="n">
-        <v>-0.028</v>
+        <v>-0.032</v>
       </c>
       <c r="AO107" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.183</v>
+        <v>0.01</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.024</v>
+        <v>0.009</v>
       </c>
       <c r="AR107" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="AT107" t="n">
         <v>-0.041</v>
       </c>
       <c r="AU107" t="n">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
       <c r="AV107" t="n">
-        <v>0.231</v>
+        <v>0.663</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.056</v>
+        <v>0.047</v>
       </c>
       <c r="AX107" t="n">
         <v>0.001</v>
       </c>
       <c r="AY107" t="n">
-        <v>0.299</v>
+        <v>0.147</v>
       </c>
       <c r="AZ107" t="n">
-        <v>0.658</v>
+        <v>0.543</v>
       </c>
       <c r="BA107" t="n">
-        <v>0.278</v>
+        <v>0.253</v>
       </c>
       <c r="BB107" t="n">
-        <v>2.49</v>
+        <v>2.427</v>
       </c>
       <c r="BC107" t="n">
-        <v>-0.017</v>
+        <v>-0.019</v>
       </c>
       <c r="BD107" t="n">
-        <v>-3.825</v>
+        <v>-2.293</v>
       </c>
       <c r="BE107" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="BF107" t="n">
-        <v>0.011</v>
+        <v>0.017</v>
       </c>
       <c r="BG107" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="BH107" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="BI107" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="BJ107" t="n">
-        <v>0.214</v>
+        <v>0.187</v>
       </c>
       <c r="BK107" t="n">
-        <v>0.041</v>
+        <v>0.021</v>
       </c>
       <c r="BL107" t="n">
-        <v>1.016</v>
+        <v>0.926</v>
       </c>
       <c r="BM107" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="BN107" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="108">
@@ -40278,16 +40433,16 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="C112" t="n">
-        <v>0.261</v>
+        <v>0.279</v>
       </c>
       <c r="D112" t="n">
-        <v>0.492</v>
+        <v>0.535</v>
       </c>
       <c r="E112" t="n">
-        <v>0.104</v>
+        <v>0.095</v>
       </c>
       <c r="F112" t="n">
         <v>0.003</v>
@@ -40296,19 +40451,19 @@
         <v>0.02</v>
       </c>
       <c r="H112" t="n">
-        <v>0.018</v>
+        <v>0.009</v>
       </c>
       <c r="I112" t="n">
         <v>0.085</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="K112" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.014</v>
+        <v>-0.006</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -40317,16 +40472,16 @@
         <v>-0.005</v>
       </c>
       <c r="O112" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="P112" t="n">
         <v>0.001</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="R112" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="S112" t="n">
         <v>-0.005</v>
@@ -40338,13 +40493,13 @@
         <v>0.2</v>
       </c>
       <c r="V112" t="n">
-        <v>-0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="W112" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="X112" t="n">
-        <v>-0.195</v>
+        <v>-0.197</v>
       </c>
       <c r="Y112" t="n">
         <v>0.017</v>
@@ -40353,7 +40508,7 @@
         <v>0.004</v>
       </c>
       <c r="AA112" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB112" t="n">
         <v>0.002</v>
@@ -40365,16 +40520,16 @@
         <v>8.379</v>
       </c>
       <c r="AE112" t="n">
-        <v>-1.378</v>
+        <v>-1.379</v>
       </c>
       <c r="AF112" t="n">
         <v>0.006</v>
       </c>
       <c r="AG112" t="n">
-        <v>87.085</v>
+        <v>87.523</v>
       </c>
       <c r="AH112" t="n">
-        <v>0.559</v>
+        <v>0.564</v>
       </c>
       <c r="AI112" t="n">
         <v>0.002</v>
@@ -40383,25 +40538,25 @@
         <v>0.029</v>
       </c>
       <c r="AK112" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="AL112" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="AM112" t="n">
         <v>0.002</v>
       </c>
       <c r="AN112" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="AO112" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AP112" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="AR112" t="n">
         <v>0.005</v>
@@ -40413,64 +40568,264 @@
         <v>-0.002</v>
       </c>
       <c r="AU112" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="AV112" t="n">
         <v>0.173</v>
       </c>
       <c r="AW112" t="n">
-        <v>0.273</v>
+        <v>0.268</v>
       </c>
       <c r="AX112" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AY112" t="n">
-        <v>0.256</v>
+        <v>0.238</v>
       </c>
       <c r="AZ112" t="n">
-        <v>1.169</v>
+        <v>1.473</v>
       </c>
       <c r="BA112" t="n">
-        <v>0.079</v>
+        <v>0.013</v>
       </c>
       <c r="BB112" t="n">
-        <v>0.738</v>
+        <v>0.728</v>
       </c>
       <c r="BC112" t="n">
-        <v>-0.04</v>
+        <v>-0.041</v>
       </c>
       <c r="BD112" t="n">
-        <v>-4.867</v>
+        <v>-1.191</v>
       </c>
       <c r="BE112" t="n">
-        <v>-0.008</v>
+        <v>-0.001</v>
       </c>
       <c r="BF112" t="n">
         <v>0.025</v>
       </c>
       <c r="BG112" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="BH112" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="BI112" t="n">
         <v>0.014</v>
       </c>
       <c r="BJ112" t="n">
-        <v>-0.177</v>
+        <v>-0.173</v>
       </c>
       <c r="BK112" t="n">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="BL112" t="n">
-        <v>0.609</v>
+        <v>0.582</v>
       </c>
       <c r="BM112" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="BN112" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="S113" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>10.689</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>-0.115</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>-0.347</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>-3.522</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>0.149</v>
       </c>
     </row>
   </sheetData>
@@ -55722,16 +56077,16 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C107" t="n">
         <v>-0.06</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="E107" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F107" t="n">
         <v>0.16</v>
@@ -55743,31 +56098,31 @@
         <v>-4.29</v>
       </c>
       <c r="I107" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="L107" t="n">
-        <v>6.73</v>
+        <v>7.1</v>
       </c>
       <c r="M107" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N107" t="n">
         <v>0.01</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.09</v>
+        <v>-0.07</v>
       </c>
       <c r="P107" t="n">
         <v>0.01</v>
       </c>
       <c r="Q107" t="n">
-        <v>-7.35</v>
+        <v>-6.49</v>
       </c>
       <c r="R107" t="n">
         <v>0.05</v>
@@ -55776,22 +56131,22 @@
         <v>0.01</v>
       </c>
       <c r="T107" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="U107" t="n">
         <v>-0.19</v>
       </c>
       <c r="V107" t="n">
-        <v>0.12</v>
+        <v>0.53</v>
       </c>
       <c r="W107" t="n">
         <v>-0.15</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Z107" t="n">
         <v>0</v>
@@ -55806,28 +56161,28 @@
         <v>0.17</v>
       </c>
       <c r="AD107" t="n">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="AE107" t="n">
-        <v>-0.74</v>
+        <v>-0.68</v>
       </c>
       <c r="AF107" t="n">
         <v>-0.56</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AH107" t="n">
         <v>0.03</v>
       </c>
       <c r="AI107" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AJ107" t="n">
         <v>0.01</v>
       </c>
       <c r="AK107" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL107" t="n">
         <v>0.08</v>
@@ -55848,28 +56203,28 @@
         <v>0.2</v>
       </c>
       <c r="AR107" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AS107" t="n">
-        <v>-1.3</v>
+        <v>-0.02</v>
       </c>
       <c r="AT107" t="n">
-        <v>-0.44</v>
+        <v>-0.42</v>
       </c>
       <c r="AU107" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AV107" t="n">
         <v>0.06</v>
       </c>
       <c r="AW107" t="n">
-        <v>-0.17</v>
+        <v>-0.07</v>
       </c>
       <c r="AX107" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AY107" t="n">
-        <v>-2.37</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="108">
@@ -56497,13 +56852,13 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="C112" t="n">
         <v>-0.01</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.74</v>
+        <v>-0.73</v>
       </c>
       <c r="E112" t="n">
         <v>0.02</v>
@@ -56512,22 +56867,22 @@
         <v>0.07</v>
       </c>
       <c r="G112" t="n">
-        <v>0.86</v>
+        <v>1.47</v>
       </c>
       <c r="H112" t="n">
         <v>0.94</v>
       </c>
       <c r="I112" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K112" t="n">
         <v>-0.17</v>
       </c>
       <c r="L112" t="n">
-        <v>10.73</v>
+        <v>11.67</v>
       </c>
       <c r="M112" t="n">
         <v>-0.3</v>
@@ -56536,37 +56891,37 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="P112" t="n">
         <v>0.04</v>
       </c>
       <c r="Q112" t="n">
-        <v>-8.03</v>
+        <v>-5.2</v>
       </c>
       <c r="R112" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S112" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
       <c r="U112" t="n">
         <v>-0.02</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="W112" t="n">
-        <v>-0.16</v>
+        <v>0.26</v>
       </c>
       <c r="X112" t="n">
         <v>0.11</v>
       </c>
       <c r="Y112" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="Z112" t="n">
         <v>0.01</v>
@@ -56581,22 +56936,22 @@
         <v>-0.08</v>
       </c>
       <c r="AD112" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="AE112" t="n">
-        <v>-2.97</v>
+        <v>-2.95</v>
       </c>
       <c r="AF112" t="n">
         <v>0.08</v>
       </c>
       <c r="AG112" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AH112" t="n">
         <v>-0.01</v>
       </c>
       <c r="AI112" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AJ112" t="n">
         <v>-0.04</v>
@@ -56605,7 +56960,7 @@
         <v>0.01</v>
       </c>
       <c r="AL112" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="AM112" t="n">
         <v>0.87</v>
@@ -56617,22 +56972,22 @@
         <v>-0.08</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.48</v>
+        <v>-0.04</v>
       </c>
       <c r="AQ112" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="AR112" t="n">
         <v>0.49</v>
       </c>
       <c r="AS112" t="n">
-        <v>-3.14</v>
+        <v>-2.11</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.56</v>
+        <v>0.58</v>
       </c>
       <c r="AU112" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="AV112" t="n">
         <v>0.04</v>
@@ -56644,7 +56999,162 @@
         <v>2.87</v>
       </c>
       <c r="AY112" t="n">
-        <v>5.43</v>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L113" t="n">
+        <v>9.13</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-5.37</v>
+      </c>
+      <c r="R113" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S113" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V113" t="n">
+        <v>1</v>
+      </c>
+      <c r="W113" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -17292,7 +17292,7 @@
         <v>-0.06</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="D108" t="n">
         <v>1.57</v>
@@ -17301,25 +17301,25 @@
         <v>-0.02</v>
       </c>
       <c r="F108" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.42</v>
+        <v>-0.44</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.98</v>
+        <v>-1.02</v>
       </c>
       <c r="I108" t="n">
-        <v>0.93</v>
+        <v>0.62</v>
       </c>
       <c r="J108" t="n">
         <v>-0.01</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
       <c r="L108" t="n">
-        <v>-4.89</v>
+        <v>-4.9</v>
       </c>
       <c r="M108" t="n">
         <v>-0.01</v>
@@ -17328,13 +17328,13 @@
         <v>-0.01</v>
       </c>
       <c r="O108" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="P108" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="R108" t="n">
         <v>-0.07</v>
@@ -17346,16 +17346,16 @@
         <v>0.11</v>
       </c>
       <c r="U108" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="V108" t="n">
-        <v>-0.43</v>
+        <v>-0.5</v>
       </c>
       <c r="W108" t="n">
-        <v>-0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="X108" t="n">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="Y108" t="n">
         <v>0.02</v>
@@ -17370,13 +17370,13 @@
         <v>-0.01</v>
       </c>
       <c r="AC108" t="n">
-        <v>0.32</v>
+        <v>0.07</v>
       </c>
       <c r="AD108" t="n">
         <v>0.1</v>
       </c>
       <c r="AE108" t="n">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
@@ -17391,16 +17391,16 @@
         <v>-0.1</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="AK108" t="n">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="AL108" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AM108" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="AN108" t="n">
         <v>-0.04</v>
@@ -17412,31 +17412,31 @@
         <v>-0.01</v>
       </c>
       <c r="AQ108" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AV108" t="n">
         <v>-0.01</v>
       </c>
-      <c r="AR108" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AS108" t="n">
-        <v>25.77</v>
-      </c>
-      <c r="AT108" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="AU108" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AV108" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AW108" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AX108" t="n">
-        <v>1.13</v>
+        <v>0.87</v>
       </c>
       <c r="AY108" t="n">
-        <v>31.34</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="109">
@@ -18091,13 +18091,13 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="M113" t="n">
         <v>0.05</v>
-      </c>
-      <c r="L113" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.02</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -18109,10 +18109,10 @@
         <v>0.05</v>
       </c>
       <c r="Q113" t="n">
-        <v>-0.49</v>
+        <v>-0.57</v>
       </c>
       <c r="R113" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="S113" t="n">
         <v>0.01</v>
@@ -18124,10 +18124,10 @@
         <v>0.01</v>
       </c>
       <c r="V113" t="n">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="W113" t="n">
-        <v>-0.71</v>
+        <v>-0.58</v>
       </c>
       <c r="X113" t="n">
         <v>0.43</v>
@@ -18136,7 +18136,7 @@
         <v>0</v>
       </c>
       <c r="Z113" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA113" t="n">
         <v>0</v>
@@ -18151,13 +18151,13 @@
         <v>0.1</v>
       </c>
       <c r="AE113" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AF113" t="n">
         <v>0.02</v>
       </c>
       <c r="AG113" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="AH113" t="n">
         <v>3.72</v>
@@ -18172,7 +18172,7 @@
         <v>0.08</v>
       </c>
       <c r="AL113" t="n">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="AM113" t="n">
         <v>-0.11</v>
@@ -18199,19 +18199,174 @@
         <v>0.02</v>
       </c>
       <c r="AU113" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AV113" t="n">
         <v>0.12</v>
       </c>
       <c r="AW113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.03</v>
       </c>
-      <c r="AX113" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AY113" t="n">
-        <v>12.65</v>
+      <c r="F114" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R114" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U114" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>29.34</v>
       </c>
     </row>
   </sheetData>
@@ -39633,43 +39788,43 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.049</v>
+        <v>-0.055</v>
       </c>
       <c r="C108" t="n">
-        <v>0.169</v>
+        <v>0.127</v>
       </c>
       <c r="D108" t="n">
-        <v>0.634</v>
+        <v>0.596</v>
       </c>
       <c r="E108" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="F108" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="G108" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.004</v>
+        <v>0.009</v>
       </c>
       <c r="I108" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.196</v>
+        <v>-0.223</v>
       </c>
       <c r="L108" t="n">
-        <v>0.011</v>
+        <v>-0.197</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="O108" t="n">
         <v>0.015</v>
@@ -39678,7 +39833,7 @@
         <v>0.001</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="R108" t="n">
         <v>0.004</v>
@@ -39687,13 +39842,13 @@
         <v>-0.007</v>
       </c>
       <c r="T108" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="U108" t="n">
-        <v>0.52</v>
+        <v>0.474</v>
       </c>
       <c r="V108" t="n">
-        <v>0.023</v>
+        <v>0.019</v>
       </c>
       <c r="W108" t="n">
         <v>-0.008</v>
@@ -39702,13 +39857,13 @@
         <v>-0.504</v>
       </c>
       <c r="Y108" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="Z108" t="n">
         <v>-0.004</v>
       </c>
       <c r="AA108" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="AB108" t="n">
         <v>0</v>
@@ -39717,115 +39872,115 @@
         <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>-3.418</v>
+        <v>-3.705</v>
       </c>
       <c r="AE108" t="n">
-        <v>-0.927</v>
+        <v>-0.962</v>
       </c>
       <c r="AF108" t="n">
-        <v>-0.005</v>
+        <v>-0.008</v>
       </c>
       <c r="AG108" t="n">
-        <v>27.078</v>
+        <v>26.318</v>
       </c>
       <c r="AH108" t="n">
-        <v>0.58</v>
+        <v>0.454</v>
       </c>
       <c r="AI108" t="n">
         <v>0.001</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0.05</v>
+        <v>0.039</v>
       </c>
       <c r="AK108" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AL108" t="n">
-        <v>-0.459</v>
+        <v>-0.501</v>
       </c>
       <c r="AM108" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AN108" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="AO108" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.026</v>
+        <v>0.015</v>
       </c>
       <c r="AR108" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.038</v>
+        <v>0.033</v>
       </c>
       <c r="AT108" t="n">
-        <v>-0.06</v>
+        <v>-0.059</v>
       </c>
       <c r="AU108" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="AV108" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="BK108" t="n">
         <v>-0.07</v>
       </c>
-      <c r="AW108" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="AX108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY108" t="n">
-        <v>0.071</v>
-      </c>
-      <c r="AZ108" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BA108" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="BB108" t="n">
-        <v>2.501</v>
-      </c>
-      <c r="BC108" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="BD108" t="n">
-        <v>2.149</v>
-      </c>
-      <c r="BE108" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="BF108" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="BG108" t="n">
-        <v>-0.004</v>
-      </c>
-      <c r="BH108" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="BI108" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="BJ108" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="BK108" t="n">
-        <v>-0.056</v>
-      </c>
       <c r="BL108" t="n">
-        <v>0.283</v>
+        <v>0.107</v>
       </c>
       <c r="BM108" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="BN108" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="109">
@@ -40633,37 +40788,37 @@
         <v>45748</v>
       </c>
       <c r="B113" t="n">
-        <v>0.079</v>
+        <v>0.084</v>
       </c>
       <c r="C113" t="n">
-        <v>0.548</v>
+        <v>0.553</v>
       </c>
       <c r="D113" t="n">
-        <v>0.674</v>
+        <v>0.671</v>
       </c>
       <c r="E113" t="n">
-        <v>0.145</v>
+        <v>0.168</v>
       </c>
       <c r="F113" t="n">
         <v>0.011</v>
       </c>
       <c r="G113" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.001</v>
+        <v>-0.013</v>
       </c>
       <c r="I113" t="n">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="J113" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.046</v>
+        <v>-0.045</v>
       </c>
       <c r="L113" t="n">
-        <v>0.063</v>
+        <v>0.068</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -40690,16 +40845,16 @@
         <v>0.026</v>
       </c>
       <c r="U113" t="n">
-        <v>0.043</v>
+        <v>0.009</v>
       </c>
       <c r="V113" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="W113" t="n">
-        <v>0.003</v>
+        <v>0.027</v>
       </c>
       <c r="X113" t="n">
-        <v>0.522</v>
+        <v>0.529</v>
       </c>
       <c r="Y113" t="n">
         <v>-0.007</v>
@@ -40717,43 +40872,43 @@
         <v>0.004</v>
       </c>
       <c r="AD113" t="n">
-        <v>0.231</v>
+        <v>0.226</v>
       </c>
       <c r="AE113" t="n">
         <v>-0.03</v>
       </c>
       <c r="AF113" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG113" t="n">
-        <v>10.689</v>
+        <v>10.674</v>
       </c>
       <c r="AH113" t="n">
-        <v>-0.115</v>
+        <v>-0.11</v>
       </c>
       <c r="AI113" t="n">
         <v>0.002</v>
       </c>
       <c r="AJ113" t="n">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="AK113" t="n">
         <v>0.01</v>
       </c>
       <c r="AL113" t="n">
-        <v>-0.03</v>
+        <v>-0.082</v>
       </c>
       <c r="AM113" t="n">
         <v>0.001</v>
       </c>
       <c r="AN113" t="n">
-        <v>-0.017</v>
+        <v>-0.018</v>
       </c>
       <c r="AO113" t="n">
-        <v>0.067</v>
+        <v>0.069</v>
       </c>
       <c r="AP113" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.011</v>
@@ -40762,70 +40917,270 @@
         <v>0.007</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="AT113" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AU113" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="AV113" t="n">
-        <v>-0.347</v>
+        <v>-0.344</v>
       </c>
       <c r="AW113" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="AX113" t="n">
         <v>-0.002</v>
       </c>
       <c r="AY113" t="n">
-        <v>0.111</v>
+        <v>0.12</v>
       </c>
       <c r="AZ113" t="n">
-        <v>1.789</v>
+        <v>1.782</v>
       </c>
       <c r="BA113" t="n">
-        <v>0.076</v>
+        <v>0.069</v>
       </c>
       <c r="BB113" t="n">
-        <v>0.412</v>
+        <v>0.377</v>
       </c>
       <c r="BC113" t="n">
-        <v>-0.062</v>
+        <v>-0.065</v>
       </c>
       <c r="BD113" t="n">
-        <v>-3.522</v>
+        <v>-3.389</v>
       </c>
       <c r="BE113" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="BF113" t="n">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="BG113" t="n">
         <v>-0.001</v>
       </c>
       <c r="BH113" t="n">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
       <c r="BI113" t="n">
         <v>0.003</v>
       </c>
       <c r="BJ113" t="n">
-        <v>0.303</v>
+        <v>0.292</v>
       </c>
       <c r="BK113" t="n">
         <v>0.046</v>
       </c>
       <c r="BL113" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="BM113" t="n">
-        <v>0.149</v>
+        <v>0.148</v>
       </c>
       <c r="BN113" t="n">
-        <v>0.149</v>
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.094</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.036</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-0.081</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="O114" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="V114" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="X114" t="n">
+        <v>-0.247</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>-3.351</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>32.243</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>-1.022</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>-0.254</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>-0.389</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>-0.113</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>-0.073</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>-0.036</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>-0.431</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>-0.206</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>0.003</v>
       </c>
     </row>
   </sheetData>
@@ -56232,28 +56587,28 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.3</v>
+        <v>-1.27</v>
       </c>
       <c r="E108" t="n">
         <v>0.01</v>
       </c>
       <c r="F108" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G108" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H108" t="n">
-        <v>-3.69</v>
+        <v>-3.72</v>
       </c>
       <c r="I108" t="n">
-        <v>-1.74</v>
+        <v>-2.06</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -56262,7 +56617,7 @@
         <v>0.04</v>
       </c>
       <c r="L108" t="n">
-        <v>5.94</v>
+        <v>5.99</v>
       </c>
       <c r="M108" t="n">
         <v>-0.05</v>
@@ -56271,13 +56626,13 @@
         <v>0.04</v>
       </c>
       <c r="O108" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="P108" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Q108" t="n">
-        <v>-6.58</v>
+        <v>-6.77</v>
       </c>
       <c r="R108" t="n">
         <v>0.01</v>
@@ -56289,16 +56644,16 @@
         <v>-0.07</v>
       </c>
       <c r="U108" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="V108" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="W108" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="X108" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="Y108" t="n">
         <v>0.02</v>
@@ -56313,73 +56668,73 @@
         <v>0</v>
       </c>
       <c r="AC108" t="n">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="AD108" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AE108" t="n">
-        <v>-0.73</v>
+        <v>-0.71</v>
       </c>
       <c r="AF108" t="n">
         <v>-0.13</v>
       </c>
       <c r="AG108" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH108" t="n">
-        <v>1.81</v>
+        <v>1.19</v>
       </c>
       <c r="AI108" t="n">
-        <v>0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="AJ108" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="AK108" t="n">
         <v>-0.16</v>
       </c>
       <c r="AL108" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AM108" t="n">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="AN108" t="n">
         <v>-0.01</v>
       </c>
       <c r="AO108" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="AR108" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AS108" t="n">
-        <v>-9.74</v>
+        <v>-9.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>-0.86</v>
+        <v>-1.3</v>
       </c>
       <c r="AU108" t="n">
-        <v>-1.56</v>
+        <v>-1.6</v>
       </c>
       <c r="AV108" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="AW108" t="n">
-        <v>-0.09</v>
+        <v>0.5</v>
       </c>
       <c r="AX108" t="n">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="AY108" t="n">
-        <v>-16.15</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="109">
@@ -57010,10 +57365,10 @@
         <v>-0.07</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="E113" t="n">
         <v>-0.01</v>
@@ -57025,37 +57380,37 @@
         <v>0.07</v>
       </c>
       <c r="H113" t="n">
-        <v>-2.65</v>
+        <v>-2.64</v>
       </c>
       <c r="I113" t="n">
-        <v>1.38</v>
+        <v>1.92</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
         <v>0.3</v>
       </c>
       <c r="L113" t="n">
-        <v>9.13</v>
+        <v>7.82</v>
       </c>
       <c r="M113" t="n">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="P113" t="n">
         <v>0.04</v>
       </c>
       <c r="Q113" t="n">
-        <v>-5.37</v>
+        <v>-5.47</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="S113" t="n">
         <v>-0.03</v>
@@ -57067,22 +57422,22 @@
         <v>0.15</v>
       </c>
       <c r="V113" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="W113" t="n">
-        <v>-0.28</v>
+        <v>-0.26</v>
       </c>
       <c r="X113" t="n">
         <v>0.11</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z113" t="n">
         <v>0</v>
       </c>
       <c r="AA113" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AB113" t="n">
         <v>0</v>
@@ -57100,10 +57455,10 @@
         <v>0</v>
       </c>
       <c r="AG113" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AH113" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="AI113" t="n">
         <v>0.05</v>
@@ -57121,40 +57476,195 @@
         <v>0.12</v>
       </c>
       <c r="AN113" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO113" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="AP113" t="n">
         <v>0.11</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AR113" t="n">
         <v>-1.22</v>
       </c>
       <c r="AS113" t="n">
-        <v>-5.33</v>
+        <v>-5.79</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.56</v>
+        <v>0.58</v>
       </c>
       <c r="AU113" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AV113" t="n">
         <v>0.06</v>
       </c>
       <c r="AW113" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>-1.53</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="O114" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="R114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T114" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W114" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="X114" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="Z114" t="n">
         <v>-0.03</v>
       </c>
-      <c r="AX113" t="n">
-        <v>-0.41</v>
-      </c>
-      <c r="AY113" t="n">
-        <v>-0.17</v>
+      <c r="AA114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>-2.68</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -17444,40 +17444,40 @@
         <v>45627</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
       <c r="D109" t="n">
-        <v>-3</v>
+        <v>-2.2</v>
       </c>
       <c r="E109" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.3</v>
+        <v>-0.33</v>
       </c>
       <c r="G109" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.93</v>
+        <v>-0.98</v>
       </c>
       <c r="I109" t="n">
-        <v>-1.41</v>
+        <v>-1.53</v>
       </c>
       <c r="J109" t="n">
         <v>0.05</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M109" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -17486,31 +17486,31 @@
         <v>0.96</v>
       </c>
       <c r="P109" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.71</v>
+        <v>2.48</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.04</v>
+        <v>-0.07</v>
       </c>
       <c r="S109" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="T109" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="U109" t="n">
         <v>-0.2</v>
       </c>
       <c r="V109" t="n">
-        <v>1.49</v>
+        <v>0.73</v>
       </c>
       <c r="W109" t="n">
-        <v>-1.14</v>
+        <v>-1.16</v>
       </c>
       <c r="X109" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="Y109" t="n">
         <v>0.04</v>
@@ -17525,37 +17525,37 @@
         <v>-0.01</v>
       </c>
       <c r="AC109" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="AD109" t="n">
         <v>0.63</v>
       </c>
       <c r="AE109" t="n">
-        <v>0.83</v>
+        <v>-0.11</v>
       </c>
       <c r="AF109" t="n">
         <v>0</v>
       </c>
       <c r="AG109" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="AH109" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AI109" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AJ109" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="AK109" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AL109" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AM109" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AN109" t="n">
         <v>0.02</v>
@@ -17567,31 +17567,31 @@
         <v>0.01</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="AR109" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AS109" t="n">
-        <v>9.87</v>
+        <v>10.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.97</v>
+        <v>0.57</v>
       </c>
       <c r="AU109" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="AV109" t="n">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="AW109" t="n">
-        <v>0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="AX109" t="n">
-        <v>1.51</v>
+        <v>0.86</v>
       </c>
       <c r="AY109" t="n">
-        <v>17.27</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="110">
@@ -18219,13 +18219,13 @@
         <v>45778</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="C114" t="n">
         <v>0.09</v>
       </c>
       <c r="D114" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="E114" t="n">
         <v>0.03</v>
@@ -18234,7 +18234,7 @@
         <v>0.35</v>
       </c>
       <c r="G114" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="H114" t="n">
         <v>0.39</v>
@@ -18246,25 +18246,25 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="L114" t="n">
-        <v>-3.86</v>
+        <v>-3.64</v>
       </c>
       <c r="M114" t="n">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="P114" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="R114" t="n">
         <v>-0.06</v>
@@ -18273,22 +18273,22 @@
         <v>0.01</v>
       </c>
       <c r="T114" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="U114" t="n">
         <v>-0.05</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="W114" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="X114" t="n">
         <v>0.2</v>
       </c>
       <c r="Y114" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="Z114" t="n">
         <v>0.03</v>
@@ -18306,7 +18306,7 @@
         <v>-0.05</v>
       </c>
       <c r="AE114" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AF114" t="n">
         <v>0.98</v>
@@ -18315,7 +18315,7 @@
         <v>0.03</v>
       </c>
       <c r="AH114" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AI114" t="n">
         <v>0.02</v>
@@ -18327,13 +18327,13 @@
         <v>0</v>
       </c>
       <c r="AL114" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="AM114" t="n">
         <v>-0.07</v>
       </c>
       <c r="AN114" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AO114" t="n">
         <v>-0.14</v>
@@ -18348,25 +18348,180 @@
         <v>0.07</v>
       </c>
       <c r="AS114" t="n">
-        <v>27.17</v>
+        <v>28.32</v>
       </c>
       <c r="AT114" t="n">
         <v>0.05</v>
       </c>
       <c r="AU114" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AV114" t="n">
         <v>0.03</v>
       </c>
       <c r="AW114" t="n">
-        <v>0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="AX114" t="n">
         <v>-0.42</v>
       </c>
       <c r="AY114" t="n">
-        <v>29.34</v>
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R115" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="W115" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="X115" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>-7.95</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>4.81</v>
       </c>
     </row>
   </sheetData>
@@ -39988,43 +40143,43 @@
         <v>45627</v>
       </c>
       <c r="B109" t="n">
-        <v>0.091</v>
+        <v>0.073</v>
       </c>
       <c r="C109" t="n">
-        <v>0.348</v>
+        <v>0.266</v>
       </c>
       <c r="D109" t="n">
-        <v>0.715</v>
+        <v>0.648</v>
       </c>
       <c r="E109" t="n">
-        <v>0.071</v>
+        <v>0.058</v>
       </c>
       <c r="F109" t="n">
         <v>0.019</v>
       </c>
       <c r="G109" t="n">
-        <v>0.068</v>
+        <v>0.059</v>
       </c>
       <c r="H109" t="n">
-        <v>0.01</v>
+        <v>0.024</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02</v>
+        <v>0.009</v>
       </c>
       <c r="J109" t="n">
-        <v>0.025</v>
+        <v>0.018</v>
       </c>
       <c r="K109" t="n">
-        <v>0.25</v>
+        <v>0.198</v>
       </c>
       <c r="L109" t="n">
-        <v>0.069</v>
+        <v>-0.016</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
         <v>-0.012</v>
@@ -40042,28 +40197,28 @@
         <v>-0.001</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="U109" t="n">
-        <v>0.46</v>
+        <v>0.441</v>
       </c>
       <c r="V109" t="n">
-        <v>0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="W109" t="n">
-        <v>-0.006</v>
+        <v>0.027</v>
       </c>
       <c r="X109" t="n">
-        <v>0.043</v>
+        <v>-0.113</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="Z109" t="n">
         <v>-0.008</v>
       </c>
       <c r="AA109" t="n">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AB109" t="n">
         <v>-0.001</v>
@@ -40072,109 +40227,109 @@
         <v>0.005</v>
       </c>
       <c r="AD109" t="n">
-        <v>-1.337</v>
+        <v>-1.626</v>
       </c>
       <c r="AE109" t="n">
-        <v>2.981</v>
+        <v>2.979</v>
       </c>
       <c r="AF109" t="n">
-        <v>0.016</v>
+        <v>0.01</v>
       </c>
       <c r="AG109" t="n">
-        <v>3.624</v>
+        <v>3.185</v>
       </c>
       <c r="AH109" t="n">
-        <v>1.808</v>
+        <v>0.957</v>
       </c>
       <c r="AI109" t="n">
         <v>0</v>
       </c>
       <c r="AJ109" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="AK109" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="AL109" t="n">
-        <v>0.272</v>
+        <v>-0.35</v>
       </c>
       <c r="AM109" t="n">
         <v>-0.003</v>
       </c>
       <c r="AN109" t="n">
-        <v>-0.067</v>
+        <v>-0.068</v>
       </c>
       <c r="AO109" t="n">
-        <v>-0.008</v>
+        <v>-0.001</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
       <c r="AR109" t="n">
-        <v>-0.02</v>
+        <v>-0.025</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.022</v>
+        <v>0.003</v>
       </c>
       <c r="AT109" t="n">
-        <v>-0.031</v>
+        <v>-0.026</v>
       </c>
       <c r="AU109" t="n">
-        <v>0.04</v>
+        <v>0.026</v>
       </c>
       <c r="AV109" t="n">
-        <v>-0.355</v>
+        <v>-0.366</v>
       </c>
       <c r="AW109" t="n">
-        <v>0.217</v>
+        <v>0.186</v>
       </c>
       <c r="AX109" t="n">
         <v>-0.006</v>
       </c>
       <c r="AY109" t="n">
-        <v>0.078</v>
+        <v>-0.213</v>
       </c>
       <c r="AZ109" t="n">
-        <v>1.463</v>
+        <v>1.208</v>
       </c>
       <c r="BA109" t="n">
-        <v>0.07</v>
+        <v>0.015</v>
       </c>
       <c r="BB109" t="n">
-        <v>2.149</v>
+        <v>2.028</v>
       </c>
       <c r="BC109" t="n">
-        <v>0.062</v>
+        <v>0.048</v>
       </c>
       <c r="BD109" t="n">
-        <v>2.626</v>
+        <v>3.666</v>
       </c>
       <c r="BE109" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="BF109" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="BG109" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="BH109" t="n">
-        <v>-0.004</v>
+        <v>-0.009</v>
       </c>
       <c r="BI109" t="n">
         <v>0</v>
       </c>
       <c r="BJ109" t="n">
-        <v>0.02</v>
+        <v>-0.044</v>
       </c>
       <c r="BK109" t="n">
-        <v>0.108</v>
+        <v>0.073</v>
       </c>
       <c r="BL109" t="n">
-        <v>1.073</v>
+        <v>0.601</v>
       </c>
       <c r="BM109" t="n">
         <v>0.183</v>
@@ -40988,37 +41143,37 @@
         <v>45778</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.094</v>
+        <v>-0.09</v>
       </c>
       <c r="C114" t="n">
-        <v>0.388</v>
+        <v>0.496</v>
       </c>
       <c r="D114" t="n">
-        <v>0.543</v>
+        <v>0.564</v>
       </c>
       <c r="E114" t="n">
-        <v>0.014</v>
+        <v>-0.008</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.036</v>
+        <v>-0.032</v>
       </c>
       <c r="G114" t="n">
         <v>0.007</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="I114" t="n">
         <v>0.075</v>
       </c>
       <c r="J114" t="n">
-        <v>0.016</v>
+        <v>0.022</v>
       </c>
       <c r="K114" t="n">
         <v>-0.178</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.081</v>
+        <v>-0.082</v>
       </c>
       <c r="M114" t="n">
         <v>0.001</v>
@@ -41027,13 +41182,13 @@
         <v>-0.001</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.007</v>
+        <v>0.002</v>
       </c>
       <c r="P114" t="n">
         <v>0.003</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -41045,16 +41200,16 @@
         <v>0.011</v>
       </c>
       <c r="U114" t="n">
-        <v>0.097</v>
+        <v>0.093</v>
       </c>
       <c r="V114" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="W114" t="n">
-        <v>0.045</v>
+        <v>0.007</v>
       </c>
       <c r="X114" t="n">
-        <v>-0.247</v>
+        <v>-0.266</v>
       </c>
       <c r="Y114" t="n">
         <v>0.002</v>
@@ -41063,7 +41218,7 @@
         <v>0.003</v>
       </c>
       <c r="AA114" t="n">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="AB114" t="n">
         <v>0.001</v>
@@ -41072,52 +41227,52 @@
         <v>0.004</v>
       </c>
       <c r="AD114" t="n">
-        <v>-3.351</v>
+        <v>-3.325</v>
       </c>
       <c r="AE114" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="AF114" t="n">
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="AG114" t="n">
-        <v>32.243</v>
+        <v>32.398</v>
       </c>
       <c r="AH114" t="n">
-        <v>-1.022</v>
+        <v>-1.023</v>
       </c>
       <c r="AI114" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AJ114" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="AK114" t="n">
-        <v>-0.05</v>
+        <v>-0.049</v>
       </c>
       <c r="AL114" t="n">
-        <v>-0.254</v>
+        <v>-0.023</v>
       </c>
       <c r="AM114" t="n">
         <v>-0.002</v>
       </c>
       <c r="AN114" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AO114" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR114" t="n">
         <v>-0.012</v>
       </c>
-      <c r="AP114" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="AQ114" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="AR114" t="n">
-        <v>-0.023</v>
-      </c>
       <c r="AS114" t="n">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="AT114" t="n">
         <v>-0.007</v>
@@ -41126,34 +41281,34 @@
         <v>0.005</v>
       </c>
       <c r="AV114" t="n">
-        <v>-0.389</v>
+        <v>-0.39</v>
       </c>
       <c r="AW114" t="n">
-        <v>0.008</v>
+        <v>-0.008</v>
       </c>
       <c r="AX114" t="n">
         <v>-0.003</v>
       </c>
       <c r="AY114" t="n">
-        <v>0.065</v>
+        <v>0.062</v>
       </c>
       <c r="AZ114" t="n">
-        <v>2.164</v>
+        <v>2.337</v>
       </c>
       <c r="BA114" t="n">
-        <v>-0.113</v>
+        <v>-0.119</v>
       </c>
       <c r="BB114" t="n">
-        <v>-0.073</v>
+        <v>-0.123</v>
       </c>
       <c r="BC114" t="n">
         <v>-0.036</v>
       </c>
       <c r="BD114" t="n">
-        <v>-0.431</v>
+        <v>1.009</v>
       </c>
       <c r="BE114" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="BF114" t="n">
         <v>0.006</v>
@@ -41165,22 +41320,222 @@
         <v>0.012</v>
       </c>
       <c r="BI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>-0.194</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.562</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>-4.483</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>-0.194</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>3.532</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AP115" t="n">
         <v>-0.001</v>
       </c>
-      <c r="BJ114" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="BK114" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="BL114" t="n">
-        <v>-0.206</v>
-      </c>
-      <c r="BM114" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="BN114" t="n">
-        <v>0.003</v>
+      <c r="AQ115" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>-0.273</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>-0.423</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>3.997</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>-0.286</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>-0.234</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>-0.036</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>-0.036</v>
       </c>
     </row>
   </sheetData>
@@ -56742,16 +57097,16 @@
         <v>45627</v>
       </c>
       <c r="B109" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C109" t="n">
         <v>-0.01</v>
       </c>
       <c r="D109" t="n">
-        <v>0.93</v>
+        <v>1.16</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.46</v>
+        <v>-0.47</v>
       </c>
       <c r="F109" t="n">
         <v>0.23</v>
@@ -56760,49 +57115,49 @@
         <v>1.85</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="I109" t="n">
-        <v>-2.54</v>
+        <v>-2.55</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="L109" t="n">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>-7.36</v>
+        <v>-7.06</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T109" t="n">
         <v>-0.08</v>
       </c>
       <c r="U109" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="V109" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="W109" t="n">
         <v>0.19</v>
@@ -56826,16 +57181,16 @@
         <v>-0.14</v>
       </c>
       <c r="AD109" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="AE109" t="n">
-        <v>-1.14</v>
+        <v>-1.27</v>
       </c>
       <c r="AF109" t="n">
         <v>0.12</v>
       </c>
       <c r="AG109" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AH109" t="n">
         <v>-0.11</v>
@@ -56850,7 +57205,7 @@
         <v>0.08</v>
       </c>
       <c r="AL109" t="n">
-        <v>-0.37</v>
+        <v>-0.33</v>
       </c>
       <c r="AM109" t="n">
         <v>0.43</v>
@@ -56871,25 +57226,25 @@
         <v>0.32</v>
       </c>
       <c r="AS109" t="n">
-        <v>-4.28</v>
+        <v>-4.21</v>
       </c>
       <c r="AT109" t="n">
         <v>-0.28</v>
       </c>
       <c r="AU109" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AV109" t="n">
         <v>-0.01</v>
       </c>
       <c r="AW109" t="n">
-        <v>0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="AX109" t="n">
         <v>1.59</v>
       </c>
       <c r="AY109" t="n">
-        <v>-1.23</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="110">
@@ -57517,7 +57872,7 @@
         <v>45778</v>
       </c>
       <c r="B114" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C114" t="n">
         <v>0.01</v>
@@ -57529,7 +57884,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G114" t="n">
         <v>0.57</v>
@@ -57538,7 +57893,7 @@
         <v>-0.18</v>
       </c>
       <c r="I114" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -57547,46 +57902,46 @@
         <v>-0.07</v>
       </c>
       <c r="L114" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="M114" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
         <v>-0.02</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="P114" t="n">
         <v>0.02</v>
       </c>
       <c r="Q114" t="n">
-        <v>-4.22</v>
+        <v>-2.68</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="T114" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="U114" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="V114" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="W114" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="X114" t="n">
         <v>-0.11</v>
       </c>
-      <c r="X114" t="n">
+      <c r="Y114" t="n">
         <v>-0.1</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>-0.11</v>
       </c>
       <c r="Z114" t="n">
         <v>-0.03</v>
@@ -57604,19 +57959,19 @@
         <v>0</v>
       </c>
       <c r="AE114" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="AF114" t="n">
         <v>0.01</v>
       </c>
       <c r="AG114" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="AH114" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AI114" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="AJ114" t="n">
         <v>0.01</v>
@@ -57625,7 +57980,7 @@
         <v>0.01</v>
       </c>
       <c r="AL114" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AM114" t="n">
         <v>0.16</v>
@@ -57634,22 +57989,22 @@
         <v>0</v>
       </c>
       <c r="AO114" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AP114" t="n">
         <v>0.48</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AR114" t="n">
         <v>0.66</v>
       </c>
       <c r="AS114" t="n">
-        <v>-4.26</v>
+        <v>-3.16</v>
       </c>
       <c r="AT114" t="n">
-        <v>-0.99</v>
+        <v>-1.02</v>
       </c>
       <c r="AU114" t="n">
         <v>0.38</v>
@@ -57658,13 +58013,168 @@
         <v>0.03</v>
       </c>
       <c r="AW114" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="AX114" t="n">
         <v>-0.71</v>
       </c>
       <c r="AY114" t="n">
-        <v>-2.68</v>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L115" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W115" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>-0.81</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>

--- a/external_trade_excel2.xlsx
+++ b/external_trade_excel2.xlsx
@@ -15874,7 +15874,7 @@
         <v>1.29</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="AV98" t="n">
         <v>-0.08</v>
@@ -15886,7 +15886,7 @@
         <v>-0.14</v>
       </c>
       <c r="AY98" t="n">
-        <v>22.01</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="99">
@@ -16514,13 +16514,13 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="C103" t="n">
         <v>0.06</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.53</v>
+        <v>-1.52</v>
       </c>
       <c r="E103" t="n">
         <v>0.02</v>
@@ -16544,22 +16544,22 @@
         <v>-0.03</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.8</v>
+        <v>-0.72</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="N103" t="n">
         <v>-0.01</v>
       </c>
       <c r="O103" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P103" t="n">
         <v>-0.03</v>
       </c>
       <c r="Q103" t="n">
-        <v>-2.02</v>
+        <v>-1.99</v>
       </c>
       <c r="R103" t="n">
         <v>-0.09</v>
@@ -16574,7 +16574,7 @@
         <v>-0.05</v>
       </c>
       <c r="V103" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="W103" t="n">
         <v>-0.65</v>
@@ -16601,13 +16601,13 @@
         <v>0.29</v>
       </c>
       <c r="AE103" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AF103" t="n">
         <v>0.02</v>
       </c>
       <c r="AG103" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AH103" t="n">
         <v>0.46</v>
@@ -16622,7 +16622,7 @@
         <v>0.01</v>
       </c>
       <c r="AL103" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="AM103" t="n">
         <v>0.01</v>
@@ -16649,19 +16649,19 @@
         <v>-6.68</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AV103" t="n">
         <v>-0.08</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="AX103" t="n">
         <v>0.01</v>
       </c>
       <c r="AY103" t="n">
-        <v>-8.94</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="104">
@@ -16669,7 +16669,7 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="C104" t="n">
         <v>0.12</v>
@@ -16696,25 +16696,25 @@
         <v>0.01</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="L104" t="n">
-        <v>4.67</v>
+        <v>4.75</v>
       </c>
       <c r="M104" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N104" t="n">
         <v>-0.01</v>
       </c>
       <c r="O104" t="n">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="P104" t="n">
         <v>-0.03</v>
       </c>
       <c r="Q104" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="R104" t="n">
         <v>-0.12</v>
@@ -16723,13 +16723,13 @@
         <v>0.22</v>
       </c>
       <c r="T104" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="U104" t="n">
         <v>-0.03</v>
       </c>
       <c r="V104" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W104" t="n">
         <v>0.49</v>
@@ -16756,16 +16756,16 @@
         <v>0.44</v>
       </c>
       <c r="AE104" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="AF104" t="n">
         <v>0.04</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AH104" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AI104" t="n">
         <v>-0.01</v>
@@ -16777,7 +16777,7 @@
         <v>-0.05</v>
       </c>
       <c r="AL104" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AM104" t="n">
         <v>0.04</v>
@@ -16804,19 +16804,19 @@
         <v>-3.36</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AV104" t="n">
         <v>0.01</v>
       </c>
       <c r="AW104" t="n">
-        <v>-0.05</v>
+        <v>-0.12</v>
       </c>
       <c r="AX104" t="n">
         <v>1.53</v>
       </c>
       <c r="AY104" t="n">
-        <v>16.15</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="105">
@@ -16830,10 +16830,10 @@
         <v>0.02</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.52</v>
+        <v>-2.51</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>-0.2</v>
@@ -16854,22 +16854,22 @@
         <v>-0.26</v>
       </c>
       <c r="L105" t="n">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.37</v>
+        <v>0.04</v>
       </c>
       <c r="R105" t="n">
         <v>0.03</v>
@@ -16884,7 +16884,7 @@
         <v>-0.05</v>
       </c>
       <c r="V105" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="W105" t="n">
         <v>-0.78</v>
@@ -16911,7 +16911,7 @@
         <v>0.5</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AF105" t="n">
         <v>-0.05</v>
@@ -16932,7 +16932,7 @@
         <v>-0.07</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AM105" t="n">
         <v>-0.02</v>
@@ -16959,19 +16959,19 @@
         <v>-0.55</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AV105" t="n">
         <v>0.05</v>
       </c>
       <c r="AW105" t="n">
-        <v>-0.02</v>
+        <v>-0.09</v>
       </c>
       <c r="AX105" t="n">
         <v>0.01</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.78</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="106">
@@ -16985,7 +16985,7 @@
         <v>0.25</v>
       </c>
       <c r="D106" t="n">
-        <v>5.12</v>
+        <v>5.14</v>
       </c>
       <c r="E106" t="n">
         <v>0.01</v>
@@ -17009,22 +17009,22 @@
         <v>-0.4</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="N106" t="n">
         <v>-0.01</v>
       </c>
       <c r="O106" t="n">
-        <v>8.56</v>
+        <v>8.58</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>-1.09</v>
+        <v>-1.05</v>
       </c>
       <c r="R106" t="n">
         <v>-0.1</v>
@@ -17039,7 +17039,7 @@
         <v>-0.11</v>
       </c>
       <c r="V106" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W106" t="n">
         <v>0.14</v>
@@ -17048,7 +17048,7 @@
         <v>0.07</v>
       </c>
       <c r="Y106" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="Z106" t="n">
         <v>0.01</v>
@@ -17066,13 +17066,13 @@
         <v>0.49</v>
       </c>
       <c r="AE106" t="n">
-        <v>5.23</v>
+        <v>5.26</v>
       </c>
       <c r="AF106" t="n">
         <v>0</v>
       </c>
       <c r="AG106" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="AH106" t="n">
         <v>-0.06</v>
@@ -17087,7 +17087,7 @@
         <v>-0.38</v>
       </c>
       <c r="AL106" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AM106" t="n">
         <v>0.17</v>
@@ -17114,19 +17114,19 @@
         <v>-0.12</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="AV106" t="n">
         <v>0.01</v>
       </c>
       <c r="AW106" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="AX106" t="n">
         <v>0.47</v>
       </c>
       <c r="AY106" t="n">
-        <v>40</v>
+        <v>40.69</v>
       </c>
     </row>
     <row r="107">
@@ -17140,7 +17140,7 @@
         <v>0.12</v>
       </c>
       <c r="D107" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="E107" t="n">
         <v>-0.09</v>
@@ -17161,25 +17161,25 @@
         <v>-0.01</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="L107" t="n">
-        <v>-1.87</v>
+        <v>-1.83</v>
       </c>
       <c r="M107" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="P107" t="n">
         <v>0.03</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="R107" t="n">
         <v>0.12</v>
@@ -17194,7 +17194,7 @@
         <v>-0.04</v>
       </c>
       <c r="V107" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="W107" t="n">
         <v>-0.91</v>
@@ -17221,13 +17221,13 @@
         <v>0.48</v>
       </c>
       <c r="AE107" t="n">
-        <v>6.58</v>
+        <v>6.61</v>
       </c>
       <c r="AF107" t="n">
         <v>0.07</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AH107" t="n">
         <v>-0.45</v>
@@ -17242,7 +17242,7 @@
         <v>-0.02</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="AM107" t="n">
         <v>0.01</v>
@@ -17269,19 +17269,19 @@
         <v>1.03</v>
       </c>
       <c r="AU107" t="n">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="AV107" t="n">
         <v>0.02</v>
       </c>
       <c r="AW107" t="n">
-        <v>-0.02</v>
+        <v>-0.09</v>
       </c>
       <c r="AX107" t="n">
         <v>1.51</v>
       </c>
       <c r="AY107" t="n">
-        <v>20.81</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="108">
@@ -17289,13 +17289,13 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="C108" t="n">
         <v>-0.04</v>
       </c>
       <c r="D108" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="E108" t="n">
         <v>-0.02</v>
@@ -17316,28 +17316,28 @@
         <v>-0.01</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="L108" t="n">
-        <v>-4.9</v>
+        <v>-4.74</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="N108" t="n">
         <v>-0.01</v>
       </c>
       <c r="O108" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="P108" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="S108" t="n">
         <v>0.01</v>
@@ -17349,7 +17349,7 @@
         <v>0.08</v>
       </c>
       <c r="V108" t="n">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="W108" t="n">
         <v>-0.1</v>
@@ -17358,7 +17358,7 @@
         <v>0.5</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z108" t="n">
         <v>0.01</v>
@@ -17376,7 +17376,7 @@
         <v>0.1</v>
       </c>
       <c r="AE108" t="n">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
@@ -17397,13 +17397,13 @@
         <v>-0.12</v>
       </c>
       <c r="AL108" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AM108" t="n">
         <v>0.06</v>
       </c>
       <c r="AN108" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AO108" t="n">
         <v>0.01</v>
@@ -17424,19 +17424,19 @@
         <v>-2.65</v>
       </c>
       <c r="AU108" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AV108" t="n">
         <v>-0.01</v>
       </c>
       <c r="AW108" t="n">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="AX108" t="n">
         <v>0.87</v>
       </c>
       <c r="AY108" t="n">
-        <v>28.11</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="109">
@@ -17602,25 +17602,25 @@
         <v>0.03</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="D110" t="n">
-        <v>10.58</v>
+        <v>2.73</v>
       </c>
       <c r="E110" t="n">
         <v>0.03</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.27</v>
+        <v>-0.29</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.26</v>
+        <v>-0.33</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="I110" t="n">
-        <v>-1.21</v>
+        <v>-1.06</v>
       </c>
       <c r="J110" t="n">
         <v>-0.04</v>
@@ -17629,22 +17629,22 @@
         <v>-0.17</v>
       </c>
       <c r="L110" t="n">
-        <v>-3.31</v>
+        <v>-3.65</v>
       </c>
       <c r="M110" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N110" t="n">
         <v>-0.02</v>
       </c>
       <c r="O110" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="P110" t="n">
         <v>0.05</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.53</v>
+        <v>0.56</v>
       </c>
       <c r="R110" t="n">
         <v>-0.01</v>
@@ -17656,16 +17656,16 @@
         <v>0.15</v>
       </c>
       <c r="U110" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="V110" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="W110" t="n">
         <v>-0.68</v>
       </c>
       <c r="X110" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="Y110" t="n">
         <v>0</v>
@@ -17680,37 +17680,37 @@
         <v>0</v>
       </c>
       <c r="AC110" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AD110" t="n">
-        <v>-0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="AE110" t="n">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="AF110" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AG110" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AH110" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="AI110" t="n">
         <v>0</v>
       </c>
       <c r="AJ110" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AK110" t="n">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="AL110" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="AM110" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AN110" t="n">
         <v>-0.01</v>
@@ -17719,34 +17719,34 @@
         <v>0.01</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AR110" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AS110" t="n">
-        <v>28.33</v>
+        <v>31.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>-1.81</v>
+        <v>-1.79</v>
       </c>
       <c r="AU110" t="n">
-        <v>-0.06</v>
+        <v>0.12</v>
       </c>
       <c r="AV110" t="n">
         <v>0.02</v>
       </c>
       <c r="AW110" t="n">
-        <v>0.07</v>
+        <v>-0.05</v>
       </c>
       <c r="AX110" t="n">
-        <v>-0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AY110" t="n">
-        <v>36.83</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="111">
@@ -17757,25 +17757,25 @@
         <v>-0.05</v>
       </c>
       <c r="C111" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.01</v>
+        <v>-0.98</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="G111" t="n">
-        <v>-1.56</v>
+        <v>-1.66</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="I111" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="J111" t="n">
         <v>-0.01</v>
@@ -17784,25 +17784,25 @@
         <v>0.06</v>
       </c>
       <c r="L111" t="n">
-        <v>-1.37</v>
+        <v>-1.53</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="P111" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="Q111" t="n">
-        <v>-0.67</v>
+        <v>-0.71</v>
       </c>
       <c r="R111" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="S111" t="n">
         <v>0.01</v>
@@ -17814,13 +17814,13 @@
         <v>0.02</v>
       </c>
       <c r="V111" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="W111" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="X111" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Y111" t="n">
         <v>0</v>
@@ -17835,25 +17835,25 @@
         <v>-0.07</v>
       </c>
       <c r="AC111" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AD111" t="n">
         <v>0.13</v>
       </c>
       <c r="AE111" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="AF111" t="n">
-        <v>-0.07</v>
+        <v>-0.08</v>
       </c>
       <c r="AG111" t="n">
         <v>0.11</v>
       </c>
       <c r="AH111" t="n">
-        <v>-2.21</v>
+        <v>-2.2</v>
       </c>
       <c r="AI111" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AJ111" t="n">
         <v>0.35</v>
@@ -17862,10 +17862,10 @@
         <v>-0.04</v>
       </c>
       <c r="AL111" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AM111" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AN111" t="n">
         <v>0.03</v>
@@ -17874,34 +17874,34 @@
         <v>0.02</v>
       </c>
       <c r="AP111" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AW111" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AQ111" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AR111" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS111" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="AT111" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AU111" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AV111" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="AW111" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AX111" t="n">
-        <v>0.55</v>
+        <v>0.31</v>
       </c>
       <c r="AY111" t="n">
-        <v>58.24</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="112">
@@ -17909,28 +17909,28 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>-0.21</v>
       </c>
       <c r="D112" t="n">
-        <v>-3.25</v>
+        <v>-3.19</v>
       </c>
       <c r="E112" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="G112" t="n">
-        <v>-2.81</v>
+        <v>-2.83</v>
       </c>
       <c r="H112" t="n">
-        <v>-1.1</v>
+        <v>-1.14</v>
       </c>
       <c r="I112" t="n">
-        <v>-1.02</v>
+        <v>-1.09</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -17942,40 +17942,40 @@
         <v>-3.61</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="P112" t="n">
         <v>0.05</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="S112" t="n">
         <v>-0.01</v>
       </c>
       <c r="T112" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U112" t="n">
         <v>0.03</v>
       </c>
-      <c r="U112" t="n">
-        <v>0.15</v>
-      </c>
       <c r="V112" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="W112" t="n">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="X112" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="Y112" t="n">
         <v>0.01</v>
@@ -17990,34 +17990,34 @@
         <v>0</v>
       </c>
       <c r="AC112" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>-0.28</v>
+        <v>-0.31</v>
       </c>
       <c r="AE112" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AG112" t="n">
         <v>0.47</v>
       </c>
       <c r="AH112" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="AI112" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AJ112" t="n">
         <v>0.17</v>
       </c>
       <c r="AK112" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AL112" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AM112" t="n">
         <v>-0.05</v>
@@ -18032,31 +18032,31 @@
         <v>-0.03</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AR112" t="n">
         <v>-0.03</v>
       </c>
       <c r="AS112" t="n">
-        <v>107.39</v>
+        <v>105.9</v>
       </c>
       <c r="AT112" t="n">
-        <v>-2.94</v>
+        <v>-3.24</v>
       </c>
       <c r="AU112" t="n">
-        <v>0.07</v>
+        <v>0.12</v>
       </c>
       <c r="AV112" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="AW112" t="n">
-        <v>0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="AX112" t="n">
-        <v>0.58</v>
+        <v>0.24</v>
       </c>
       <c r="AY112" t="n">
-        <v>98.68</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="113">
@@ -18374,13 +18374,13 @@
         <v>45809</v>
       </c>
       <c r="B115" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="C115" t="n">
         <v>-0.21</v>
       </c>
       <c r="D115" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="E115" t="n">
         <v>0.06</v>
@@ -18395,31 +18395,31 @@
         <v>0.63</v>
       </c>
       <c r="I115" t="n">
-        <v>-1.67</v>
+        <v>-1.66</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="K115" t="n">
         <v>0.01</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.47</v>
+        <v>-0.76</v>
       </c>
       <c r="M115" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N115" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="P115" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="R115" t="n">
         <v>-0.02</v>
@@ -18428,22 +18428,22 @@
         <v>0.02</v>
       </c>
       <c r="T115" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>-0.34</v>
+        <v>-0.43</v>
       </c>
       <c r="W115" t="n">
-        <v>-0.34</v>
+        <v>-0.13</v>
       </c>
       <c r="X115" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z115" t="n">
         <v>0.04</v>
@@ -18458,19 +18458,19 @@
         <v>0.42</v>
       </c>
       <c r="AD115" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="AE115" t="n">
-        <v>5.55</v>
+        <v>5.68</v>
       </c>
       <c r="AF115" t="n">
         <v>0.26</v>
       </c>
       <c r="AG115" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AH115" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AI115" t="n">
         <v>-0.01</v>
@@ -18482,13 +18482,13 @@
         <v>0.01</v>
       </c>
       <c r="AL115" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AM115" t="n">
         <v>-0.02</v>
       </c>
       <c r="AN115" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO115" t="n">
         <v>-0.01</v>
@@ -18503,25 +18503,490 @@
         <v>0.04</v>
       </c>
       <c r="AS115" t="n">
-        <v>-7.95</v>
+        <v>-7.3</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="AU115" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="AV115" t="n">
         <v>0.02</v>
       </c>
       <c r="AW115" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="AX115" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="R116" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S116" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="U116" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="n">
         <v>0.03</v>
       </c>
-      <c r="AY115" t="n">
-        <v>4.81</v>
+      <c r="AC116" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>-5.87</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S117" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W117" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>-14.72</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>-6.92</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-7.66</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-3.26</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="V118" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>27.81</v>
       </c>
     </row>
   </sheetData>
@@ -37955,7 +38420,7 @@
         <v>0.048</v>
       </c>
       <c r="F98" t="n">
-        <v>0.19</v>
+        <v>0.007</v>
       </c>
       <c r="G98" t="n">
         <v>0.001</v>
@@ -38946,19 +39411,19 @@
         <v>-0.099</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.155</v>
+        <v>-0.151</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.219</v>
+        <v>-0.215</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.029</v>
+        <v>-0.018</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.026</v>
+        <v>-0.024</v>
       </c>
       <c r="G103" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="H103" t="n">
         <v>0.011</v>
@@ -38967,13 +39432,13 @@
         <v>0.005</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.024</v>
+        <v>-0.019</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.029</v>
+        <v>-0.027</v>
       </c>
       <c r="L103" t="n">
-        <v>0.142</v>
+        <v>0.145</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -38988,7 +39453,7 @@
         <v>0.001</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.014</v>
+        <v>-0.013</v>
       </c>
       <c r="R103" t="n">
         <v>0.006</v>
@@ -38997,10 +39462,10 @@
         <v>-0.009</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="U103" t="n">
-        <v>0.079</v>
+        <v>0.087</v>
       </c>
       <c r="V103" t="n">
         <v>-0.013</v>
@@ -39018,40 +39483,40 @@
         <v>-0.004</v>
       </c>
       <c r="AA103" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AB103" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AC103" t="n">
         <v>-0.001</v>
       </c>
       <c r="AD103" t="n">
-        <v>-5.157</v>
+        <v>-5.149</v>
       </c>
       <c r="AE103" t="n">
-        <v>-0.706</v>
+        <v>-0.705</v>
       </c>
       <c r="AF103" t="n">
         <v>-0.01</v>
       </c>
       <c r="AG103" t="n">
-        <v>-1.935</v>
+        <v>-1.89</v>
       </c>
       <c r="AH103" t="n">
-        <v>-0.419</v>
+        <v>-0.417</v>
       </c>
       <c r="AI103" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="AJ103" t="n">
-        <v>-0.043</v>
+        <v>-0.035</v>
       </c>
       <c r="AK103" t="n">
-        <v>-0.118</v>
+        <v>-0.111</v>
       </c>
       <c r="AL103" t="n">
-        <v>-0.581</v>
+        <v>-0.543</v>
       </c>
       <c r="AM103" t="n">
         <v>0.004</v>
@@ -39060,76 +39525,76 @@
         <v>-0.013</v>
       </c>
       <c r="AO103" t="n">
-        <v>-0.023</v>
+        <v>-0.018</v>
       </c>
       <c r="AP103" t="n">
         <v>-0.023</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AR103" t="n">
-        <v>-0.032</v>
+        <v>-0.024</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="AT103" t="n">
         <v>-0.01</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.01</v>
+        <v>0.028</v>
       </c>
       <c r="AV103" t="n">
-        <v>-0.361</v>
+        <v>-0.399</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.392</v>
+        <v>0.397</v>
       </c>
       <c r="AX103" t="n">
         <v>-0.005</v>
       </c>
       <c r="AY103" t="n">
-        <v>-0.247</v>
+        <v>-0.236</v>
       </c>
       <c r="AZ103" t="n">
-        <v>-0.109</v>
+        <v>-0.112</v>
       </c>
       <c r="BA103" t="n">
-        <v>0.052</v>
+        <v>0.046</v>
       </c>
       <c r="BB103" t="n">
-        <v>1.962</v>
+        <v>1.961</v>
       </c>
       <c r="BC103" t="n">
-        <v>-0.078</v>
+        <v>-0.075</v>
       </c>
       <c r="BD103" t="n">
-        <v>-0.214</v>
+        <v>-0.213</v>
       </c>
       <c r="BE103" t="n">
         <v>0.011</v>
       </c>
       <c r="BF103" t="n">
-        <v>-0.011</v>
+        <v>-0.01</v>
       </c>
       <c r="BG103" t="n">
         <v>-0.004</v>
       </c>
       <c r="BH103" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="BI103" t="n">
         <v>0.01</v>
       </c>
       <c r="BJ103" t="n">
-        <v>-0.139</v>
+        <v>-0.108</v>
       </c>
       <c r="BK103" t="n">
-        <v>-0.2</v>
+        <v>-0.191</v>
       </c>
       <c r="BL103" t="n">
-        <v>-0.133</v>
+        <v>-0.126</v>
       </c>
       <c r="BM103" t="n">
         <v>-0.266</v>
@@ -39143,37 +39608,37 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>0.077</v>
+        <v>0.075</v>
       </c>
       <c r="C104" t="n">
-        <v>0.122</v>
+        <v>0.129</v>
       </c>
       <c r="D104" t="n">
-        <v>0.253</v>
+        <v>0.259</v>
       </c>
       <c r="E104" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F104" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="G104" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="H104" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="I104" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="J104" t="n">
-        <v>0.006</v>
+        <v>0.018</v>
       </c>
       <c r="K104" t="n">
-        <v>0.133</v>
+        <v>0.134</v>
       </c>
       <c r="L104" t="n">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -39182,7 +39647,7 @@
         <v>-0.001</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -39197,13 +39662,13 @@
         <v>-0.007</v>
       </c>
       <c r="T104" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="U104" t="n">
-        <v>0.095</v>
+        <v>0.116</v>
       </c>
       <c r="V104" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="W104" t="n">
         <v>-0.002</v>
@@ -39218,7 +39683,7 @@
         <v>-0.022</v>
       </c>
       <c r="AA104" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="AB104" t="n">
         <v>0.004</v>
@@ -39227,31 +39692,31 @@
         <v>-0.001</v>
       </c>
       <c r="AD104" t="n">
-        <v>3.856</v>
+        <v>3.862</v>
       </c>
       <c r="AE104" t="n">
         <v>1.715</v>
       </c>
       <c r="AF104" t="n">
-        <v>-0.012</v>
+        <v>-0.01</v>
       </c>
       <c r="AG104" t="n">
-        <v>0.818</v>
+        <v>1.011</v>
       </c>
       <c r="AH104" t="n">
-        <v>1.323</v>
+        <v>1.325</v>
       </c>
       <c r="AI104" t="n">
-        <v>0.012</v>
+        <v>0.015</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0.058</v>
+        <v>0.076</v>
       </c>
       <c r="AK104" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="AL104" t="n">
-        <v>-0.32</v>
+        <v>-0.277</v>
       </c>
       <c r="AM104" t="n">
         <v>0.004</v>
@@ -39260,76 +39725,76 @@
         <v>0.017</v>
       </c>
       <c r="AO104" t="n">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AR104" t="n">
-        <v>0.052</v>
+        <v>0.063</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.071</v>
+        <v>0.094</v>
       </c>
       <c r="AV104" t="n">
-        <v>-0.126</v>
+        <v>-0.13</v>
       </c>
       <c r="AW104" t="n">
-        <v>-0.046</v>
+        <v>-0.041</v>
       </c>
       <c r="AX104" t="n">
         <v>-0.002</v>
       </c>
       <c r="AY104" t="n">
-        <v>0.1</v>
+        <v>0.113</v>
       </c>
       <c r="AZ104" t="n">
-        <v>1.266</v>
+        <v>1.225</v>
       </c>
       <c r="BA104" t="n">
-        <v>0.169</v>
+        <v>0.162</v>
       </c>
       <c r="BB104" t="n">
-        <v>2.424</v>
+        <v>2.423</v>
       </c>
       <c r="BC104" t="n">
-        <v>-0.059</v>
+        <v>-0.062</v>
       </c>
       <c r="BD104" t="n">
-        <v>-0.117</v>
+        <v>-0.079</v>
       </c>
       <c r="BE104" t="n">
         <v>0.021</v>
       </c>
       <c r="BF104" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="BG104" t="n">
-        <v>-0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="BH104" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="BI104" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="BJ104" t="n">
-        <v>1.776</v>
+        <v>1.797</v>
       </c>
       <c r="BK104" t="n">
-        <v>-0.051</v>
+        <v>-0.035</v>
       </c>
       <c r="BL104" t="n">
-        <v>0.887</v>
+        <v>0.901</v>
       </c>
       <c r="BM104" t="n">
         <v>0.959</v>
@@ -39343,37 +39808,37 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>0.069</v>
+        <v>0.068</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.028</v>
+        <v>-0.018</v>
       </c>
       <c r="D105" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E105" t="n">
-        <v>0.025</v>
+        <v>0.029</v>
       </c>
       <c r="F105" t="n">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
       <c r="G105" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="H105" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.021</v>
+        <v>-0.02</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.018</v>
+        <v>-0.006</v>
       </c>
       <c r="K105" t="n">
         <v>0.195</v>
       </c>
       <c r="L105" t="n">
-        <v>0.292</v>
+        <v>0.293</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -39388,7 +39853,7 @@
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="R105" t="n">
         <v>0.012</v>
@@ -39400,10 +39865,10 @@
         <v>0.018</v>
       </c>
       <c r="U105" t="n">
-        <v>0.164</v>
+        <v>0.172</v>
       </c>
       <c r="V105" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="W105" t="n">
         <v>-0.003</v>
@@ -39418,7 +39883,7 @@
         <v>-0.015</v>
       </c>
       <c r="AA105" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="AB105" t="n">
         <v>0.004</v>
@@ -39427,82 +39892,82 @@
         <v>-0.013</v>
       </c>
       <c r="AD105" t="n">
-        <v>-1.101</v>
+        <v>-1.093</v>
       </c>
       <c r="AE105" t="n">
-        <v>-1.18</v>
+        <v>-1.179</v>
       </c>
       <c r="AF105" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="AG105" t="n">
-        <v>8.409</v>
+        <v>8.453</v>
       </c>
       <c r="AH105" t="n">
-        <v>0.886</v>
+        <v>0.889</v>
       </c>
       <c r="AI105" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0.024</v>
+        <v>0.038</v>
       </c>
       <c r="AK105" t="n">
-        <v>-0.093</v>
+        <v>-0.09</v>
       </c>
       <c r="AL105" t="n">
-        <v>-0.19</v>
+        <v>-0.152</v>
       </c>
       <c r="AM105" t="n">
         <v>0</v>
       </c>
       <c r="AN105" t="n">
-        <v>-0.019</v>
+        <v>-0.02</v>
       </c>
       <c r="AO105" t="n">
-        <v>-0.029</v>
+        <v>-0.023</v>
       </c>
       <c r="AP105" t="n">
-        <v>-0.009</v>
+        <v>-0.011</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="AR105" t="n">
-        <v>-0.009</v>
+        <v>-0.001</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="AT105" t="n">
-        <v>-0.025</v>
+        <v>-0.021</v>
       </c>
       <c r="AU105" t="n">
-        <v>0.017</v>
+        <v>0.009</v>
       </c>
       <c r="AV105" t="n">
-        <v>-0.269</v>
+        <v>-0.273</v>
       </c>
       <c r="AW105" t="n">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
       <c r="AX105" t="n">
         <v>-0.007</v>
       </c>
       <c r="AY105" t="n">
-        <v>0.266</v>
+        <v>0.273</v>
       </c>
       <c r="AZ105" t="n">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="BA105" t="n">
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
       <c r="BB105" t="n">
-        <v>2.456</v>
+        <v>2.457</v>
       </c>
       <c r="BC105" t="n">
-        <v>0.039</v>
+        <v>-0.004</v>
       </c>
       <c r="BD105" t="n">
         <v>-2.74</v>
@@ -39511,25 +39976,25 @@
         <v>0.013</v>
       </c>
       <c r="BF105" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="BG105" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BH105" t="n">
-        <v>-0.012</v>
+        <v>-0.005</v>
       </c>
       <c r="BI105" t="n">
         <v>0.009</v>
       </c>
       <c r="BJ105" t="n">
-        <v>0.805</v>
+        <v>0.814</v>
       </c>
       <c r="BK105" t="n">
-        <v>-0.07</v>
+        <v>-0.064</v>
       </c>
       <c r="BL105" t="n">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="BM105" t="n">
         <v>-0.328</v>
@@ -39543,22 +40008,22 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.356</v>
+        <v>-0.354</v>
       </c>
       <c r="C106" t="n">
-        <v>0.105</v>
+        <v>0.117</v>
       </c>
       <c r="D106" t="n">
         <v>0.218</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.031</v>
+        <v>-0.028</v>
       </c>
       <c r="F106" t="n">
-        <v>0.069</v>
+        <v>0.073</v>
       </c>
       <c r="G106" t="n">
-        <v>0.065</v>
+        <v>0.07</v>
       </c>
       <c r="H106" t="n">
         <v>0.005</v>
@@ -39567,13 +40032,13 @@
         <v>0.082</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04</v>
+        <v>0.049</v>
       </c>
       <c r="K106" t="n">
         <v>0.125</v>
       </c>
       <c r="L106" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -39585,10 +40050,10 @@
         <v>-0.009</v>
       </c>
       <c r="P106" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="R106" t="n">
         <v>0.006</v>
@@ -39600,10 +40065,10 @@
         <v>0.004</v>
       </c>
       <c r="U106" t="n">
-        <v>0.255</v>
+        <v>0.256</v>
       </c>
       <c r="V106" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="W106" t="n">
         <v>-0.003</v>
@@ -39618,7 +40083,7 @@
         <v>-0.006</v>
       </c>
       <c r="AA106" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AB106" t="n">
         <v>0.003</v>
@@ -39627,31 +40092,31 @@
         <v>-0.013</v>
       </c>
       <c r="AD106" t="n">
-        <v>6.191</v>
+        <v>6.201</v>
       </c>
       <c r="AE106" t="n">
         <v>-0.515</v>
       </c>
       <c r="AF106" t="n">
-        <v>-0.02</v>
+        <v>-0.017</v>
       </c>
       <c r="AG106" t="n">
-        <v>29.192</v>
+        <v>29.756</v>
       </c>
       <c r="AH106" t="n">
-        <v>0.641</v>
+        <v>0.643</v>
       </c>
       <c r="AI106" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="AJ106" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="AK106" t="n">
         <v>-0.049</v>
       </c>
       <c r="AL106" t="n">
-        <v>-0.478</v>
+        <v>-0.426</v>
       </c>
       <c r="AM106" t="n">
         <v>0.001</v>
@@ -39660,49 +40125,49 @@
         <v>-0.034</v>
       </c>
       <c r="AO106" t="n">
-        <v>0.009</v>
+        <v>0.022</v>
       </c>
       <c r="AP106" t="n">
         <v>0.014</v>
       </c>
       <c r="AQ106" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AU106" t="n">
         <v>0.008</v>
       </c>
-      <c r="AR106" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="AS106" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AT106" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="AU106" t="n">
-        <v>0.011</v>
-      </c>
       <c r="AV106" t="n">
-        <v>-0.533</v>
+        <v>-0.589</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
       <c r="AX106" t="n">
         <v>-0.006</v>
       </c>
       <c r="AY106" t="n">
-        <v>-0.043</v>
+        <v>-0.038</v>
       </c>
       <c r="AZ106" t="n">
         <v>0.249</v>
       </c>
       <c r="BA106" t="n">
-        <v>-0.006</v>
+        <v>-0.013</v>
       </c>
       <c r="BB106" t="n">
-        <v>1.813</v>
+        <v>1.814</v>
       </c>
       <c r="BC106" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="BD106" t="n">
         <v>1.343</v>
@@ -39714,22 +40179,22 @@
         <v>-0.012</v>
       </c>
       <c r="BG106" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="BH106" t="n">
-        <v>0.009</v>
+        <v>0.014</v>
       </c>
       <c r="BI106" t="n">
         <v>0.006</v>
       </c>
       <c r="BJ106" t="n">
-        <v>0.563</v>
+        <v>0.58</v>
       </c>
       <c r="BK106" t="n">
-        <v>-0.046</v>
+        <v>-0.04</v>
       </c>
       <c r="BL106" t="n">
-        <v>0.647</v>
+        <v>0.662</v>
       </c>
       <c r="BM106" t="n">
         <v>-0.002</v>
@@ -39743,31 +40208,31 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>0.255</v>
+        <v>0.266</v>
       </c>
       <c r="C107" t="n">
-        <v>0.221</v>
+        <v>0.23</v>
       </c>
       <c r="D107" t="n">
         <v>0.769</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.042</v>
+        <v>-0.028</v>
       </c>
       <c r="F107" t="n">
-        <v>0.071</v>
+        <v>0.072</v>
       </c>
       <c r="G107" t="n">
         <v>0.061</v>
       </c>
       <c r="H107" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="I107" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="J107" t="n">
-        <v>0.027</v>
+        <v>0.036</v>
       </c>
       <c r="K107" t="n">
         <v>0.228</v>
@@ -39788,7 +40253,7 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="R107" t="n">
         <v>0.048</v>
@@ -39800,10 +40265,10 @@
         <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>0.062</v>
+        <v>0.07</v>
       </c>
       <c r="V107" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="W107" t="n">
         <v>0</v>
@@ -39818,7 +40283,7 @@
         <v>0.01</v>
       </c>
       <c r="AA107" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="AB107" t="n">
         <v>0</v>
@@ -39827,31 +40292,31 @@
         <v>0</v>
       </c>
       <c r="AD107" t="n">
-        <v>-4.65</v>
+        <v>-4.613</v>
       </c>
       <c r="AE107" t="n">
         <v>-0.172</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="AG107" t="n">
-        <v>20.148</v>
+        <v>20.237</v>
       </c>
       <c r="AH107" t="n">
-        <v>1.023</v>
+        <v>1.025</v>
       </c>
       <c r="AI107" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="AJ107" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="AK107" t="n">
-        <v>0.034</v>
+        <v>0.042</v>
       </c>
       <c r="AL107" t="n">
-        <v>-0.192</v>
+        <v>-0.146</v>
       </c>
       <c r="AM107" t="n">
         <v>0.001</v>
@@ -39860,49 +40325,49 @@
         <v>-0.032</v>
       </c>
       <c r="AO107" t="n">
-        <v>0.003</v>
+        <v>0.015</v>
       </c>
       <c r="AP107" t="n">
         <v>0.01</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.009</v>
+        <v>0.011</v>
       </c>
       <c r="AR107" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="AT107" t="n">
-        <v>-0.041</v>
+        <v>-0.039</v>
       </c>
       <c r="AU107" t="n">
         <v>0.021</v>
       </c>
       <c r="AV107" t="n">
-        <v>0.663</v>
+        <v>0.657</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="AX107" t="n">
         <v>0.001</v>
       </c>
       <c r="AY107" t="n">
-        <v>0.147</v>
+        <v>0.145</v>
       </c>
       <c r="AZ107" t="n">
-        <v>0.543</v>
+        <v>0.544</v>
       </c>
       <c r="BA107" t="n">
-        <v>0.253</v>
+        <v>0.211</v>
       </c>
       <c r="BB107" t="n">
-        <v>2.427</v>
+        <v>2.422</v>
       </c>
       <c r="BC107" t="n">
-        <v>-0.019</v>
+        <v>-0.02</v>
       </c>
       <c r="BD107" t="n">
         <v>-2.293</v>
@@ -39914,22 +40379,22 @@
         <v>0.017</v>
       </c>
       <c r="BG107" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="BH107" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="BI107" t="n">
         <v>0.014</v>
       </c>
       <c r="BJ107" t="n">
-        <v>0.187</v>
+        <v>0.207</v>
       </c>
       <c r="BK107" t="n">
-        <v>0.021</v>
+        <v>0.028</v>
       </c>
       <c r="BL107" t="n">
-        <v>0.926</v>
+        <v>0.944</v>
       </c>
       <c r="BM107" t="n">
         <v>0.016</v>
@@ -39943,19 +40408,19 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.055</v>
+        <v>-0.045</v>
       </c>
       <c r="C108" t="n">
-        <v>0.127</v>
+        <v>0.13</v>
       </c>
       <c r="D108" t="n">
-        <v>0.596</v>
+        <v>0.631</v>
       </c>
       <c r="E108" t="n">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="F108" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="G108" t="n">
         <v>0.066</v>
@@ -39967,7 +40432,7 @@
         <v>-0.003</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="K108" t="n">
         <v>-0.223</v>
@@ -40000,10 +40465,10 @@
         <v>0.009</v>
       </c>
       <c r="U108" t="n">
-        <v>0.474</v>
+        <v>0.502</v>
       </c>
       <c r="V108" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="W108" t="n">
         <v>-0.008</v>
@@ -40018,7 +40483,7 @@
         <v>-0.004</v>
       </c>
       <c r="AA108" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="AB108" t="n">
         <v>0</v>
@@ -40027,7 +40492,7 @@
         <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>-3.705</v>
+        <v>-3.617</v>
       </c>
       <c r="AE108" t="n">
         <v>-0.962</v>
@@ -40036,22 +40501,22 @@
         <v>-0.008</v>
       </c>
       <c r="AG108" t="n">
-        <v>26.318</v>
+        <v>26.528</v>
       </c>
       <c r="AH108" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="AI108" t="n">
         <v>0.001</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0.039</v>
+        <v>0.048</v>
       </c>
       <c r="AK108" t="n">
         <v>-0.003</v>
       </c>
       <c r="AL108" t="n">
-        <v>-0.501</v>
+        <v>-0.45</v>
       </c>
       <c r="AM108" t="n">
         <v>0</v>
@@ -40060,16 +40525,16 @@
         <v>0.002</v>
       </c>
       <c r="AO108" t="n">
-        <v>-0.012</v>
+        <v>-0.002</v>
       </c>
       <c r="AP108" t="n">
         <v>0.011</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="AR108" t="n">
-        <v>-0.05</v>
+        <v>-0.046</v>
       </c>
       <c r="AS108" t="n">
         <v>0.033</v>
@@ -40078,28 +40543,28 @@
         <v>-0.059</v>
       </c>
       <c r="AU108" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AV108" t="n">
-        <v>-0.079</v>
+        <v>-0.081</v>
       </c>
       <c r="AW108" t="n">
-        <v>0.203</v>
+        <v>0.207</v>
       </c>
       <c r="AX108" t="n">
         <v>-0.001</v>
       </c>
       <c r="AY108" t="n">
-        <v>-0.009</v>
+        <v>-0.063</v>
       </c>
       <c r="AZ108" t="n">
         <v>1.357</v>
       </c>
       <c r="BA108" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="BB108" t="n">
-        <v>2.345</v>
+        <v>2.342</v>
       </c>
       <c r="BC108" t="n">
         <v>-0.016</v>
@@ -40114,7 +40579,7 @@
         <v>0.004</v>
       </c>
       <c r="BG108" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="BH108" t="n">
         <v>-0.014</v>
@@ -40123,19 +40588,19 @@
         <v>0.006</v>
       </c>
       <c r="BJ108" t="n">
-        <v>0.154</v>
+        <v>0.187</v>
       </c>
       <c r="BK108" t="n">
-        <v>-0.07</v>
+        <v>-0.069</v>
       </c>
       <c r="BL108" t="n">
-        <v>0.107</v>
+        <v>0.115</v>
       </c>
       <c r="BM108" t="n">
-        <v>0.002</v>
+        <v>0.016</v>
       </c>
       <c r="BN108" t="n">
-        <v>0.002</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="109">
@@ -40343,43 +40808,43 @@
         <v>45658</v>
       </c>
       <c r="B110" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.121</v>
+        <v>0.193</v>
       </c>
       <c r="D110" t="n">
-        <v>0.419</v>
+        <v>0.376</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.022</v>
+        <v>-0.011</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.18</v>
+        <v>-0.008</v>
       </c>
       <c r="G110" t="n">
-        <v>0.029</v>
+        <v>0.037</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.005</v>
+        <v>0.003</v>
       </c>
       <c r="I110" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="J110" t="n">
-        <v>0.002</v>
+        <v>-0.018</v>
       </c>
       <c r="K110" t="n">
-        <v>0.195</v>
+        <v>0.203</v>
       </c>
       <c r="L110" t="n">
-        <v>0.049</v>
+        <v>0.065</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O110" t="n">
         <v>-0.01</v>
@@ -40388,37 +40853,37 @@
         <v>-0.002</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="R110" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S110" t="n">
         <v>0.002</v>
       </c>
       <c r="T110" t="n">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="U110" t="n">
-        <v>0.438</v>
+        <v>0.477</v>
       </c>
       <c r="V110" t="n">
-        <v>-0.009</v>
+        <v>-0.007</v>
       </c>
       <c r="W110" t="n">
         <v>-0.001</v>
       </c>
       <c r="X110" t="n">
-        <v>0.08</v>
+        <v>-0.069</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.156</v>
+        <v>0.021</v>
       </c>
       <c r="Z110" t="n">
         <v>0.051</v>
       </c>
       <c r="AA110" t="n">
-        <v>-0.008</v>
+        <v>-0.011</v>
       </c>
       <c r="AB110" t="n">
         <v>-0.002</v>
@@ -40427,115 +40892,115 @@
         <v>-0.001</v>
       </c>
       <c r="AD110" t="n">
-        <v>-4.824</v>
+        <v>-5.389</v>
       </c>
       <c r="AE110" t="n">
-        <v>-0.17</v>
+        <v>-0.168</v>
       </c>
       <c r="AF110" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="AG110" t="n">
-        <v>39.082</v>
+        <v>33.905</v>
       </c>
       <c r="AH110" t="n">
-        <v>0.084</v>
+        <v>0.04</v>
       </c>
       <c r="AI110" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="AJ110" t="n">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="AK110" t="n">
-        <v>-0.047</v>
+        <v>-0.045</v>
       </c>
       <c r="AL110" t="n">
-        <v>0.221</v>
+        <v>0.174</v>
       </c>
       <c r="AM110" t="n">
         <v>0.001</v>
       </c>
       <c r="AN110" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="AO110" t="n">
-        <v>-0.023</v>
+        <v>-0.012</v>
       </c>
       <c r="AP110" t="n">
-        <v>-0.005</v>
+        <v>-0.008</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.031</v>
+        <v>0.024</v>
       </c>
       <c r="AR110" t="n">
-        <v>-0.063</v>
+        <v>-0.047</v>
       </c>
       <c r="AS110" t="n">
-        <v>-0.087</v>
+        <v>-0.088</v>
       </c>
       <c r="AT110" t="n">
-        <v>-0.018</v>
+        <v>-0.019</v>
       </c>
       <c r="AU110" t="n">
-        <v>-0.247</v>
+        <v>-0.242</v>
       </c>
       <c r="AV110" t="n">
-        <v>-0.128</v>
+        <v>-0.025</v>
       </c>
       <c r="AW110" t="n">
-        <v>0.019</v>
+        <v>-0.001</v>
       </c>
       <c r="AX110" t="n">
         <v>0.002</v>
       </c>
       <c r="AY110" t="n">
-        <v>0.137</v>
+        <v>0.111</v>
       </c>
       <c r="AZ110" t="n">
-        <v>1.606</v>
+        <v>1.587</v>
       </c>
       <c r="BA110" t="n">
-        <v>0.103</v>
+        <v>0.051</v>
       </c>
       <c r="BB110" t="n">
-        <v>0.484</v>
+        <v>0.697</v>
       </c>
       <c r="BC110" t="n">
-        <v>-0.023</v>
+        <v>-0.028</v>
       </c>
       <c r="BD110" t="n">
-        <v>-1.253</v>
+        <v>-1.229</v>
       </c>
       <c r="BE110" t="n">
-        <v>0.024</v>
+        <v>0.046</v>
       </c>
       <c r="BF110" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="BG110" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="BH110" t="n">
-        <v>-0.004</v>
+        <v>-0.01</v>
       </c>
       <c r="BI110" t="n">
         <v>-0.002</v>
       </c>
       <c r="BJ110" t="n">
-        <v>-0.459</v>
+        <v>-0.361</v>
       </c>
       <c r="BK110" t="n">
-        <v>0.189</v>
+        <v>0.214</v>
       </c>
       <c r="BL110" t="n">
-        <v>0.924</v>
+        <v>0.966</v>
       </c>
       <c r="BM110" t="n">
-        <v>-0.186</v>
+        <v>0.247</v>
       </c>
       <c r="BN110" t="n">
-        <v>-0.186</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="111">
@@ -40543,37 +41008,37 @@
         <v>45689</v>
       </c>
       <c r="B111" t="n">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="C111" t="n">
-        <v>0.28</v>
+        <v>0.252</v>
       </c>
       <c r="D111" t="n">
-        <v>0.322</v>
+        <v>0.27</v>
       </c>
       <c r="E111" t="n">
-        <v>0.02</v>
+        <v>0.042</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.032</v>
+        <v>-0.035</v>
       </c>
       <c r="G111" t="n">
         <v>0.028</v>
       </c>
       <c r="H111" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="I111" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="J111" t="n">
-        <v>0.058</v>
+        <v>0.048</v>
       </c>
       <c r="K111" t="n">
-        <v>0.143</v>
+        <v>0.114</v>
       </c>
       <c r="L111" t="n">
-        <v>0.124</v>
+        <v>0.117</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -40582,34 +41047,34 @@
         <v>-0.008</v>
       </c>
       <c r="O111" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="P111" t="n">
         <v>0.001</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.028</v>
+        <v>0.02</v>
       </c>
       <c r="R111" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="S111" t="n">
         <v>-0.008</v>
       </c>
       <c r="T111" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="U111" t="n">
-        <v>0.42</v>
+        <v>0.416</v>
       </c>
       <c r="V111" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="W111" t="n">
         <v>0</v>
       </c>
       <c r="X111" t="n">
-        <v>0.056</v>
+        <v>-0.307</v>
       </c>
       <c r="Y111" t="n">
         <v>0.025</v>
@@ -40618,118 +41083,118 @@
         <v>0.051</v>
       </c>
       <c r="AA111" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="AB111" t="n">
         <v>-0.003</v>
       </c>
       <c r="AC111" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="AD111" t="n">
-        <v>-5.521</v>
+        <v>-5.539</v>
       </c>
       <c r="AE111" t="n">
-        <v>-1.053</v>
+        <v>-1.055</v>
       </c>
       <c r="AF111" t="n">
-        <v>-0.002</v>
+        <v>-0.007</v>
       </c>
       <c r="AG111" t="n">
-        <v>61.495</v>
+        <v>60.889</v>
       </c>
       <c r="AH111" t="n">
-        <v>0.103</v>
+        <v>0.059</v>
       </c>
       <c r="AI111" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="AJ111" t="n">
-        <v>-0.037</v>
+        <v>-0.034</v>
       </c>
       <c r="AK111" t="n">
-        <v>-0.01</v>
+        <v>-0.016</v>
       </c>
       <c r="AL111" t="n">
-        <v>-0.155</v>
+        <v>-0.168</v>
       </c>
       <c r="AM111" t="n">
         <v>-0.002</v>
       </c>
       <c r="AN111" t="n">
-        <v>-0.01</v>
+        <v>-0.019</v>
       </c>
       <c r="AO111" t="n">
-        <v>-0.034</v>
+        <v>-0.038</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.026</v>
+        <v>0.022</v>
       </c>
       <c r="AR111" t="n">
-        <v>-0.046</v>
+        <v>-0.062</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="AT111" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AV111" t="n">
         <v>-0.016</v>
       </c>
-      <c r="AU111" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="AV111" t="n">
-        <v>0.082</v>
-      </c>
       <c r="AW111" t="n">
-        <v>0.055</v>
+        <v>0.035</v>
       </c>
       <c r="AX111" t="n">
         <v>-0.007</v>
       </c>
       <c r="AY111" t="n">
-        <v>0.191</v>
+        <v>-0.014</v>
       </c>
       <c r="AZ111" t="n">
-        <v>1.126</v>
+        <v>1.054</v>
       </c>
       <c r="BA111" t="n">
-        <v>0.027</v>
+        <v>-0.01</v>
       </c>
       <c r="BB111" t="n">
-        <v>1.689</v>
+        <v>1.616</v>
       </c>
       <c r="BC111" t="n">
-        <v>-0.019</v>
+        <v>-0.028</v>
       </c>
       <c r="BD111" t="n">
-        <v>-1.555</v>
+        <v>-1.177</v>
       </c>
       <c r="BE111" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="BF111" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="BG111" t="n">
         <v>-0.003</v>
       </c>
       <c r="BH111" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="BI111" t="n">
         <v>0.001</v>
       </c>
       <c r="BJ111" t="n">
-        <v>-0.149</v>
+        <v>-0.184</v>
       </c>
       <c r="BK111" t="n">
-        <v>-0.064</v>
+        <v>-0.077</v>
       </c>
       <c r="BL111" t="n">
-        <v>0.233</v>
+        <v>0.154</v>
       </c>
       <c r="BM111" t="n">
         <v>0.02</v>
@@ -40743,43 +41208,43 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>0.02</v>
+        <v>0.052</v>
       </c>
       <c r="C112" t="n">
-        <v>0.279</v>
+        <v>0.201</v>
       </c>
       <c r="D112" t="n">
-        <v>0.535</v>
+        <v>0.499</v>
       </c>
       <c r="E112" t="n">
-        <v>0.095</v>
+        <v>0.12</v>
       </c>
       <c r="F112" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="H112" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="I112" t="n">
-        <v>0.085</v>
+        <v>0.091</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.003</v>
+        <v>-0.019</v>
       </c>
       <c r="K112" t="n">
-        <v>0.053</v>
+        <v>0.021</v>
       </c>
       <c r="L112" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
         <v>-0.006</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>-0.005</v>
       </c>
       <c r="O112" t="n">
         <v>0.016</v>
@@ -40788,28 +41253,28 @@
         <v>0.001</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="R112" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="S112" t="n">
         <v>-0.005</v>
       </c>
       <c r="T112" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="U112" t="n">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="V112" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="W112" t="n">
         <v>0.001</v>
       </c>
       <c r="X112" t="n">
-        <v>-0.197</v>
+        <v>-0.441</v>
       </c>
       <c r="Y112" t="n">
         <v>0.017</v>
@@ -40818,7 +41283,7 @@
         <v>0.004</v>
       </c>
       <c r="AA112" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="AB112" t="n">
         <v>0.002</v>
@@ -40827,88 +41292,88 @@
         <v>0.004</v>
       </c>
       <c r="AD112" t="n">
-        <v>8.379</v>
+        <v>7.776</v>
       </c>
       <c r="AE112" t="n">
-        <v>-1.379</v>
+        <v>-1.382</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="AG112" t="n">
-        <v>87.523</v>
+        <v>86.702</v>
       </c>
       <c r="AH112" t="n">
-        <v>0.564</v>
+        <v>0.452</v>
       </c>
       <c r="AI112" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AJ112" t="n">
         <v>0.029</v>
       </c>
       <c r="AK112" t="n">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
       <c r="AL112" t="n">
-        <v>0.041</v>
+        <v>0.003</v>
       </c>
       <c r="AM112" t="n">
         <v>0.002</v>
       </c>
       <c r="AN112" t="n">
-        <v>0.031</v>
+        <v>0.01</v>
       </c>
       <c r="AO112" t="n">
-        <v>-0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="AP112" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="AS112" t="n">
         <v>-0.003</v>
       </c>
-      <c r="AQ112" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="AR112" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AS112" t="n">
-        <v>0.013</v>
-      </c>
       <c r="AT112" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AU112" t="n">
-        <v>0.042</v>
+        <v>0.03</v>
       </c>
       <c r="AV112" t="n">
-        <v>0.173</v>
+        <v>0.024</v>
       </c>
       <c r="AW112" t="n">
-        <v>0.268</v>
+        <v>0.267</v>
       </c>
       <c r="AX112" t="n">
         <v>-0.001</v>
       </c>
       <c r="AY112" t="n">
-        <v>0.238</v>
+        <v>0.011</v>
       </c>
       <c r="AZ112" t="n">
-        <v>1.473</v>
+        <v>1.346</v>
       </c>
       <c r="BA112" t="n">
-        <v>0.013</v>
+        <v>-0.023</v>
       </c>
       <c r="BB112" t="n">
-        <v>0.728</v>
+        <v>0.621</v>
       </c>
       <c r="BC112" t="n">
         <v>-0.041</v>
       </c>
       <c r="BD112" t="n">
-        <v>-1.191</v>
+        <v>-1.187</v>
       </c>
       <c r="BE112" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="BF112" t="n">
         <v>0.025</v>
@@ -40917,25 +41382,25 @@
         <v>0.001</v>
       </c>
       <c r="BH112" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="BI112" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="BJ112" t="n">
-        <v>-0.173</v>
+        <v>-0.207</v>
       </c>
       <c r="BK112" t="n">
-        <v>0.023</v>
+        <v>-0.01</v>
       </c>
       <c r="BL112" t="n">
-        <v>0.582</v>
+        <v>0.561</v>
       </c>
       <c r="BM112" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="BN112" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="113">
@@ -41343,52 +41808,52 @@
         <v>45809</v>
       </c>
       <c r="B115" t="n">
-        <v>0.033</v>
+        <v>0.028</v>
       </c>
       <c r="C115" t="n">
-        <v>0.644</v>
+        <v>0.641</v>
       </c>
       <c r="D115" t="n">
-        <v>0.562</v>
+        <v>0.568</v>
       </c>
       <c r="E115" t="n">
-        <v>0.086</v>
+        <v>0.07</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G115" t="n">
-        <v>0.076</v>
+        <v>0.073</v>
       </c>
       <c r="H115" t="n">
         <v>0.01</v>
       </c>
       <c r="I115" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="J115" t="n">
-        <v>0.026</v>
+        <v>0.02</v>
       </c>
       <c r="K115" t="n">
-        <v>0.055</v>
+        <v>0.053</v>
       </c>
       <c r="L115" t="n">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>-0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="O115" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.026</v>
+        <v>0.022</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
@@ -41397,145 +41862,745 @@
         <v>-0.008</v>
       </c>
       <c r="T115" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="U115" t="n">
-        <v>0.129</v>
+        <v>0.148</v>
       </c>
       <c r="V115" t="n">
         <v>0.019</v>
       </c>
       <c r="W115" t="n">
-        <v>0.031</v>
+        <v>0.009</v>
       </c>
       <c r="X115" t="n">
-        <v>0.113</v>
+        <v>0.101</v>
       </c>
       <c r="Y115" t="n">
-        <v>-0.027</v>
+        <v>-0.026</v>
       </c>
       <c r="Z115" t="n">
         <v>0.01</v>
       </c>
       <c r="AA115" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="AB115" t="n">
         <v>0.004</v>
       </c>
       <c r="AC115" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AD115" t="n">
-        <v>-4.483</v>
+        <v>-4.515</v>
       </c>
       <c r="AE115" t="n">
-        <v>-0.194</v>
+        <v>-0.198</v>
       </c>
       <c r="AF115" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AG115" t="n">
-        <v>3.532</v>
+        <v>3.37</v>
       </c>
       <c r="AH115" t="n">
-        <v>-0.33</v>
+        <v>-0.332</v>
       </c>
       <c r="AI115" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="AJ115" t="n">
-        <v>0.018</v>
+        <v>0.009</v>
       </c>
       <c r="AK115" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="AL115" t="n">
-        <v>0.201</v>
+        <v>-0.078</v>
       </c>
       <c r="AM115" t="n">
         <v>-0.004</v>
       </c>
       <c r="AN115" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="AO115" t="n">
-        <v>-0.003</v>
+        <v>-0.009</v>
       </c>
       <c r="AP115" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AR115" t="n">
-        <v>-0.02</v>
+        <v>-0.037</v>
       </c>
       <c r="AS115" t="n">
         <v>-0.007</v>
       </c>
       <c r="AT115" t="n">
-        <v>-0.018</v>
+        <v>-0.016</v>
       </c>
       <c r="AU115" t="n">
-        <v>-0.008</v>
+        <v>-0.028</v>
       </c>
       <c r="AV115" t="n">
-        <v>-0.273</v>
+        <v>-0.181</v>
       </c>
       <c r="AW115" t="n">
-        <v>-0.423</v>
+        <v>-0.431</v>
       </c>
       <c r="AX115" t="n">
         <v>-0.005</v>
       </c>
       <c r="AY115" t="n">
-        <v>0.288</v>
+        <v>0.284</v>
       </c>
       <c r="AZ115" t="n">
-        <v>3.997</v>
+        <v>2.301</v>
       </c>
       <c r="BA115" t="n">
-        <v>0.327</v>
+        <v>0.309</v>
       </c>
       <c r="BB115" t="n">
         <v>0.062</v>
       </c>
       <c r="BC115" t="n">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
       <c r="BD115" t="n">
-        <v>-0.286</v>
+        <v>0.557</v>
       </c>
       <c r="BE115" t="n">
         <v>0.006</v>
       </c>
       <c r="BF115" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="BG115" t="n">
         <v>0</v>
       </c>
       <c r="BH115" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="BI115" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="BJ115" t="n">
-        <v>0.265</v>
+        <v>0.049</v>
       </c>
       <c r="BK115" t="n">
-        <v>0.184</v>
+        <v>0.181</v>
       </c>
       <c r="BL115" t="n">
-        <v>-0.234</v>
+        <v>-0.246</v>
       </c>
       <c r="BM115" t="n">
         <v>-0.036</v>
       </c>
       <c r="BN115" t="n">
         <v>-0.036</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.053</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="U116" t="n">
+        <v>-0.093</v>
+      </c>
+      <c r="V116" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>-5.895</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>-0.946</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>-1.196</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>-0.071</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>-0.084</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>-0.211</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>2.993</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.184</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>-0.513</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>-0.173</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.054</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-0.161</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R117" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="T117" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="U117" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="V117" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="W117" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="X117" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>-9.66</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>-1.747</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>-0.054</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>-0.374</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>-0.084</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>-0.146</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>-0.923</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>-0.037</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>-0.634</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="U118" t="n">
+        <v>-0.037</v>
+      </c>
+      <c r="V118" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>-0.094</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>-11.464</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>35.446</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>-0.931</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>-0.239</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>-0.084</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.328</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>-1.702</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>-0.158</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>-0.004</v>
       </c>
     </row>
   </sheetData>
@@ -56173,7 +57238,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="E103" t="n">
         <v>-0.01</v>
@@ -56188,7 +57253,7 @@
         <v>-4.3</v>
       </c>
       <c r="I103" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -56197,25 +57262,25 @@
         <v>-0.05</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.38</v>
+        <v>-0.3</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="P103" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q103" t="n">
-        <v>-3.75</v>
+        <v>-3.66</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.08</v>
+        <v>-0.07</v>
       </c>
       <c r="S103" t="n">
         <v>-0.02</v>
@@ -56227,7 +57292,7 @@
         <v>0.02</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.18</v>
+        <v>-0.14</v>
       </c>
       <c r="W103" t="n">
         <v>-0.9</v>
@@ -56254,13 +57319,13 @@
         <v>0.04</v>
       </c>
       <c r="AE103" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AF103" t="n">
         <v>-0.03</v>
       </c>
       <c r="AG103" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AH103" t="n">
         <v>-0.02</v>
@@ -56275,7 +57340,7 @@
         <v>-0.02</v>
       </c>
       <c r="AL103" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AM103" t="n">
         <v>-0.01</v>
@@ -56284,37 +57349,37 @@
         <v>0</v>
       </c>
       <c r="AO103" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AP103" t="n">
         <v>0.02</v>
       </c>
       <c r="AQ103" t="n">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="AR103" t="n">
         <v>0.89</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AT103" t="n">
-        <v>-2.43</v>
+        <v>-2.39</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="AV103" t="n">
         <v>-0.08</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="AX103" t="n">
-        <v>-0.14</v>
+        <v>-0.02</v>
       </c>
       <c r="AY103" t="n">
-        <v>-6.89</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="104">
@@ -56322,13 +57387,13 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C104" t="n">
         <v>0.02</v>
       </c>
       <c r="D104" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="E104" t="n">
         <v>0.05</v>
@@ -56337,37 +57402,37 @@
         <v>0.18</v>
       </c>
       <c r="G104" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="H104" t="n">
         <v>-7.05</v>
       </c>
       <c r="I104" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="J104" t="n">
         <v>0.01</v>
       </c>
       <c r="K104" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="L104" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="M104" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="P104" t="n">
         <v>0.04</v>
       </c>
       <c r="Q104" t="n">
-        <v>-0.16</v>
+        <v>0.16</v>
       </c>
       <c r="R104" t="n">
         <v>0.03</v>
@@ -56382,19 +57447,19 @@
         <v>-0.02</v>
       </c>
       <c r="V104" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="W104" t="n">
         <v>0.11</v>
       </c>
       <c r="X104" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Z104" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AA104" t="n">
         <v>0</v>
@@ -56409,13 +57474,13 @@
         <v>-0.06</v>
       </c>
       <c r="AE104" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AF104" t="n">
         <v>-0.09</v>
       </c>
       <c r="AG104" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="AH104" t="n">
         <v>-0.1</v>
@@ -56430,7 +57495,7 @@
         <v>0.04</v>
       </c>
       <c r="AL104" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AM104" t="n">
         <v>-0.51</v>
@@ -56439,10 +57504,10 @@
         <v>0</v>
       </c>
       <c r="AO104" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.31</v>
@@ -56454,10 +57519,10 @@
         <v>8.64</v>
       </c>
       <c r="AT104" t="n">
-        <v>-3.64</v>
+        <v>-3.59</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="AV104" t="n">
         <v>0.14</v>
@@ -56466,10 +57531,10 @@
         <v>-0.12</v>
       </c>
       <c r="AX104" t="n">
-        <v>3.09</v>
+        <v>3.15</v>
       </c>
       <c r="AY104" t="n">
-        <v>11.04</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="105">
@@ -56477,7 +57542,7 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="C105" t="n">
         <v>-0.01</v>
@@ -56492,37 +57557,37 @@
         <v>-0.12</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="H105" t="n">
         <v>-3.28</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="K105" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="L105" t="n">
-        <v>8.3</v>
+        <v>8.83</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.08</v>
+        <v>-0.07</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="P105" t="n">
         <v>-0.01</v>
       </c>
       <c r="Q105" t="n">
-        <v>-1.89</v>
+        <v>-1.78</v>
       </c>
       <c r="R105" t="n">
         <v>0.18</v>
@@ -56537,13 +57602,13 @@
         <v>-0.31</v>
       </c>
       <c r="V105" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="W105" t="n">
         <v>0.28</v>
       </c>
       <c r="X105" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Y105" t="n">
         <v>0.01</v>
@@ -56564,13 +57629,13 @@
         <v>-0.02</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AF105" t="n">
         <v>-0.11</v>
       </c>
       <c r="AG105" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="AH105" t="n">
         <v>0.16</v>
@@ -56585,7 +57650,7 @@
         <v>0.19</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AM105" t="n">
         <v>0.8</v>
@@ -56612,7 +57677,7 @@
         <v>-5.25</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="AV105" t="n">
         <v>-0.17</v>
@@ -56621,10 +57686,10 @@
         <v>0</v>
       </c>
       <c r="AX105" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.06</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="106">
@@ -56638,31 +57703,31 @@
         <v>-0.01</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.23</v>
+        <v>-0.2</v>
       </c>
       <c r="E106" t="n">
         <v>-0.03</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G106" t="n">
         <v>0.18</v>
       </c>
       <c r="H106" t="n">
-        <v>-4.72</v>
+        <v>-4.71</v>
       </c>
       <c r="I106" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="L106" t="n">
-        <v>4.06</v>
+        <v>4.12</v>
       </c>
       <c r="M106" t="n">
         <v>-0.02</v>
@@ -56671,13 +57736,13 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="P106" t="n">
         <v>0.04</v>
       </c>
       <c r="Q106" t="n">
-        <v>-3.45</v>
+        <v>-3.18</v>
       </c>
       <c r="R106" t="n">
         <v>-0.05</v>
@@ -56689,10 +57754,10 @@
         <v>0.17</v>
       </c>
       <c r="U106" t="n">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="V106" t="n">
-        <v>0.02</v>
+        <v>-0.11</v>
       </c>
       <c r="W106" t="n">
         <v>0.04</v>
@@ -56701,7 +57766,7 @@
         <v>0.46</v>
       </c>
       <c r="Y106" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="Z106" t="n">
         <v>0.03</v>
@@ -56713,22 +57778,22 @@
         <v>-0.01</v>
       </c>
       <c r="AC106" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AD106" t="n">
         <v>0.05</v>
       </c>
       <c r="AE106" t="n">
-        <v>-1.89</v>
+        <v>-1.79</v>
       </c>
       <c r="AF106" t="n">
         <v>0.13</v>
       </c>
       <c r="AG106" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AH106" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AI106" t="n">
         <v>0.01</v>
@@ -56755,7 +57820,7 @@
         <v>0.1</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AR106" t="n">
         <v>-0.38</v>
@@ -56767,19 +57832,19 @@
         <v>-5.49</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="AV106" t="n">
         <v>-0.11</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="AX106" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="AY106" t="n">
-        <v>-5.29</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="107">
@@ -56787,19 +57852,19 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C107" t="n">
         <v>-0.06</v>
       </c>
       <c r="D107" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="E107" t="n">
         <v>0.03</v>
       </c>
       <c r="F107" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G107" t="n">
         <v>0.14</v>
@@ -56808,16 +57873,16 @@
         <v>-4.29</v>
       </c>
       <c r="I107" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="L107" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M107" t="n">
         <v>0.02</v>
@@ -56826,13 +57891,13 @@
         <v>0.01</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="P107" t="n">
         <v>0.01</v>
       </c>
       <c r="Q107" t="n">
-        <v>-6.49</v>
+        <v>-6.08</v>
       </c>
       <c r="R107" t="n">
         <v>0.05</v>
@@ -56841,13 +57906,13 @@
         <v>0.01</v>
       </c>
       <c r="T107" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="U107" t="n">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="V107" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="W107" t="n">
         <v>-0.15</v>
@@ -56874,16 +57939,16 @@
         <v>0.31</v>
       </c>
       <c r="AE107" t="n">
-        <v>-0.68</v>
+        <v>-0.56</v>
       </c>
       <c r="AF107" t="n">
         <v>-0.56</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AH107" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AI107" t="n">
         <v>-0.03</v>
@@ -56895,13 +57960,13 @@
         <v>0</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AM107" t="n">
         <v>-0.36</v>
       </c>
       <c r="AN107" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AO107" t="n">
         <v>-0.02</v>
@@ -56910,7 +57975,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AR107" t="n">
         <v>0.12</v>
@@ -56922,19 +57987,19 @@
         <v>-0.42</v>
       </c>
       <c r="AU107" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AV107" t="n">
         <v>0.06</v>
       </c>
       <c r="AW107" t="n">
-        <v>-0.07</v>
+        <v>-0.16</v>
       </c>
       <c r="AX107" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AY107" t="n">
-        <v>1.06</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="108">
@@ -56942,13 +58007,13 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="C108" t="n">
         <v>-0.02</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.27</v>
+        <v>-1.25</v>
       </c>
       <c r="E108" t="n">
         <v>0.01</v>
@@ -56957,22 +58022,22 @@
         <v>0.05</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H108" t="n">
         <v>-3.72</v>
       </c>
       <c r="I108" t="n">
-        <v>-2.06</v>
+        <v>-2.03</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L108" t="n">
-        <v>5.99</v>
+        <v>6.03</v>
       </c>
       <c r="M108" t="n">
         <v>-0.05</v>
@@ -56981,7 +58046,7 @@
         <v>0.04</v>
       </c>
       <c r="O108" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="P108" t="n">
         <v>-0.01</v>
@@ -57002,7 +58067,7 @@
         <v>0.02</v>
       </c>
       <c r="V108" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="W108" t="n">
         <v>0.28</v>
@@ -57029,13 +58094,13 @@
         <v>0.23</v>
       </c>
       <c r="AE108" t="n">
-        <v>-0.71</v>
+        <v>-0.67</v>
       </c>
       <c r="AF108" t="n">
         <v>-0.13</v>
       </c>
       <c r="AG108" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AH108" t="n">
         <v>1.19</v>
@@ -57065,13 +58130,13 @@
         <v>0.09</v>
       </c>
       <c r="AQ108" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AR108" t="n">
         <v>0.74</v>
       </c>
       <c r="AS108" t="n">
-        <v>-9.38</v>
+        <v>-9.37</v>
       </c>
       <c r="AT108" t="n">
         <v>-1.3</v>
@@ -57086,10 +58151,10 @@
         <v>0.5</v>
       </c>
       <c r="AX108" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="AY108" t="n">
-        <v>-17.35</v>
+        <v>-17.12</v>
       </c>
     </row>
     <row r="109">
@@ -57252,52 +58317,52 @@
         <v>45658</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.49</v>
+        <v>-1.47</v>
       </c>
       <c r="C110" t="n">
         <v>-0.01</v>
       </c>
       <c r="D110" t="n">
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
         <v>-0.02</v>
       </c>
-      <c r="G110" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H110" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M110" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>-0.1</v>
-      </c>
       <c r="P110" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>-0.15</v>
+        <v>-0.71</v>
       </c>
       <c r="R110" t="n">
         <v>0.05</v>
@@ -57309,10 +58374,10 @@
         <v>0.18</v>
       </c>
       <c r="U110" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="V110" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="W110" t="n">
         <v>0.51</v>
@@ -57321,7 +58386,7 @@
         <v>0.93</v>
       </c>
       <c r="Y110" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="Z110" t="n">
         <v>0.02</v>
@@ -57333,25 +58398,25 @@
         <v>0</v>
       </c>
       <c r="AC110" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AD110" t="n">
         <v>0.07</v>
       </c>
       <c r="AE110" t="n">
-        <v>-1.62</v>
+        <v>-0.82</v>
       </c>
       <c r="AF110" t="n">
         <v>-0.05</v>
       </c>
       <c r="AG110" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="AH110" t="n">
-        <v>-0.16</v>
+        <v>-0.07</v>
       </c>
       <c r="AI110" t="n">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="AJ110" t="n">
         <v>-0.04</v>
@@ -57360,7 +58425,7 @@
         <v>-0.01</v>
       </c>
       <c r="AL110" t="n">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="AM110" t="n">
         <v>1.03</v>
@@ -57369,37 +58434,37 @@
         <v>-0.01</v>
       </c>
       <c r="AO110" t="n">
-        <v>-0.07</v>
+        <v>-0.09</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AQ110" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="AR110" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AS110" t="n">
-        <v>7.31</v>
+        <v>8.86</v>
       </c>
       <c r="AT110" t="n">
         <v>1.23</v>
       </c>
       <c r="AU110" t="n">
-        <v>-0.23</v>
+        <v>-0.07</v>
       </c>
       <c r="AV110" t="n">
         <v>0.13</v>
       </c>
       <c r="AW110" t="n">
-        <v>-0.17</v>
+        <v>-0.36</v>
       </c>
       <c r="AX110" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AY110" t="n">
-        <v>10.82</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="111">
@@ -57407,13 +58472,13 @@
         <v>45689</v>
       </c>
       <c r="B111" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C111" t="n">
         <v>0.01</v>
       </c>
       <c r="D111" t="n">
-        <v>4.65</v>
+        <v>4.67</v>
       </c>
       <c r="E111" t="n">
         <v>0.01</v>
@@ -57425,19 +58490,19 @@
         <v>0.66</v>
       </c>
       <c r="H111" t="n">
-        <v>0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.87</v>
+        <v>-1.55</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="L111" t="n">
-        <v>7.43</v>
+        <v>7.47</v>
       </c>
       <c r="M111" t="n">
         <v>-0.29</v>
@@ -57446,37 +58511,37 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="P111" t="n">
         <v>-0.01</v>
       </c>
       <c r="Q111" t="n">
-        <v>-3.28</v>
+        <v>-3.84</v>
       </c>
       <c r="R111" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="U111" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="V111" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="W111" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X111" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="Y111" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="Z111" t="n">
         <v>-0.01</v>
@@ -57488,34 +58553,34 @@
         <v>-0.01</v>
       </c>
       <c r="AC111" t="n">
-        <v>-0.26</v>
+        <v>-0.33</v>
       </c>
       <c r="AD111" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="AE111" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="AF111" t="n">
         <v>0.09</v>
       </c>
       <c r="AG111" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AH111" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AI111" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="AJ111" t="n">
         <v>-0.02</v>
       </c>
       <c r="AK111" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL111" t="n">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="AM111" t="n">
         <v>0.04</v>
@@ -57527,34 +58592,34 @@
         <v>-0.02</v>
       </c>
       <c r="AP111" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AR111" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>6.79</v>
+        <v>4.78</v>
       </c>
       <c r="AT111" t="n">
-        <v>-0.13</v>
+        <v>-1.53</v>
       </c>
       <c r="AU111" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="AV111" t="n">
         <v>0.05</v>
       </c>
       <c r="AW111" t="n">
-        <v>-0.12</v>
+        <v>-0.21</v>
       </c>
       <c r="AX111" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="AY111" t="n">
-        <v>22.15</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="112">
@@ -57562,73 +58627,73 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.73</v>
+        <v>-0.74</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F112" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G112" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="H112" t="n">
         <v>0.94</v>
       </c>
       <c r="I112" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="L112" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="M112" t="n">
-        <v>-0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="P112" t="n">
         <v>0.04</v>
       </c>
       <c r="Q112" t="n">
-        <v>-5.2</v>
+        <v>-5.71</v>
       </c>
       <c r="R112" t="n">
         <v>0.01</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T112" t="n">
         <v>-0.31</v>
       </c>
       <c r="U112" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="V112" t="n">
-        <v>0.89</v>
+        <v>0.58</v>
       </c>
       <c r="W112" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="X112" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="Y112" t="n">
         <v>0</v>
@@ -57649,19 +58714,19 @@
         <v>0.25</v>
       </c>
       <c r="AE112" t="n">
-        <v>-2.95</v>
+        <v>-2.83</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AG112" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AH112" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AI112" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ112" t="n">
         <v>-0.04</v>
@@ -57670,7 +58735,7 @@
         <v>0.01</v>
       </c>
       <c r="AL112" t="n">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="AM112" t="n">
         <v>0.87</v>
@@ -57685,16 +58750,16 @@
         <v>-0.04</v>
       </c>
       <c r="AQ112" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="AR112" t="n">
         <v>0.49</v>
       </c>
       <c r="AS112" t="n">
-        <v>-2.11</v>
+        <v>-2.54</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AU112" t="n">
         <v>0.45</v>
@@ -57703,13 +58768,13 @@
         <v>0.04</v>
       </c>
       <c r="AW112" t="n">
-        <v>-0.03</v>
+        <v>-0.11</v>
       </c>
       <c r="AX112" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="AY112" t="n">
-        <v>11.25</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="113">
@@ -58027,55 +59092,55 @@
         <v>45809</v>
       </c>
       <c r="B115" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="C115" t="n">
         <v>0.02</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.07</v>
+        <v>-0.08</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.13</v>
+        <v>0.07</v>
       </c>
       <c r="G115" t="n">
         <v>0.62</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="I115" t="n">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L115" t="n">
-        <v>6.18</v>
+        <v>6.01</v>
       </c>
       <c r="M115" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.97</v>
+        <v>-1.06</v>
       </c>
       <c r="P115" t="n">
         <v>0.04</v>
       </c>
       <c r="Q115" t="n">
-        <v>-2.92</v>
+        <v>-3.03</v>
       </c>
       <c r="R115" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="S115" t="n">
         <v>0.12</v>
@@ -58087,19 +59152,19 @@
         <v>0.02</v>
       </c>
       <c r="V115" t="n">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="W115" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="X115" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z115" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA115" t="n">
         <v>0.01</v>
@@ -58108,25 +59173,25 @@
         <v>0.02</v>
       </c>
       <c r="AC115" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AD115" t="n">
         <v>-0.12</v>
       </c>
       <c r="AE115" t="n">
-        <v>-0.66</v>
+        <v>-0.67</v>
       </c>
       <c r="AF115" t="n">
         <v>0.16</v>
       </c>
       <c r="AG115" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="AH115" t="n">
         <v>-0.03</v>
       </c>
       <c r="AI115" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AJ115" t="n">
         <v>-0.04</v>
@@ -58156,25 +59221,490 @@
         <v>0.56</v>
       </c>
       <c r="AS115" t="n">
-        <v>-4.35</v>
+        <v>-4.32</v>
       </c>
       <c r="AT115" t="n">
-        <v>-1.47</v>
+        <v>-1.5</v>
       </c>
       <c r="AU115" t="n">
-        <v>-0.81</v>
+        <v>-0.78</v>
       </c>
       <c r="AV115" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="L116" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-6.32</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="U116" t="n">
         <v>0.05</v>
       </c>
-      <c r="AW115" t="n">
+      <c r="V116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W116" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AL116" t="n">
         <v>-0.07</v>
       </c>
-      <c r="AX115" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AY115" t="n">
-        <v>5.6</v>
+      <c r="AM116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>-6.23</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R117" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T117" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W117" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="X117" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R118" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T118" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W118" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>3.72</v>
       </c>
     </row>
   </sheetData>
